--- a/projectlinks.xlsx
+++ b/projectlinks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="1048">
   <si>
     <t>Project Number</t>
   </si>
@@ -1589,6 +1589,1575 @@
   </si>
   <si>
     <t>2023699</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\F\FIRST COST ANODIZING\89101 FIRST COST ANODIZING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\N\NATIONAL PLATING\89102 NATIONAL PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CARBON GRAPHICS GROUP\89103 CARBON GRAPHICS GROUP</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PLACAGE ASTRO CHROME\89104 PLACAGE ASTRO CHROME</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\AMERICAN TINNING &amp; GALV\89105 AMERICAN TINNING AND GALV</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CROUSE HINDS CO\89106 CROUSE HINDS CO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CASTLE METAL FINISHING\89108 CASTLE METAL FINISHING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\HALE CHROME\89109 HALE CHROME</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\F\FINISHING AND PLATING\89110 FINISHING AND PLATING SERVICE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\POTTSTOWN PLATING\89111 POTTSTOWN PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\F\FRAEN MACHINE CORP\89112 FRAEN CORP</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\GUARANTEED CHROME\89113 GUARANTEED CHROME FINISHING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\U\UNITED CIRCUITS\89114 UNITED CIRCUITS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\HANDY AND HARMAN TUBE\89115 HANDY AND HARMAN TUBE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\J\J &amp; T TECH\89116 J &amp; T TECH</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\O\OLIN\89117 OLIN CORPORATION</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CHAMPION PLATING\89118 CHAMPION PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\STEEL HEDDLE\89119 STEEL HEDDLE MFG</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SOUTH HOLLAND\89120 SOUTH HOLLAND METAL FINISHING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CAMBRIDGE PLATING\89121 CAMBRIDGE PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\B\BARBER COLEMAN\90140 BARBER COLEMAN</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\ELDRE\90141 ELDRE COMPANY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\D\DRIV-LOCK\90142 DRIV-LOCK</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PACE FOODS\90145 PACE FOODS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PACE FOODS\90146 PACE FOODS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ALLIED BENDIX\91147 ALLIED BENDIX</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ALLIED BENDIX\91148 ALLIED BENDIX</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\W\WOLKERSTORFER\91149 WOLKERSTORFER</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\W\WOLKERSTORFER\91150 WOLKERSTORFER</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\K\KEYSTONE\91151 KEY STONE RUSTPROOFING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\B\BOEING\91152 BOEING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\METAL ARTS FINISHING\91154 METAL ARTS FINISHING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PLATING TECHNOLOGY\91155 PLATING TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\R\R SHARPE\91156 R SHARPE INDUSTRIES</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PLATING TECHNOLOGY\91157 PLATING TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\V\VAN NUYES PLATING\91158 VAN NUYES PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PRATT &amp; WHITNEY\91159 PRATT &amp; WHITNEY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PRATT &amp; WHITNEY\91160 PRATT &amp; WHITNEY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MOLEX\91161 MOLEX</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\R\ROY METAL\91162 ROY METAL FINISHING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\L\LOCKHEED MARTIN\91163 LOCKHEED</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\R\ROSS NAME PLATE\91164 ROSS NAME PLATE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\W\WHITAKER SURFACE\91165 WHITAKER SURFACE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SCOVILL\91166 SCOVILL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SCOVILL\91167 SCOVILL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\N\NEW DIMENSION PLATING\91168 NEW DIMENSION PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\G BETHELL\91169 G BETHELL DISTRIBUTORS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PRAEGITZER INDUSTRIES\91170 PRAEGITZER INDUSTRIES</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\D\DYNA-CRAFT\91171 DYNA-CRAFT</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\I\INDUSTRIAL PLATING\91172 INDUSTRIAL PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\I\INDUSTRIAL PLATING\91173 INDUSTRIAL PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\B\BUREAU OF ENGRAVING\91174 BUREAU OF ENGRAVING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SUPERIOR METAL\91175 SUPERIOR METAL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\B\BLOUNT\91176 BLOUNT</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\I\ITT CANNON\91177 ITT CANNON</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\O\OMNI-SPECTRA\91178 OMNI-SPECTRA</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MOEN\91179 MOEN INC</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\GABRIELE INDUSTRIES\91180 GABRIELE INDUSTRIES</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\GARDENA\91181 GARDENA PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SOUTHWEST PLATING\91182 SOUTHWEST PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\W\W.E. GILBERT\91183 W.E. GILBERT, TRIMITE POWDERS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MCCAULEY-MCGARD\91184 MCCAULEY - MCGARD</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CINCH CONNECTORS\91185 CINCH CONNECTORS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\B\BOEING\91186 BOEING NARDONE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\POULAN WEEDEATER\91187 POULAN WEEDEATER</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PRECISION PLATING\91188 PRECISION PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\AQUANEERS\91189 AQUANEERS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\U\UBIO\91190 UBIO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\I\INTERMETRO\91191 INTERMETRO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MIDWEST\91192 MIDWEST</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\T\TIERKURO\91194 TIERKURO CORPORATION</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\L\LATRONICS\91195 LATRONICS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\EASTERN CHROME PLATING\91196 EASTERN CHROME PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\METFAB\91197 METFAB</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\T\TIERKURO\91198 TIERKURO CORPORATION</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SOUTHWESTERN PLATING\91199 SOUTHWESTERN PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\AERODYNAMIC PLATING\91200 AERODYNAMIC PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PLATING SPECIALTIES\91201 PLATING SPECIALTIES</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\U\UNITED MUSICAL INSTRUMENTS\91202 UNITED MUSICAL INSTRUMENTS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\W\WELCH ALLAN\91203 WELCH ALLYN</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CONREC\91204 CONREC RENTAL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MCALPIN\91205 MCALPIN</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\R\ROCHESTER PLATING\91206 ROCHESTER PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\B\BERETTA USA\91207 BERETTA USA</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CHICAGO RIVET &amp; MACHINE\91208 CHICAGO RIVET AND MACHINE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\W\WICKES MFG\91209 WICKES MFG CO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CHICAGO RIVET &amp; MACHINE\91210 CHICAGO RIVET</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\L\LARSEN &amp; SHAW\91211 LARSEN &amp; SHAW</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\W\WESCO VALVE\91212 WESCO VALVE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SWAROSKI\91213 SWAROSKI</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\G BETHELL\91214 G BETHELL DISTRIBUTING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\EAST SIDE PLATING\91215 EAST SIDE PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\AMEROCK\91216 AMEROCK</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\B\BOEING\91217 BOEING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\D\DANA WEATHERHEAD\92218 DANA WEATHERHEAD</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\B\BOEING\92219 BOEING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\I\INTERMETRO\92220 INTERMETRO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PLATING TECHNOLOGY\92221 PLATING TECH</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PLATING TECHNOLOGY\92222 PLATING TECH</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PRATT &amp; WHITNEY\92223 PRATT &amp; WHITNEY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PRATT &amp; WHITNEY\92224 PRATT &amp; WHITNEY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MILLS METAL FINISHING\92225 MILLS METAL FINISHING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\A BRITE CO\92226 A BRITE CO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\L\LINCOLN PLATING\92227 LINCOLN PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MAGNETEK\92228 MAGNETEK</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\STAR PLATING\92229 STAR PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MODERN PLATING\92230 MODERN PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\T\TRU-WAY\92231 TRU-WAY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\L\LINCOLN PLATING\92232 LINCOLN PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PORTLAND WILIMETTE\92233 PORTLAND WILIMETTE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PORTLAND WILIMETTE\92234 PORTLAND WILIMETTE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SCHLAGE\92235 SCHLAGE LOCK CO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PLATING TECHNOLOGY\92236 PLATING TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\HILL AFB\92237 HILL AFB</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\G BETHELL\92238 G BETHELL DISTRIBUTORS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PRECISION AEROSPACE\92239 PRECISION AEROSPACE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PRATT &amp; WHITNEY\92240 PRATT &amp; WHITHEY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\U\UNITED MUSICAL INSTRUMENTS\92241 UNITED MUSICAL INSTRUMENTS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\U\UNITED MUSICAL INSTRUMENTS\92242 UNITED MUSICAL INSTRUMENTS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PRATT &amp; WHITNEY\92243 PRATT &amp; WHITNEY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PRATT &amp; WHITNEY\92245 PRATT &amp; WHITNEY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\GE\92246 GE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\HANDY AND HARMAN TUBE\92247 H &amp; H TUBE MFG CO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\HANDY AND HARMAN TUBE\92248 H &amp; H TUBE MFG CO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\G BETHELL\92249 G BETHELL DISTRIBUTORS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\AMP\92250 AMP HOLLAND</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SILVEX\92251 SILVEX</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MCALPIN\92252 MCALPIN</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\STABILUS\92253 STABILUS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\F\FEDERAL MOGUL\92254 FEDERAL MOGUL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\GENERAL PLATING\92255 GENERAL PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\COMPDRAW EDM EVALUATION\92256 COMPDRAW EDM EVALUATION</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\GREYSTONE\92257 GREYSTONE OF VA</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\STRATHCRAFT\92258 STRATHCRAFT</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\I\INTERNATIONAL RECTIFIER\92259 INTERNATIONAL RECTIFIER</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\R\ROCHESTER PLATING\92260 ROCHESTER PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\K\KEYSTONE\92261 KEYSTONE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\K\KEYSTONE\92262 KEYSTONE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\O\OMEGA\92263 OMEGA INDUSTRIES</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SIEMENS\92264 SIEMENS AUTOMOTIVE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SILVEX\92265 SILVEX INC</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\D\D.V. INDUSTRIES\93266 D.V. INDUSTRIES</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SOUTHWEST METAL FINISHING\93267 SOUTHWEST METAL FINISHING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CONSTRUCTION SPECIALTIES\93268 CONSTRUCTION SPECIALTIES</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\AMP\93269 AMP INC</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\ETHICON\93270 ETHICON</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\D\DECARTHUR PLATING\93271 DECARTHUR PLATING - REBUILD</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\Z\ZIPPO\93272 ZIPPO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CHRYSLER TECH\93273 CHRYSLER TECH</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\T\TEXAS INSTRUMENTS\93274 TEXAS INSTRUMENTS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\T\TEXAS INSTRUMENTS\93275 TEXAS INSTRUMENTS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PROFESSIONAL PLATING\93276 PROFESSIONAL PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PHILIPS ELMET\93277 PHILIPS ELMET</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PHILIPS ELMET\93278 PHILIPS ELMET</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\U\UNARCO\93279 UNARCO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\STANDARD MOTORS\93280 STANDARD MOTORS AUTOMOTIVE CONTROL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\H M QUACKENBUSH\93281 H M QUACKENBUSH</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MAGNETEK\93282 MAGNETEK</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\C &amp; R PLATING\93283 C &amp; R PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\AMERICAN BANKNOTE\93284 AMERICAN BANKNOTE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PHOTOCIRCUITS\93285 PHOTOCIRCUITS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PHOTOCIRCUITS\93286 PHOTOCIRCUITS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PHOTOCIRCUITS\93287 PHOTOCIRCUITS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PRECISE FINISHING\93288 PRECISE FINISHING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\HOPEWELL\93289 HOPEWELL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\R\REPUBLIC METALS\93290 REPUBLIC METALS CORPORATION</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\H M QUACKENBUSH\93291 H M QUACKENBUSH</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SCHLAGE\93292 SCHLAGE LOCK CO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\N\NORBROOK PLATING\93293 NORBROOK PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\HOPEWELL\93294 HOPEWELL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\W\WECK\93295 WECK</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MILWAUKEE PLATING\93296 MILWAUKEE PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\L\LA FRANCE\93298 LA FRANCE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SACHS AUTOMOTIVE\93299 SACHS AUTOMOTIVE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\L\LINCOLN PLATING\93300 LINCOLN PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MERAMA\93301 MERAMA INC</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\K\KASPAR WIRE WORKS\93302 KASPAR WIRE WORKS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\R\ROCK ISLAND ARSENAL\93303 ROCK ISLAND ARSENAL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\W\WYRE WYND\94304 WYRE WYND</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\W\WYRE WYND\94305 WYRE WYND</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\W\WYRE WYND\94306 WYRE WYND</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SENIOR PRODUCTS\94307 SENIOR PRODUCTS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ANCHOR COUPLING\94308 ANCHOR COUPLING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PACIFIC CIRCUITS\94309 PACIFIC CIRCUITS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\V\VALEO WIPER\94310 VALEO WIPER SYSTEMS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MASTER LOCK\94311 MASTER LOCK</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\EGG PRESSURE SYSTEMS\94312 EGG PRESSURE SYSTEMS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\K\KONTEK ECOLOGY\94313 KONTEK - SPAR GROUP</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ADAPTIVE CIRCUITS\94314 ADAPTIVE CIRCUITS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\T\TORPEDO SPECIALTY WIRE\94315 TORPEDO SPECIALTY WIRE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\B\BARRY CONTROLS\94316 BARRY CONTROLS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\HOPEWELL\94318 HOPEWELL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\HOPEWELL\94319 HOPEWELL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SUFFIELD\94320 SUFFIELD GROUP</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\HYDRO-LINE MFG CO\94321 HYDRO-LINE MFG CO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PARKER KALON\94322 PARKER KALON</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\ERIE PLATING\94323 ERIE PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\94325 OSRAM SYLVANIA</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PIONEER METAL FINISHING\94326 PIONEER METAL FINISHING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\N\NATIONAL MFG\94327 NATIONAL MFG OF CANADA</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\ERIE PLATING\94328 ERIE PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\R\REHRIG\94329 REHRIG INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\GREYSTONE\94330 GREYSTONE OF VA</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\GLADWIN METAL FINISHING\94331 GLADWIN METAL FINISHING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\N\NORTHERN IL METAL\94332 NORTHERN IL METAL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\I\IBM\94333 IBM</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\I\IBM\94334 IBM</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\W\WILSIRE MFG\94335 WILSIRE MFG</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SQUARE D\94336 SQUARE D</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CJ SAPORITO\94337 CJ SAPORITO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\I\INVAMEX\94339 INVAMEX</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PALNUT\94340 PALNUT</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\W\WESTERN EQUIPMENT\95341 WESTERN EQUIPMENT CO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\METAL TECH\95342 METAL TECH</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PHELPS DODGE\95343 PHELPS DODGE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\T\TIERKURO\95344 TEIKURO CORPORATION</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SUPERIOR METAL\95345 SUPERIOR METAL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\L\LONG MFG\95346 LONG MFG CO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\L\LONG MFG\95347 LONG MFG CO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\T\THOMSON SAGINAW\95348 THOMSON SAGINAW</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\T\TRIAD CIRCUITS\95349 TRIAD CIRCUITS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\95350 OSRAM SYLVANIA</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\95351 OSRAM SYLVANIA</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ALCOA\95352 ALCOA ELECTRONIC PKG</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\T\TALBOT\95353 TALBOT INDUSTRIES</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\R\ROACH PLATING\95354 ROACH PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CIRCUIT SERVICES\95355 CIRCUIT SERVICES</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\HANDY AND HARMAN TUBE\95356 HANDY &amp; HARMAN</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\F\FRAEN MACHINE CORP\95357 FRAEN MACHINE CORP SWISSTRONIC</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ALCOA\95358 ALCOA ELECTRONIC PKG</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ALCOA\95359 ALCOA ELECTRONIC PKG</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ALCOA\95360 ALCOA ELECTRONIC PKG</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ALCOA\95361 ALCOA ELECTRONIC PKG</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ALCOA\95362 ALCOA ELECTRONIC PKG</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ALCOA\95363 ALCOA ELECTRONIC PKG</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ALCOA\95364 ALCOA ELECTRONIC PKG</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ALCOA\95365 ALCOA ELECTRONIC PKG</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ALCOA\95366 ALCOA ELECTRONIC PKG</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\H M QUACKENBUSH\95367 H M QUACKENBUSH</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MID-STATE PLATING\95368 MID-STATE PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MID-STATE PLATING\95369 MID-STATE PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\HANDY AND HARMAN TUBE\95370 HANDY &amp; HARMAN</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\D\DHS\95371 DHS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\C &amp; R PLATING\95372 C &amp; R PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\N\NESOR ALLOY\95373 NESOR ALLOY DIV OF PHELPS DODGE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ALCOA\95374 ALCOA - VOIDED P.O</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\T\THERMO KING\95375 THERMO KING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\H M QUACKENBUSH\95376 H M QUACKENBUSH</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\K\KEMET ELECTRONICS\95377 KEMET ELECTRONICS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\H M QUACKENBUSH\95378 H M QUACKENBUSH</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\L\LONG MFG\95379 LONG MFG CO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\T\TIERKURO\95380 TIERKURO CORPORATION</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CORNING INT\95381 CORNING INT</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CORNING INT\95382 CORNING INT</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MONROE AUTOMOTIVE\95383 MONROE AUTOMOTIVE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MOLEX\95384 MOLEX OF INDIA</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\Z\ZIPPO\95385 ZIPPO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\95386 OSRAM SYLVANIA</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\T\TSR ENGINEERING\95387 TSR ENGINEERING - SIEMENS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\T\THERMO KING\95388 THERMO KING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CASCO\95389 CASCO PRODUCTS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ALCOA\96390 ALCOA ELECTRONIC PACKAGING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PRE FINISH METALS\96391 PRE FINISH METALS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\GE\96392 GE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\D\DELTA METAL FINISHING\96393 DELTA METAL FINISHING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\T\TSR ENGINEERING\96394 TSR ENGINEERING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\T\TENNECO PACKAGING\96396 TENNECO PACKAGING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\METAL PROCESSING\96397 METAL PROCESSING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\L\LINCOLN PLATING\96398 LINCOLN PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\HR INDUSTRIES\96399 HR INDUSTRIES</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MOLEX\96400 MOLEX OF KOREA</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\R\REQUEST SURPLUS\96402 REQUEST SURPLUS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\GOULD\96403 GOULD</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ANO-TECH\96404 ANO-TECH</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\K\KONTEK ECOLOGY\96405 KONTEK</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\D\DIXIE PLATING\96406 DIXIE PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\N\NESOR ALLOY\96407 NESOR ALLOY DIV OF PHELPS DODGE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\GREAT NECK SCREW\96408 GREAT NECK SCREW</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\I\INTEGRATED SYSTEMS\96409 INTEGRATED SYSTEMS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\I\INTEGRATED SYSTEMS\96410 INTEGRATED SYSTEMS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CONREC\96411 CONREC USED-REBUILT</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\GENERAL SUPER PLATE\96412 GENERAL SUPER PLATE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\N\NESOR ALLOY\96413 NESOR ALLOY DIV OF PHELPS DODGE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\GENERAL SUPER PLATE\96414 GENERAL SUPER PLATE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\N\NESOR ALLOY\96415 NESOR ALLOY DIV OF PHELPS DODGE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\GENERAL SUPER PLATE\97416 GENERAL SUPER PLATE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\U\US BRASS\97417 US BRASS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MCCAULEY-MCGARD\97418 MCCAULEY-MCGARD</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MCCAULEY-MCGARD\97419 MCCAULEY-MCGARD</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SOUTHWEST HYDROKINETICS\97420 SOUTHWEST HYDROKINETICS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\D\DEUTSCH\97421 DEUTSCH</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MOLEX\97422 MOLEX ETC</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\ENVIRO-CHEM\97423 ENVIRO-CHEM</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\97424 OSRAM SYLVANIA</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\97425 OSRAM SYLVANIA</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\W\WOOD GROUP\97426 WOOD GROUP POWER TECH</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\D\DEUTSCH\97427 DEUTSCH</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SOUTHWEST HYDRAULICS\97428 SOUTHWEST HYDRAULICS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CHAUTAUQUA HARDWARE CORP\97429 CHAUTAUQUA HARDWARE CORP</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CONREC\97430 CONREC RENTAL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\U\UNIMOLD\97431 UNIMOLD</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\EPZ\97432 EPZ EC METALS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\N\NESTAWAY\97433 NESTAWAY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\I\ILSCO\97434 ILSCO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CHICAGO RIVET &amp; MACHINE\97435 CHICAGO RIVET &amp; MACH</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CHICAGO RIVET &amp; MACHINE\97436 CHICAGO RIVET &amp; MACH</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MILLCRAFT\97437 MILLCRAFT MSM</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\V\VALEO WIPER\97438 VALEO WIPER SYSTEMS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\AERONEX\97439 AERONEX</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\GATES RUBBER\97440 GATES RUBBER</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MILLCRAFT\97441 MILLCRAFT MSM</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MILLCRAFT\97442 MILLCRAFT MSM</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MILLCRAFT\97443 MILLCRAFT MSM</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MILLCRAFT\97444 MILLCRAFT MSM</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MILLCRAFT\97445 MILLCRAFT MSM</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MILLCRAFT\97446 MILLCRAFT MSM</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MILLCRAFT\97447 MILLCRAFT MSM</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MILLCRAFT\97448 MILLCRAFT MSM</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PHELPS DODGE\97450 PHELPS DODGE - HUDSON INTL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ALLIED SIGNAL\97451 ALLIED SIGNAL - MEXICALI</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\METALOR REFINING\97452 METALOR REFINING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\I\IMPERIAL PLATING\97453 IMPERIAL PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\V\VALEO WIPER\97454 VALEO WIPER SYSTEMS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\I\INDIAN HEAD PLATING\97455 INDIAN HEAD PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\GE\97456 GE MOTORS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\L\LANCO ENVIRONMENTAL\97457 LANCO ENVIRONMENTAL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\HY-TECH FINISHING\97458 HY-TECH FINISHING - SURF-TECH</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ALLIED SIGNAL\97459 ALLIED SIGNAL - MEXICALI</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\B\BUREAU ELECTRONIC\98460 THE BUREAU ELECTRONIC GROUP</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\N\NEW DIMENSION PLATING\98461 NEW DIMENSION PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\T\TMPI\98462 TMPI</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CONREC\98464 CONREC RENTAL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\METALOR REFINING\98465 METALOR REFINING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\METALOR REFINING\98466 METALOR REFINING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\V\VERMONT AMERICA\98467 VERMONT AMERICA</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\I\IRC\98470 IRC</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\U\US FILTER\98471 US FILTER</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\U\US FILTER\98472 US FILTER</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\I\INDUSTRIAL PLATING\98473 INDUSTRIAL PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\I\INDIAN HEAD PLATING\98474 INDIAN HEAD PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MAGNESITA\98475 MAGNESITA</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MAGNESITA\98476 MAGNESITA</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\H &amp; M PLATING\98477 H &amp; M PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\T\THOMAS MFG\98478 THOMAS MFG</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\V\VERMONT AMERICA\98479 VERMONT AMERICA</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\T\TYCO\98480 TYCO ELECTRONICS - AMP</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CONREC\98481 CONREC RENTAL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MESSIER-DOWTY\98482 MESSIER-DOWTY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\I\INTERNATIONAL RECTIFIER\98483 INTERNATIONAL RECTIFIER</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\AMERICAN TINNING &amp; GALV\98484 AMERICAN TINNING &amp; GALV</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\AMERICAN TINNING &amp; GALV\98485 AMERICAN TINNING &amp; GALV</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\N\NESOR ALLOY\98486 NESOR ALLOY DIV OF PHELPS DODGE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\N\NESOR ALLOY\98487 NESOR ALLOY DIV OF PHELPS DODGE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\N\NESOR ALLOY\98488 NESOR ALLOY DIV OF PHELPS DODGS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\N\NESOR ALLOY\98489 NESOR ALLOY DIV OF PHELPS DODGS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\N\NESOR ALLOY\98490 NESOR ALLOY DIV OF PHELPS DODGE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SIEMENS\98491 SIEMENS ITE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\EPNER\98492 EPNER</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MCCAULEY-MCGARD\98493 MCCAULEY-MCGARD</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MCCAULEY-MCGARD\98494 MCCAULEY-MCGARD</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MCCAULEY-MCGARD\98495 MCCAULEY-MCGARD</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MCCAULEY-MCGARD\98496 MCCAULEY-MCGARD</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\I\INVENSYS\98498 INVENSYS SYSTEMS INC FOXBORO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\F\FOUNTAIN PLATING\98499 FOUNTAIN PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\AMP\98500 AMP INC</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\D\DYNATEC\98501 DYNATEC - NOT SOLD</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\R\R SHARPE\99502 R SHARPE INDUSTRIES</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\T\TEXTRON AEROSPACE\99503 TEXTRON AEROSPACE FASTENER</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SPEC PLATING\99504 SPEC PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SQUARE D\99505 SQUARE D - GROUPE SCHNEIDER</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MA-COMM\99506 MA-COMM, DIV TYCO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SEAGRAM DO LTD\99507 SEAGRAM DO LTD - UNIV POLYGRAM</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\EAST SIDE PLATING\99508 EAST SIDE PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\EAST SIDE PLATING\99509 EAST SIDE PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\T\THORCO\99510 THORCO INDUSTRIES</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CONREC\99511 DISMANTLED</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\V\VOEST-ALPINE\99512 VOEST-ALPINE SERVICE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\T\TYCO\99513 TYCO ELECTRONICS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\99514 OSRAM SILVANIA</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CONREC\99515 CONREC RENTAL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\W\WILLIAMS PLATING\99516 WILLIAMS PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SEPCO\99517 SILICON VALLEY - SEPCO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SEPCO\99518 SILICON VALLEY - SEPCO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\D\D S MFG\99519 D S MFG</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\D\DANFOSSE\99520 DANFOSSE MANEUROP SA</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\U\UNITED REFINING &amp; SMELTING\99521 UNITED REFINING &amp; SMELTING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CONREC\99522 NO SALE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CONREC\99523 NO SALE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\I\INDUSTRIAL ELECTROPLATING\99524 INDUSTRIAL ELECTROPLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\GE\99525 GE AIRCRAFT ENGINES</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\AMERICAN TINNING &amp; GALV\2000497 AMERICAN TINNING &amp; GALV</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\T\TCS\2000527 TCS - PERKIN ELMIR</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CONREC\2000528 CONREC RENTAL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\EVANS PLATING\2000529 EVANS PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CADON PIT\2000530 NO SOLD - CADON PIT - DISASSEMBLED</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\COGEMA RESOURCES\2000531 COGEMA RESOURCES</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\I\ILSCO\2000532 ILSCO CORP</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\O\OBERG\2000533 OBERG INDUSTRIES INC</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\O\OBERG\2000534 OBERG INDUSTRIES INC</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\A &amp; E ANODIZING\2000535 A &amp; E ANODIZING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\U\UNITED METAL FINISHING\2000536 UNITED METAL FINISHING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\EVANS PLATING\2000537 EVANS PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CONREC\2000538 CONREC RENTAL OLD STYLE RF MIC</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\R\RF MICRO\2000539 RF MICRO DEVICES</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\ELECTRO CHEMICAL FINISHING\2000540 ELECTRO CHEMICAL FINISHING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\ENVIRO-CHEM\2000541 ENVIRO-CHEM</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CONREC\2000542 CONREC RENTAL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\U\US ENGINE VALVES\2000543 US ENGINE VALVES</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\V\VOEST-ALPINE\2000544 VOEST-ALPINE SERVICE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\V\VOEST-ALPINE\2000545 VOEST-ALPINE SERVICE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\AMERICAN TECHNICAL CERAMICS\2000546 AMERICAN TECHNICAL CERAMICS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\V\VOEST-ALPINE\2000547 VOEST-ALPINE SERVICE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CONREC\2000548 NOT SOLD</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\Q\QUALITY ROLLING\2000549 QUALITY ROLLING &amp; DEBURRING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\EMPIRE HARD CHROME\2000550 EMPIRE HARD CHROME</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\EMPIRE HARD CHROME\2000551 EMPIRE HARD CHROME</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\R\RF MICRO\2000552 RF MICRO DEVICES</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PRECISION ALLOY\2001553 PRECISION ALLOY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CONREC\2001554 CONREC RENTAL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\D\DIXLINE\2001555 DIXLINE CORP</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PRECISION ALLOY\2001556 PRECISION ALLOY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CONREC\2001558 CONREC TESTING UNIT</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\K\KWIKSET LOCK\2001559 KWIKSET LOCK DIV OF B &amp; D</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MOEN\2001560 MOEN INC</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MOEN\2001561 MOEN INC</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\EPZ\2001562 EPZ METALS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\B\BERETTA USA\2001563 BERETTA USA CORP</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CONTINENTAL BRASS CO\2001564 CONTINENTAL BRASS CO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\2001565 OSRAM SYLVANIA</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\2001566 OSRAM SYLVANIA</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\2001567 OSRAM SYLVANIA</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CONREC\2001568 CONREC RENTAL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\R\RAYCO\2001569 RAYCO OF SCHENECTADY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SOUTHERN MAINE INDUSTRIES\2001570 SOUTHERN MAINE INDUSTRIES CORP</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\AMERICAN FLANGE\2001571 AMERICAN FLANGE &amp; MFG</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CUSTOM COATING\2001572 CUSTOM COATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\ERICO\2001573 ERICO INC</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\F\F &amp; H PLATING\2002395 F &amp; H PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CONREC\2002526 CONREC RENTAL - JW HARRIS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\EDCO\2002557 EDCO PRODUCTS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\GE\2002574 GE SWITCHGEAR</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SECOR\2002575 SECOR - US NAVY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MITSUBISHI\2002576 MITSUBISHI</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\GE\2002577 GE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\W\WATTS REGTROL\2002578 WATTS REGTROL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\V\V H BLACKINTON\2002579 V H BLACKINTON</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\I\INTERMETRO\2002580 INTERMETRO</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\EDCO\2002581 EDCO PRODUCTS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ABRAMS AIRBOURNE\2002582 ABRAMS AIRBORNE MFG</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\HALLMARK SWEET\2002583 HALLMARK SWEET</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CONREC\2002584 CONREC RENTAL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CONREC\2002585 CONREC RENTAL</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\Q\QUEEN CITY PLATING\2002586 QUEEN CITY PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PLASTIC PLATERS INC\2003587 PLASTIC PLATERS INC</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\B\BAR-S FOODS\2003588 BAR-S FOODS COMPANY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\K\K &amp; L MICROWAVE\2003589 K &amp; L MICROWAVE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\V\VARIAN MEDICAL\2003590 VARIAN MEDICAL SYSTEMS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\EATON\2003591 EATON CORPORATION</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\W\WASTE MANAGEMENT\2003592 WASTE MANAGEMENT-METRO RDF</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\K\K &amp; L MICROWAVE\2003593 K &amp; L MICROWAVE</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PARKEN-HANNIFIN\2003594 PARKER-HANNIFIN</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\HILL-ROM\2003595 HILL-ROM INC</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ABINGTON\2004596 ABINGTON METALS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MEXINOX\2004597 MEXINOX</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MEXINOX\2004598 MEXINOX</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MEXINOX\2004599 MEXINOX</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\L\LENOX - AMERICAN SAW\2004600 LENOX-AMERICAN SAW</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\L\LOCKHEED MARTIN\2004601 LOCKHEED MARTIN</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\HAR-CONN CHROME\2004602 HAR-CONN CHROME</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CJI PROCESS SYSTEMS\2005603 CJI PROCESS SYSTEMS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CJI PROCESS SYSTEMS\2005604 CJI PROCESS SYSTEMS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\ENCYCLE\2005605 ENCYCLE SDN BHDM MTPD</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\L\L.D. MCCAULEY\2005606 L D MCCAULEY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PROFILE EXTRUSIONS\2006607 PROFILE EXTRUSIONS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SPEC PLATING\2006608 SPEC PLATING CORP</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SPEC PLATING\2006609 SPEC PLATING CORP</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\AVANT GARDE\2007610 AVANT GARDE TECHNOLOGIES LTD</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\N\NICO PRODUCTS\2007611 NICO PRODUCTS INC</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SENIOR OPERATIONS\2007612 SENIOR OPERATIONS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\K\KONTEK ECOLOGY\2008613 KONTEK ECOLOGY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SQUARE D\2008614 SQUARE D - GROUPE SCHNEIDER</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\K\KONTEK ECOLOGY\2008615 KONTEK ECOLOGY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\W\WOOD GROUP\2008616 WOOD GROUP</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MILLCRAFT\2008617 MILLCRAFT SMS SERVICES</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MILLCRAFT\2008618 MILLCRAFT SMS SERVICES</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MILLCRAFT\2008619 MILLCRAFT SMS SERVICES</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MILLCRAFT\2008620 MILLCRAFT SMS SERVICES</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SMITH EQUIPMENT\2008621 SMITH EQUIPMENT</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\Q\QUEEN CITY PLATING\2008622 QUEEN CITY PLATING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SCHLAGE\2008623 SCHLAGE LOCK</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MICRONICS\2008624 MICRONICS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\R\R R DONNELLEY\2008625 R R DONNELLEY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MILLCRAFT\2008626 MILLCRAFT SMS SERVICES</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\K\KONTEK ECOLOGY\2008627 KONTEK ECOLOGY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\M W WATERMARK\2008628 M W WATERMARK - FOX GROUP</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ABINGTON\2009629 ABINGTON</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ABINGTON\2010634 ABINGTON RELDAN METALS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\N\NOVA FINISHING\2010635 NOVA FINISHING</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\HAWKINS\2010636 Hawkins</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\K\KESTREL\2012649 KESTREL HORIZONS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\K\KESTREL\2012650 KESTREL OPT. STUDY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\L\L.D. MCCAULEY\2013661 LD McCauley</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\G\GALDERMA\2013668 Warco_Galderma</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\F\FLEX-N-GATE\2013669 Flex-N-Gate</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\A\ABINGTON\2014672 - Abington 56206S Sludge Dryer - 50 CF Steam</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MARITIME HOUSE\2015678 - Maritime House Slurry Mizer 150S</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CIRCUIT CONTROLS CORP (CCC)\2015679 - Circuit Control Corp Slurry Mizer 75E</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MOEN\2016682 - Moen</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\COORSTEK\2017683 CoorsTek 44093E Dryer</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MOEN\2017684 - Moen 44093E Dryer</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\P\PRINTED CIRCUITS\2018685 - Printed Circuits - 29076E</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MICRONICS\2018686 - Micronics Inc - 26056E</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CONTROL ELECTROPOLISHING\2019687 Control Electropolishing - Shortcut.lnk</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\U\UNIFIRST\2020689 UNIFIRST BARNWELL, SC NUCLEAR LAUNDRY</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\H\HILL-ROM\2020690 HILLROM BATESVILLE, IN</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\L\LINCOLN ELECTRIC\2020691 LINCOLN ELECTRIC</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CONTROL ELECTROPOLISHING\2020692 Control Electropolishing 6 cuft sludge dryer 29076E</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\W\WILLIAMS PLATING\2020693 Conrec Sludge Dryer 26056E</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\E\ELECTRO KLEEN\2020694 3 cuft Filter Press with Head Plate Only</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\R\ROYAL CANADIAN MINT\2020695 RCM SLUDGE DRYER WITH STANCHIONS</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\M\MICRONICS\2022696 MICRONICS UK</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\C\CARBON IP - INNOTECH\2023698 CarbonIP-Innotech 24036E 2cu Used</t>
+  </si>
+  <si>
+    <t>P:/CONREC/CUSTOMERS\S\SIEMENS\2023699 SIEMENS ROEBUCK</t>
   </si>
 </sst>
 </file>
@@ -1604,17 +3173,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1657,10 +3226,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1960,15 +3529,12 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="9.140625" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1976,4710 +3542,4712 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\F\FIRST COST ANODIZING\89101 FIRST COST ANODIZING", "P:/CONREC/CUSTOMERS\F\FIRST COST ANODIZING\89101 FIRST COST ANODIZING")</f>
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\N\NATIONAL PLATING\89102 NATIONAL PLATING", "P:/CONREC/CUSTOMERS\N\NATIONAL PLATING\89102 NATIONAL PLATING")</f>
-        <v>0</v>
+      <c r="B3" s="2" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CARBON GRAPHICS GROUP\89103 CARBON GRAPHICS GROUP", "P:/CONREC/CUSTOMERS\C\CARBON GRAPHICS GROUP\89103 CARBON GRAPHICS GROUP")</f>
-        <v>0</v>
+      <c r="B4" s="2" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PLACAGE ASTRO CHROME\89104 PLACAGE ASTRO CHROME", "P:/CONREC/CUSTOMERS\P\PLACAGE ASTRO CHROME\89104 PLACAGE ASTRO CHROME")</f>
-        <v>0</v>
+      <c r="B5" s="2" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\AMERICAN TINNING &amp; GALV\89105 AMERICAN TINNING AND GALV", "P:/CONREC/CUSTOMERS\A\AMERICAN TINNING &amp; GALV\89105 AMERICAN TINNING AND GALV")</f>
-        <v>0</v>
+      <c r="B6" s="2" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CROUSE HINDS CO\89106 CROUSE HINDS CO", "P:/CONREC/CUSTOMERS\C\CROUSE HINDS CO\89106 CROUSE HINDS CO")</f>
-        <v>0</v>
+      <c r="B7" s="2" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CASTLE METAL FINISHING\89108 CASTLE METAL FINISHING", "P:/CONREC/CUSTOMERS\C\CASTLE METAL FINISHING\89108 CASTLE METAL FINISHING")</f>
-        <v>0</v>
+      <c r="B8" s="2" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\HALE CHROME\89109 HALE CHROME", "P:/CONREC/CUSTOMERS\H\HALE CHROME\89109 HALE CHROME")</f>
-        <v>0</v>
+      <c r="B9" s="2" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\F\FINISHING AND PLATING\89110 FINISHING AND PLATING SERVICE", "P:/CONREC/CUSTOMERS\F\FINISHING AND PLATING\89110 FINISHING AND PLATING SERVICE")</f>
-        <v>0</v>
+      <c r="B10" s="2" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\POTTSTOWN PLATING\89111 POTTSTOWN PLATING", "P:/CONREC/CUSTOMERS\P\POTTSTOWN PLATING\89111 POTTSTOWN PLATING")</f>
-        <v>0</v>
+      <c r="B11" s="2" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\F\FRAEN MACHINE CORP\89112 FRAEN CORP", "P:/CONREC/CUSTOMERS\F\FRAEN MACHINE CORP\89112 FRAEN CORP")</f>
-        <v>0</v>
+      <c r="B12" s="2" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\GUARANTEED CHROME\89113 GUARANTEED CHROME FINISHING", "P:/CONREC/CUSTOMERS\G\GUARANTEED CHROME\89113 GUARANTEED CHROME FINISHING")</f>
-        <v>0</v>
+      <c r="B13" s="2" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\U\UNITED CIRCUITS\89114 UNITED CIRCUITS", "P:/CONREC/CUSTOMERS\U\UNITED CIRCUITS\89114 UNITED CIRCUITS")</f>
-        <v>0</v>
+      <c r="B14" s="2" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\HANDY AND HARMAN TUBE\89115 HANDY AND HARMAN TUBE", "P:/CONREC/CUSTOMERS\H\HANDY AND HARMAN TUBE\89115 HANDY AND HARMAN TUBE")</f>
-        <v>0</v>
+      <c r="B15" s="2" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\J\J &amp; T TECH\89116 J &amp; T TECH", "P:/CONREC/CUSTOMERS\J\J &amp; T TECH\89116 J &amp; T TECH")</f>
-        <v>0</v>
+      <c r="B16" s="2" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\O\OLIN\89117 OLIN CORPORATION", "P:/CONREC/CUSTOMERS\O\OLIN\89117 OLIN CORPORATION")</f>
-        <v>0</v>
+      <c r="B17" s="2" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CHAMPION PLATING\89118 CHAMPION PLATING", "P:/CONREC/CUSTOMERS\C\CHAMPION PLATING\89118 CHAMPION PLATING")</f>
-        <v>0</v>
+      <c r="B18" s="2" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\STEEL HEDDLE\89119 STEEL HEDDLE MFG", "P:/CONREC/CUSTOMERS\S\STEEL HEDDLE\89119 STEEL HEDDLE MFG")</f>
-        <v>0</v>
+      <c r="B19" s="2" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SOUTH HOLLAND\89120 SOUTH HOLLAND METAL FINISHING", "P:/CONREC/CUSTOMERS\S\SOUTH HOLLAND\89120 SOUTH HOLLAND METAL FINISHING")</f>
-        <v>0</v>
+      <c r="B20" s="2" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CAMBRIDGE PLATING\89121 CAMBRIDGE PLATING", "P:/CONREC/CUSTOMERS\C\CAMBRIDGE PLATING\89121 CAMBRIDGE PLATING")</f>
-        <v>0</v>
+      <c r="B21" s="2" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\B\BARBER COLEMAN\90140 BARBER COLEMAN", "P:/CONREC/CUSTOMERS\B\BARBER COLEMAN\90140 BARBER COLEMAN")</f>
-        <v>0</v>
+      <c r="B22" s="2" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\ELDRE\90141 ELDRE COMPANY", "P:/CONREC/CUSTOMERS\E\ELDRE\90141 ELDRE COMPANY")</f>
-        <v>0</v>
+      <c r="B23" s="2" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\D\DRIV-LOCK\90142 DRIV-LOCK", "P:/CONREC/CUSTOMERS\D\DRIV-LOCK\90142 DRIV-LOCK")</f>
-        <v>0</v>
+      <c r="B24" s="2" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PACE FOODS\90145 PACE FOODS", "P:/CONREC/CUSTOMERS\P\PACE FOODS\90145 PACE FOODS")</f>
-        <v>0</v>
+      <c r="B25" s="2" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PACE FOODS\90146 PACE FOODS", "P:/CONREC/CUSTOMERS\P\PACE FOODS\90146 PACE FOODS")</f>
-        <v>0</v>
+      <c r="B26" s="2" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ALLIED BENDIX\91147 ALLIED BENDIX", "P:/CONREC/CUSTOMERS\A\ALLIED BENDIX\91147 ALLIED BENDIX")</f>
-        <v>0</v>
+      <c r="B27" s="2" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ALLIED BENDIX\91148 ALLIED BENDIX", "P:/CONREC/CUSTOMERS\A\ALLIED BENDIX\91148 ALLIED BENDIX")</f>
-        <v>0</v>
+      <c r="B28" s="2" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\W\WOLKERSTORFER\91149 WOLKERSTORFER", "P:/CONREC/CUSTOMERS\W\WOLKERSTORFER\91149 WOLKERSTORFER")</f>
-        <v>0</v>
+      <c r="B29" s="2" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\W\WOLKERSTORFER\91150 WOLKERSTORFER", "P:/CONREC/CUSTOMERS\W\WOLKERSTORFER\91150 WOLKERSTORFER")</f>
-        <v>0</v>
+      <c r="B30" s="2" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\K\KEYSTONE\91151 KEY STONE RUSTPROOFING", "P:/CONREC/CUSTOMERS\K\KEYSTONE\91151 KEY STONE RUSTPROOFING")</f>
-        <v>0</v>
+      <c r="B31" s="2" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\B\BOEING\91152 BOEING", "P:/CONREC/CUSTOMERS\B\BOEING\91152 BOEING")</f>
-        <v>0</v>
+      <c r="B32" s="2" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\METAL ARTS FINISHING\91154 METAL ARTS FINISHING", "P:/CONREC/CUSTOMERS\M\METAL ARTS FINISHING\91154 METAL ARTS FINISHING")</f>
-        <v>0</v>
+      <c r="B33" s="2" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PLATING TECHNOLOGY\91155 PLATING TECHNOLOGY", "P:/CONREC/CUSTOMERS\P\PLATING TECHNOLOGY\91155 PLATING TECHNOLOGY")</f>
-        <v>0</v>
+      <c r="B34" s="2" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\R\R SHARPE\91156 R SHARPE INDUSTRIES", "P:/CONREC/CUSTOMERS\R\R SHARPE\91156 R SHARPE INDUSTRIES")</f>
-        <v>0</v>
+      <c r="B35" s="2" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PLATING TECHNOLOGY\91157 PLATING TECHNOLOGY", "P:/CONREC/CUSTOMERS\P\PLATING TECHNOLOGY\91157 PLATING TECHNOLOGY")</f>
-        <v>0</v>
+      <c r="B36" s="2" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\V\VAN NUYES PLATING\91158 VAN NUYES PLATING", "P:/CONREC/CUSTOMERS\V\VAN NUYES PLATING\91158 VAN NUYES PLATING")</f>
-        <v>0</v>
+      <c r="B37" s="2" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PRATT &amp; WHITNEY\91159 PRATT &amp; WHITNEY", "P:/CONREC/CUSTOMERS\P\PRATT &amp; WHITNEY\91159 PRATT &amp; WHITNEY")</f>
-        <v>0</v>
+      <c r="B38" s="2" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PRATT &amp; WHITNEY\91160 PRATT &amp; WHITNEY", "P:/CONREC/CUSTOMERS\P\PRATT &amp; WHITNEY\91160 PRATT &amp; WHITNEY")</f>
-        <v>0</v>
+      <c r="B39" s="2" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MOLEX\91161 MOLEX", "P:/CONREC/CUSTOMERS\M\MOLEX\91161 MOLEX")</f>
-        <v>0</v>
+      <c r="B40" s="2" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\R\ROY METAL\91162 ROY METAL FINISHING", "P:/CONREC/CUSTOMERS\R\ROY METAL\91162 ROY METAL FINISHING")</f>
-        <v>0</v>
+      <c r="B41" s="2" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\L\LOCKHEED MARTIN\91163 LOCKHEED", "P:/CONREC/CUSTOMERS\L\LOCKHEED MARTIN\91163 LOCKHEED")</f>
-        <v>0</v>
+      <c r="B42" s="2" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\R\ROSS NAME PLATE\91164 ROSS NAME PLATE", "P:/CONREC/CUSTOMERS\R\ROSS NAME PLATE\91164 ROSS NAME PLATE")</f>
-        <v>0</v>
+      <c r="B43" s="2" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\W\WHITAKER SURFACE\91165 WHITAKER SURFACE", "P:/CONREC/CUSTOMERS\W\WHITAKER SURFACE\91165 WHITAKER SURFACE")</f>
-        <v>0</v>
+      <c r="B44" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SCOVILL\91166 SCOVILL", "P:/CONREC/CUSTOMERS\S\SCOVILL\91166 SCOVILL")</f>
-        <v>0</v>
+      <c r="B45" s="2" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SCOVILL\91167 SCOVILL", "P:/CONREC/CUSTOMERS\S\SCOVILL\91167 SCOVILL")</f>
-        <v>0</v>
+      <c r="B46" s="2" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\N\NEW DIMENSION PLATING\91168 NEW DIMENSION PLATING", "P:/CONREC/CUSTOMERS\N\NEW DIMENSION PLATING\91168 NEW DIMENSION PLATING")</f>
-        <v>0</v>
+      <c r="B47" s="2" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\G BETHELL\91169 G BETHELL DISTRIBUTORS", "P:/CONREC/CUSTOMERS\G\G BETHELL\91169 G BETHELL DISTRIBUTORS")</f>
-        <v>0</v>
+      <c r="B48" s="2" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PRAEGITZER INDUSTRIES\91170 PRAEGITZER INDUSTRIES", "P:/CONREC/CUSTOMERS\P\PRAEGITZER INDUSTRIES\91170 PRAEGITZER INDUSTRIES")</f>
-        <v>0</v>
+      <c r="B49" s="2" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\D\DYNA-CRAFT\91171 DYNA-CRAFT", "P:/CONREC/CUSTOMERS\D\DYNA-CRAFT\91171 DYNA-CRAFT")</f>
-        <v>0</v>
+      <c r="B50" s="2" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\I\INDUSTRIAL PLATING\91172 INDUSTRIAL PLATING", "P:/CONREC/CUSTOMERS\I\INDUSTRIAL PLATING\91172 INDUSTRIAL PLATING")</f>
-        <v>0</v>
+      <c r="B51" s="2" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\I\INDUSTRIAL PLATING\91173 INDUSTRIAL PLATING", "P:/CONREC/CUSTOMERS\I\INDUSTRIAL PLATING\91173 INDUSTRIAL PLATING")</f>
-        <v>0</v>
+      <c r="B52" s="2" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\B\BUREAU OF ENGRAVING\91174 BUREAU OF ENGRAVING", "P:/CONREC/CUSTOMERS\B\BUREAU OF ENGRAVING\91174 BUREAU OF ENGRAVING")</f>
-        <v>0</v>
+      <c r="B53" s="2" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SUPERIOR METAL\91175 SUPERIOR METAL", "P:/CONREC/CUSTOMERS\S\SUPERIOR METAL\91175 SUPERIOR METAL")</f>
-        <v>0</v>
+      <c r="B54" s="2" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\B\BLOUNT\91176 BLOUNT", "P:/CONREC/CUSTOMERS\B\BLOUNT\91176 BLOUNT")</f>
-        <v>0</v>
+      <c r="B55" s="2" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\I\ITT CANNON\91177 ITT CANNON", "P:/CONREC/CUSTOMERS\I\ITT CANNON\91177 ITT CANNON")</f>
-        <v>0</v>
+      <c r="B56" s="2" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\O\OMNI-SPECTRA\91178 OMNI-SPECTRA", "P:/CONREC/CUSTOMERS\O\OMNI-SPECTRA\91178 OMNI-SPECTRA")</f>
-        <v>0</v>
+      <c r="B57" s="2" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MOEN\91179 MOEN INC", "P:/CONREC/CUSTOMERS\M\MOEN\91179 MOEN INC")</f>
-        <v>0</v>
+      <c r="B58" s="2" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\GABRIELE INDUSTRIES\91180 GABRIELE INDUSTRIES", "P:/CONREC/CUSTOMERS\G\GABRIELE INDUSTRIES\91180 GABRIELE INDUSTRIES")</f>
-        <v>0</v>
+      <c r="B59" s="2" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\GARDENA\91181 GARDENA PLATING", "P:/CONREC/CUSTOMERS\G\GARDENA\91181 GARDENA PLATING")</f>
-        <v>0</v>
+      <c r="B60" s="2" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SOUTHWEST PLATING\91182 SOUTHWEST PLATING", "P:/CONREC/CUSTOMERS\S\SOUTHWEST PLATING\91182 SOUTHWEST PLATING")</f>
-        <v>0</v>
+      <c r="B61" s="2" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\W\W.E. GILBERT\91183 W.E. GILBERT, TRIMITE POWDERS", "P:/CONREC/CUSTOMERS\W\W.E. GILBERT\91183 W.E. GILBERT, TRIMITE POWDERS")</f>
-        <v>0</v>
+      <c r="B62" s="2" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MCCAULEY-MCGARD\91184 MCCAULEY - MCGARD", "P:/CONREC/CUSTOMERS\M\MCCAULEY-MCGARD\91184 MCCAULEY - MCGARD")</f>
-        <v>0</v>
+      <c r="B63" s="2" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CINCH CONNECTORS\91185 CINCH CONNECTORS", "P:/CONREC/CUSTOMERS\C\CINCH CONNECTORS\91185 CINCH CONNECTORS")</f>
-        <v>0</v>
+      <c r="B64" s="2" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\B\BOEING\91186 BOEING NARDONE", "P:/CONREC/CUSTOMERS\B\BOEING\91186 BOEING NARDONE")</f>
-        <v>0</v>
+      <c r="B65" s="2" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\POULAN WEEDEATER\91187 POULAN WEEDEATER", "P:/CONREC/CUSTOMERS\P\POULAN WEEDEATER\91187 POULAN WEEDEATER")</f>
-        <v>0</v>
+      <c r="B66" s="2" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PRECISION PLATING\91188 PRECISION PLATING", "P:/CONREC/CUSTOMERS\P\PRECISION PLATING\91188 PRECISION PLATING")</f>
-        <v>0</v>
+      <c r="B67" s="2" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\AQUANEERS\91189 AQUANEERS", "P:/CONREC/CUSTOMERS\A\AQUANEERS\91189 AQUANEERS")</f>
-        <v>0</v>
+      <c r="B68" s="2" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\U\UBIO\91190 UBIO", "P:/CONREC/CUSTOMERS\U\UBIO\91190 UBIO")</f>
-        <v>0</v>
+      <c r="B69" s="2" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\I\INTERMETRO\91191 INTERMETRO", "P:/CONREC/CUSTOMERS\I\INTERMETRO\91191 INTERMETRO")</f>
-        <v>0</v>
+      <c r="B70" s="2" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MIDWEST\91192 MIDWEST", "P:/CONREC/CUSTOMERS\M\MIDWEST\91192 MIDWEST")</f>
-        <v>0</v>
+      <c r="B71" s="2" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\T\TIERKURO\91194 TIERKURO CORPORATION", "P:/CONREC/CUSTOMERS\T\TIERKURO\91194 TIERKURO CORPORATION")</f>
-        <v>0</v>
+      <c r="B72" s="2" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\L\LATRONICS\91195 LATRONICS", "P:/CONREC/CUSTOMERS\L\LATRONICS\91195 LATRONICS")</f>
-        <v>0</v>
+      <c r="B73" s="2" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\EASTERN CHROME PLATING\91196 EASTERN CHROME PLATING", "P:/CONREC/CUSTOMERS\E\EASTERN CHROME PLATING\91196 EASTERN CHROME PLATING")</f>
-        <v>0</v>
+      <c r="B74" s="2" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\METFAB\91197 METFAB", "P:/CONREC/CUSTOMERS\M\METFAB\91197 METFAB")</f>
-        <v>0</v>
+      <c r="B75" s="2" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\T\TIERKURO\91198 TIERKURO CORPORATION", "P:/CONREC/CUSTOMERS\T\TIERKURO\91198 TIERKURO CORPORATION")</f>
-        <v>0</v>
+      <c r="B76" s="2" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SOUTHWESTERN PLATING\91199 SOUTHWESTERN PLATING", "P:/CONREC/CUSTOMERS\S\SOUTHWESTERN PLATING\91199 SOUTHWESTERN PLATING")</f>
-        <v>0</v>
+      <c r="B77" s="2" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\AERODYNAMIC PLATING\91200 AERODYNAMIC PLATING", "P:/CONREC/CUSTOMERS\A\AERODYNAMIC PLATING\91200 AERODYNAMIC PLATING")</f>
-        <v>0</v>
+      <c r="B78" s="2" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PLATING SPECIALTIES\91201 PLATING SPECIALTIES", "P:/CONREC/CUSTOMERS\P\PLATING SPECIALTIES\91201 PLATING SPECIALTIES")</f>
-        <v>0</v>
+      <c r="B79" s="2" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\U\UNITED MUSICAL INSTRUMENTS\91202 UNITED MUSICAL INSTRUMENTS", "P:/CONREC/CUSTOMERS\U\UNITED MUSICAL INSTRUMENTS\91202 UNITED MUSICAL INSTRUMENTS")</f>
-        <v>0</v>
+      <c r="B80" s="2" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\W\WELCH ALLAN\91203 WELCH ALLYN", "P:/CONREC/CUSTOMERS\W\WELCH ALLAN\91203 WELCH ALLYN")</f>
-        <v>0</v>
+      <c r="B81" s="2" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CONREC\91204 CONREC RENTAL", "P:/CONREC/CUSTOMERS\C\CONREC\91204 CONREC RENTAL")</f>
-        <v>0</v>
+      <c r="B82" s="2" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MCALPIN\91205 MCALPIN", "P:/CONREC/CUSTOMERS\M\MCALPIN\91205 MCALPIN")</f>
-        <v>0</v>
+      <c r="B83" s="2" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\R\ROCHESTER PLATING\91206 ROCHESTER PLATING", "P:/CONREC/CUSTOMERS\R\ROCHESTER PLATING\91206 ROCHESTER PLATING")</f>
-        <v>0</v>
+      <c r="B84" s="2" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\B\BERETTA USA\91207 BERETTA USA", "P:/CONREC/CUSTOMERS\B\BERETTA USA\91207 BERETTA USA")</f>
-        <v>0</v>
+      <c r="B85" s="2" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CHICAGO RIVET &amp; MACHINE\91208 CHICAGO RIVET AND MACHINE", "P:/CONREC/CUSTOMERS\C\CHICAGO RIVET &amp; MACHINE\91208 CHICAGO RIVET AND MACHINE")</f>
-        <v>0</v>
+      <c r="B86" s="2" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\W\WICKES MFG\91209 WICKES MFG CO", "P:/CONREC/CUSTOMERS\W\WICKES MFG\91209 WICKES MFG CO")</f>
-        <v>0</v>
+      <c r="B87" s="2" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CHICAGO RIVET &amp; MACHINE\91210 CHICAGO RIVET", "P:/CONREC/CUSTOMERS\C\CHICAGO RIVET &amp; MACHINE\91210 CHICAGO RIVET")</f>
-        <v>0</v>
+      <c r="B88" s="2" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\L\LARSEN &amp; SHAW\91211 LARSEN &amp; SHAW", "P:/CONREC/CUSTOMERS\L\LARSEN &amp; SHAW\91211 LARSEN &amp; SHAW")</f>
-        <v>0</v>
+      <c r="B89" s="2" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\W\WESCO VALVE\91212 WESCO VALVE", "P:/CONREC/CUSTOMERS\W\WESCO VALVE\91212 WESCO VALVE")</f>
-        <v>0</v>
+      <c r="B90" s="2" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SWAROSKI\91213 SWAROSKI", "P:/CONREC/CUSTOMERS\S\SWAROSKI\91213 SWAROSKI")</f>
-        <v>0</v>
+      <c r="B91" s="2" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\G BETHELL\91214 G BETHELL DISTRIBUTING", "P:/CONREC/CUSTOMERS\G\G BETHELL\91214 G BETHELL DISTRIBUTING")</f>
-        <v>0</v>
+      <c r="B92" s="2" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\EAST SIDE PLATING\91215 EAST SIDE PLATING", "P:/CONREC/CUSTOMERS\E\EAST SIDE PLATING\91215 EAST SIDE PLATING")</f>
-        <v>0</v>
+      <c r="B93" s="2" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\AMEROCK\91216 AMEROCK", "P:/CONREC/CUSTOMERS\A\AMEROCK\91216 AMEROCK")</f>
-        <v>0</v>
+      <c r="B94" s="2" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\B\BOEING\91217 BOEING", "P:/CONREC/CUSTOMERS\B\BOEING\91217 BOEING")</f>
-        <v>0</v>
+      <c r="B95" s="2" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>96</v>
       </c>
-      <c r="B96" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\D\DANA WEATHERHEAD\92218 DANA WEATHERHEAD", "P:/CONREC/CUSTOMERS\D\DANA WEATHERHEAD\92218 DANA WEATHERHEAD")</f>
-        <v>0</v>
+      <c r="B96" s="2" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\B\BOEING\92219 BOEING", "P:/CONREC/CUSTOMERS\B\BOEING\92219 BOEING")</f>
-        <v>0</v>
+      <c r="B97" s="2" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\I\INTERMETRO\92220 INTERMETRO", "P:/CONREC/CUSTOMERS\I\INTERMETRO\92220 INTERMETRO")</f>
-        <v>0</v>
+      <c r="B98" s="2" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PLATING TECHNOLOGY\92221 PLATING TECH", "P:/CONREC/CUSTOMERS\P\PLATING TECHNOLOGY\92221 PLATING TECH")</f>
-        <v>0</v>
+      <c r="B99" s="2" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PLATING TECHNOLOGY\92222 PLATING TECH", "P:/CONREC/CUSTOMERS\P\PLATING TECHNOLOGY\92222 PLATING TECH")</f>
-        <v>0</v>
+      <c r="B100" s="2" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PRATT &amp; WHITNEY\92223 PRATT &amp; WHITNEY", "P:/CONREC/CUSTOMERS\P\PRATT &amp; WHITNEY\92223 PRATT &amp; WHITNEY")</f>
-        <v>0</v>
+      <c r="B101" s="2" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PRATT &amp; WHITNEY\92224 PRATT &amp; WHITNEY", "P:/CONREC/CUSTOMERS\P\PRATT &amp; WHITNEY\92224 PRATT &amp; WHITNEY")</f>
-        <v>0</v>
+      <c r="B102" s="2" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MILLS METAL FINISHING\92225 MILLS METAL FINISHING", "P:/CONREC/CUSTOMERS\M\MILLS METAL FINISHING\92225 MILLS METAL FINISHING")</f>
-        <v>0</v>
+      <c r="B103" s="2" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\A BRITE CO\92226 A BRITE CO", "P:/CONREC/CUSTOMERS\A\A BRITE CO\92226 A BRITE CO")</f>
-        <v>0</v>
+      <c r="B104" s="2" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>105</v>
       </c>
-      <c r="B105" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\L\LINCOLN PLATING\92227 LINCOLN PLATING", "P:/CONREC/CUSTOMERS\L\LINCOLN PLATING\92227 LINCOLN PLATING")</f>
-        <v>0</v>
+      <c r="B105" s="2" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MAGNETEK\92228 MAGNETEK", "P:/CONREC/CUSTOMERS\M\MAGNETEK\92228 MAGNETEK")</f>
-        <v>0</v>
+      <c r="B106" s="2" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\STAR PLATING\92229 STAR PLATING", "P:/CONREC/CUSTOMERS\S\STAR PLATING\92229 STAR PLATING")</f>
-        <v>0</v>
+      <c r="B107" s="2" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MODERN PLATING\92230 MODERN PLATING", "P:/CONREC/CUSTOMERS\M\MODERN PLATING\92230 MODERN PLATING")</f>
-        <v>0</v>
+      <c r="B108" s="2" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>109</v>
       </c>
-      <c r="B109" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\T\TRU-WAY\92231 TRU-WAY", "P:/CONREC/CUSTOMERS\T\TRU-WAY\92231 TRU-WAY")</f>
-        <v>0</v>
+      <c r="B109" s="2" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>110</v>
       </c>
-      <c r="B110" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\L\LINCOLN PLATING\92232 LINCOLN PLATING", "P:/CONREC/CUSTOMERS\L\LINCOLN PLATING\92232 LINCOLN PLATING")</f>
-        <v>0</v>
+      <c r="B110" s="2" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>111</v>
       </c>
-      <c r="B111" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PORTLAND WILIMETTE\92233 PORTLAND WILIMETTE", "P:/CONREC/CUSTOMERS\P\PORTLAND WILIMETTE\92233 PORTLAND WILIMETTE")</f>
-        <v>0</v>
+      <c r="B111" s="2" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>112</v>
       </c>
-      <c r="B112" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PORTLAND WILIMETTE\92234 PORTLAND WILIMETTE", "P:/CONREC/CUSTOMERS\P\PORTLAND WILIMETTE\92234 PORTLAND WILIMETTE")</f>
-        <v>0</v>
+      <c r="B112" s="2" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>113</v>
       </c>
-      <c r="B113" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SCHLAGE\92235 SCHLAGE LOCK CO", "P:/CONREC/CUSTOMERS\S\SCHLAGE\92235 SCHLAGE LOCK CO")</f>
-        <v>0</v>
+      <c r="B113" s="2" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>114</v>
       </c>
-      <c r="B114" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PLATING TECHNOLOGY\92236 PLATING TECHNOLOGY", "P:/CONREC/CUSTOMERS\P\PLATING TECHNOLOGY\92236 PLATING TECHNOLOGY")</f>
-        <v>0</v>
+      <c r="B114" s="2" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\HILL AFB\92237 HILL AFB", "P:/CONREC/CUSTOMERS\H\HILL AFB\92237 HILL AFB")</f>
-        <v>0</v>
+      <c r="B115" s="2" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>116</v>
       </c>
-      <c r="B116" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\G BETHELL\92238 G BETHELL DISTRIBUTORS", "P:/CONREC/CUSTOMERS\G\G BETHELL\92238 G BETHELL DISTRIBUTORS")</f>
-        <v>0</v>
+      <c r="B116" s="2" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>117</v>
       </c>
-      <c r="B117" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PRECISION AEROSPACE\92239 PRECISION AEROSPACE", "P:/CONREC/CUSTOMERS\P\PRECISION AEROSPACE\92239 PRECISION AEROSPACE")</f>
-        <v>0</v>
+      <c r="B117" s="2" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>118</v>
       </c>
-      <c r="B118" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PRATT &amp; WHITNEY\92240 PRATT &amp; WHITHEY", "P:/CONREC/CUSTOMERS\P\PRATT &amp; WHITNEY\92240 PRATT &amp; WHITHEY")</f>
-        <v>0</v>
+      <c r="B118" s="2" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>119</v>
       </c>
-      <c r="B119" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\U\UNITED MUSICAL INSTRUMENTS\92241 UNITED MUSICAL INSTRUMENTS", "P:/CONREC/CUSTOMERS\U\UNITED MUSICAL INSTRUMENTS\92241 UNITED MUSICAL INSTRUMENTS")</f>
-        <v>0</v>
+      <c r="B119" s="2" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>120</v>
       </c>
-      <c r="B120" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\U\UNITED MUSICAL INSTRUMENTS\92242 UNITED MUSICAL INSTRUMENTS", "P:/CONREC/CUSTOMERS\U\UNITED MUSICAL INSTRUMENTS\92242 UNITED MUSICAL INSTRUMENTS")</f>
-        <v>0</v>
+      <c r="B120" s="2" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>121</v>
       </c>
-      <c r="B121" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PRATT &amp; WHITNEY\92243 PRATT &amp; WHITNEY", "P:/CONREC/CUSTOMERS\P\PRATT &amp; WHITNEY\92243 PRATT &amp; WHITNEY")</f>
-        <v>0</v>
+      <c r="B121" s="2" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>122</v>
       </c>
-      <c r="B122" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PRATT &amp; WHITNEY\92245 PRATT &amp; WHITNEY", "P:/CONREC/CUSTOMERS\P\PRATT &amp; WHITNEY\92245 PRATT &amp; WHITNEY")</f>
-        <v>0</v>
+      <c r="B122" s="2" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>123</v>
       </c>
-      <c r="B123" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\GE\92246 GE", "P:/CONREC/CUSTOMERS\G\GE\92246 GE")</f>
-        <v>0</v>
+      <c r="B123" s="2" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>124</v>
       </c>
-      <c r="B124" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\HANDY AND HARMAN TUBE\92247 H &amp; H TUBE MFG CO", "P:/CONREC/CUSTOMERS\H\HANDY AND HARMAN TUBE\92247 H &amp; H TUBE MFG CO")</f>
-        <v>0</v>
+      <c r="B124" s="2" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>125</v>
       </c>
-      <c r="B125" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\HANDY AND HARMAN TUBE\92248 H &amp; H TUBE MFG CO", "P:/CONREC/CUSTOMERS\H\HANDY AND HARMAN TUBE\92248 H &amp; H TUBE MFG CO")</f>
-        <v>0</v>
+      <c r="B125" s="2" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>126</v>
       </c>
-      <c r="B126" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\G BETHELL\92249 G BETHELL DISTRIBUTORS", "P:/CONREC/CUSTOMERS\G\G BETHELL\92249 G BETHELL DISTRIBUTORS")</f>
-        <v>0</v>
+      <c r="B126" s="2" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>127</v>
       </c>
-      <c r="B127" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\AMP\92250 AMP HOLLAND", "P:/CONREC/CUSTOMERS\A\AMP\92250 AMP HOLLAND")</f>
-        <v>0</v>
+      <c r="B127" s="2" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>128</v>
       </c>
-      <c r="B128" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SILVEX\92251 SILVEX", "P:/CONREC/CUSTOMERS\S\SILVEX\92251 SILVEX")</f>
-        <v>0</v>
+      <c r="B128" s="2" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>129</v>
       </c>
-      <c r="B129" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MCALPIN\92252 MCALPIN", "P:/CONREC/CUSTOMERS\M\MCALPIN\92252 MCALPIN")</f>
-        <v>0</v>
+      <c r="B129" s="2" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>130</v>
       </c>
-      <c r="B130" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\STABILUS\92253 STABILUS", "P:/CONREC/CUSTOMERS\S\STABILUS\92253 STABILUS")</f>
-        <v>0</v>
+      <c r="B130" s="2" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>131</v>
       </c>
-      <c r="B131" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\F\FEDERAL MOGUL\92254 FEDERAL MOGUL", "P:/CONREC/CUSTOMERS\F\FEDERAL MOGUL\92254 FEDERAL MOGUL")</f>
-        <v>0</v>
+      <c r="B131" s="2" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>132</v>
       </c>
-      <c r="B132" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\GENERAL PLATING\92255 GENERAL PLATING", "P:/CONREC/CUSTOMERS\G\GENERAL PLATING\92255 GENERAL PLATING")</f>
-        <v>0</v>
+      <c r="B132" s="2" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>133</v>
       </c>
-      <c r="B133" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\COMPDRAW EDM EVALUATION\92256 COMPDRAW EDM EVALUATION", "P:/CONREC/CUSTOMERS\C\COMPDRAW EDM EVALUATION\92256 COMPDRAW EDM EVALUATION")</f>
-        <v>0</v>
+      <c r="B133" s="2" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>134</v>
       </c>
-      <c r="B134" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\GREYSTONE\92257 GREYSTONE OF VA", "P:/CONREC/CUSTOMERS\G\GREYSTONE\92257 GREYSTONE OF VA")</f>
-        <v>0</v>
+      <c r="B134" s="2" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>135</v>
       </c>
-      <c r="B135" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\STRATHCRAFT\92258 STRATHCRAFT", "P:/CONREC/CUSTOMERS\S\STRATHCRAFT\92258 STRATHCRAFT")</f>
-        <v>0</v>
+      <c r="B135" s="2" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>136</v>
       </c>
-      <c r="B136" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\I\INTERNATIONAL RECTIFIER\92259 INTERNATIONAL RECTIFIER", "P:/CONREC/CUSTOMERS\I\INTERNATIONAL RECTIFIER\92259 INTERNATIONAL RECTIFIER")</f>
-        <v>0</v>
+      <c r="B136" s="2" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>137</v>
       </c>
-      <c r="B137" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\R\ROCHESTER PLATING\92260 ROCHESTER PLATING", "P:/CONREC/CUSTOMERS\R\ROCHESTER PLATING\92260 ROCHESTER PLATING")</f>
-        <v>0</v>
+      <c r="B137" s="2" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>138</v>
       </c>
-      <c r="B138" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\K\KEYSTONE\92261 KEYSTONE", "P:/CONREC/CUSTOMERS\K\KEYSTONE\92261 KEYSTONE")</f>
-        <v>0</v>
+      <c r="B138" s="2" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>139</v>
       </c>
-      <c r="B139" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\K\KEYSTONE\92262 KEYSTONE", "P:/CONREC/CUSTOMERS\K\KEYSTONE\92262 KEYSTONE")</f>
-        <v>0</v>
+      <c r="B139" s="2" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>140</v>
       </c>
-      <c r="B140" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\O\OMEGA\92263 OMEGA INDUSTRIES", "P:/CONREC/CUSTOMERS\O\OMEGA\92263 OMEGA INDUSTRIES")</f>
-        <v>0</v>
+      <c r="B140" s="2" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>141</v>
       </c>
-      <c r="B141" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SIEMENS\92264 SIEMENS AUTOMOTIVE", "P:/CONREC/CUSTOMERS\S\SIEMENS\92264 SIEMENS AUTOMOTIVE")</f>
-        <v>0</v>
+      <c r="B141" s="2" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>142</v>
       </c>
-      <c r="B142" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SILVEX\92265 SILVEX INC", "P:/CONREC/CUSTOMERS\S\SILVEX\92265 SILVEX INC")</f>
-        <v>0</v>
+      <c r="B142" s="2" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>143</v>
       </c>
-      <c r="B143" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\D\D.V. INDUSTRIES\93266 D.V. INDUSTRIES", "P:/CONREC/CUSTOMERS\D\D.V. INDUSTRIES\93266 D.V. INDUSTRIES")</f>
-        <v>0</v>
+      <c r="B143" s="2" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>144</v>
       </c>
-      <c r="B144" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SOUTHWEST METAL FINISHING\93267 SOUTHWEST METAL FINISHING", "P:/CONREC/CUSTOMERS\S\SOUTHWEST METAL FINISHING\93267 SOUTHWEST METAL FINISHING")</f>
-        <v>0</v>
+      <c r="B144" s="2" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>145</v>
       </c>
-      <c r="B145" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CONSTRUCTION SPECIALTIES\93268 CONSTRUCTION SPECIALTIES", "P:/CONREC/CUSTOMERS\C\CONSTRUCTION SPECIALTIES\93268 CONSTRUCTION SPECIALTIES")</f>
-        <v>0</v>
+      <c r="B145" s="2" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>146</v>
       </c>
-      <c r="B146" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\AMP\93269 AMP INC", "P:/CONREC/CUSTOMERS\A\AMP\93269 AMP INC")</f>
-        <v>0</v>
+      <c r="B146" s="2" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>147</v>
       </c>
-      <c r="B147" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\ETHICON\93270 ETHICON", "P:/CONREC/CUSTOMERS\E\ETHICON\93270 ETHICON")</f>
-        <v>0</v>
+      <c r="B147" s="2" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>148</v>
       </c>
-      <c r="B148" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\D\DECARTHUR PLATING\93271 DECARTHUR PLATING - REBUILD", "P:/CONREC/CUSTOMERS\D\DECARTHUR PLATING\93271 DECARTHUR PLATING - REBUILD")</f>
-        <v>0</v>
+      <c r="B148" s="2" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>149</v>
       </c>
-      <c r="B149" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\Z\ZIPPO\93272 ZIPPO", "P:/CONREC/CUSTOMERS\Z\ZIPPO\93272 ZIPPO")</f>
-        <v>0</v>
+      <c r="B149" s="2" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>150</v>
       </c>
-      <c r="B150" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CHRYSLER TECH\93273 CHRYSLER TECH", "P:/CONREC/CUSTOMERS\C\CHRYSLER TECH\93273 CHRYSLER TECH")</f>
-        <v>0</v>
+      <c r="B150" s="2" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>151</v>
       </c>
-      <c r="B151" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\T\TEXAS INSTRUMENTS\93274 TEXAS INSTRUMENTS", "P:/CONREC/CUSTOMERS\T\TEXAS INSTRUMENTS\93274 TEXAS INSTRUMENTS")</f>
-        <v>0</v>
+      <c r="B151" s="2" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>152</v>
       </c>
-      <c r="B152" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\T\TEXAS INSTRUMENTS\93275 TEXAS INSTRUMENTS", "P:/CONREC/CUSTOMERS\T\TEXAS INSTRUMENTS\93275 TEXAS INSTRUMENTS")</f>
-        <v>0</v>
+      <c r="B152" s="2" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>153</v>
       </c>
-      <c r="B153" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PROFESSIONAL PLATING\93276 PROFESSIONAL PLATING", "P:/CONREC/CUSTOMERS\P\PROFESSIONAL PLATING\93276 PROFESSIONAL PLATING")</f>
-        <v>0</v>
+      <c r="B153" s="2" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>154</v>
       </c>
-      <c r="B154" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PHILIPS ELMET\93277 PHILIPS ELMET", "P:/CONREC/CUSTOMERS\P\PHILIPS ELMET\93277 PHILIPS ELMET")</f>
-        <v>0</v>
+      <c r="B154" s="2" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>155</v>
       </c>
-      <c r="B155" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PHILIPS ELMET\93278 PHILIPS ELMET", "P:/CONREC/CUSTOMERS\P\PHILIPS ELMET\93278 PHILIPS ELMET")</f>
-        <v>0</v>
+      <c r="B155" s="2" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>156</v>
       </c>
-      <c r="B156" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\U\UNARCO\93279 UNARCO", "P:/CONREC/CUSTOMERS\U\UNARCO\93279 UNARCO")</f>
-        <v>0</v>
+      <c r="B156" s="2" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>157</v>
       </c>
-      <c r="B157" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\STANDARD MOTORS\93280 STANDARD MOTORS AUTOMOTIVE CONTROL", "P:/CONREC/CUSTOMERS\S\STANDARD MOTORS\93280 STANDARD MOTORS AUTOMOTIVE CONTROL")</f>
-        <v>0</v>
+      <c r="B157" s="2" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>158</v>
       </c>
-      <c r="B158" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\H M QUACKENBUSH\93281 H M QUACKENBUSH", "P:/CONREC/CUSTOMERS\H\H M QUACKENBUSH\93281 H M QUACKENBUSH")</f>
-        <v>0</v>
+      <c r="B158" s="2" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>159</v>
       </c>
-      <c r="B159" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MAGNETEK\93282 MAGNETEK", "P:/CONREC/CUSTOMERS\M\MAGNETEK\93282 MAGNETEK")</f>
-        <v>0</v>
+      <c r="B159" s="2" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>160</v>
       </c>
-      <c r="B160" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\C &amp; R PLATING\93283 C &amp; R PLATING", "P:/CONREC/CUSTOMERS\C\C &amp; R PLATING\93283 C &amp; R PLATING")</f>
-        <v>0</v>
+      <c r="B160" s="2" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>161</v>
       </c>
-      <c r="B161" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\AMERICAN BANKNOTE\93284 AMERICAN BANKNOTE", "P:/CONREC/CUSTOMERS\A\AMERICAN BANKNOTE\93284 AMERICAN BANKNOTE")</f>
-        <v>0</v>
+      <c r="B161" s="2" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>162</v>
       </c>
-      <c r="B162" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PHOTOCIRCUITS\93285 PHOTOCIRCUITS", "P:/CONREC/CUSTOMERS\P\PHOTOCIRCUITS\93285 PHOTOCIRCUITS")</f>
-        <v>0</v>
+      <c r="B162" s="2" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>163</v>
       </c>
-      <c r="B163" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PHOTOCIRCUITS\93286 PHOTOCIRCUITS", "P:/CONREC/CUSTOMERS\P\PHOTOCIRCUITS\93286 PHOTOCIRCUITS")</f>
-        <v>0</v>
+      <c r="B163" s="2" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>164</v>
       </c>
-      <c r="B164" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PHOTOCIRCUITS\93287 PHOTOCIRCUITS", "P:/CONREC/CUSTOMERS\P\PHOTOCIRCUITS\93287 PHOTOCIRCUITS")</f>
-        <v>0</v>
+      <c r="B164" s="2" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>165</v>
       </c>
-      <c r="B165" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PRECISE FINISHING\93288 PRECISE FINISHING", "P:/CONREC/CUSTOMERS\P\PRECISE FINISHING\93288 PRECISE FINISHING")</f>
-        <v>0</v>
+      <c r="B165" s="2" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>166</v>
       </c>
-      <c r="B166" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\HOPEWELL\93289 HOPEWELL", "P:/CONREC/CUSTOMERS\H\HOPEWELL\93289 HOPEWELL")</f>
-        <v>0</v>
+      <c r="B166" s="2" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>167</v>
       </c>
-      <c r="B167" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\R\REPUBLIC METALS\93290 REPUBLIC METALS CORPORATION", "P:/CONREC/CUSTOMERS\R\REPUBLIC METALS\93290 REPUBLIC METALS CORPORATION")</f>
-        <v>0</v>
+      <c r="B167" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>168</v>
       </c>
-      <c r="B168" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\H M QUACKENBUSH\93291 H M QUACKENBUSH", "P:/CONREC/CUSTOMERS\H\H M QUACKENBUSH\93291 H M QUACKENBUSH")</f>
-        <v>0</v>
+      <c r="B168" s="2" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>169</v>
       </c>
-      <c r="B169" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SCHLAGE\93292 SCHLAGE LOCK CO", "P:/CONREC/CUSTOMERS\S\SCHLAGE\93292 SCHLAGE LOCK CO")</f>
-        <v>0</v>
+      <c r="B169" s="2" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>170</v>
       </c>
-      <c r="B170" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\N\NORBROOK PLATING\93293 NORBROOK PLATING", "P:/CONREC/CUSTOMERS\N\NORBROOK PLATING\93293 NORBROOK PLATING")</f>
-        <v>0</v>
+      <c r="B170" s="2" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>171</v>
       </c>
-      <c r="B171" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\HOPEWELL\93294 HOPEWELL", "P:/CONREC/CUSTOMERS\H\HOPEWELL\93294 HOPEWELL")</f>
-        <v>0</v>
+      <c r="B171" s="2" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>172</v>
       </c>
-      <c r="B172" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\W\WECK\93295 WECK", "P:/CONREC/CUSTOMERS\W\WECK\93295 WECK")</f>
-        <v>0</v>
+      <c r="B172" s="2" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>173</v>
       </c>
-      <c r="B173" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MILWAUKEE PLATING\93296 MILWAUKEE PLATING", "P:/CONREC/CUSTOMERS\M\MILWAUKEE PLATING\93296 MILWAUKEE PLATING")</f>
-        <v>0</v>
+      <c r="B173" s="2" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>174</v>
       </c>
-      <c r="B174" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\L\LA FRANCE\93298 LA FRANCE", "P:/CONREC/CUSTOMERS\L\LA FRANCE\93298 LA FRANCE")</f>
-        <v>0</v>
+      <c r="B174" s="2" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>175</v>
       </c>
-      <c r="B175" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SACHS AUTOMOTIVE\93299 SACHS AUTOMOTIVE", "P:/CONREC/CUSTOMERS\S\SACHS AUTOMOTIVE\93299 SACHS AUTOMOTIVE")</f>
-        <v>0</v>
+      <c r="B175" s="2" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>176</v>
       </c>
-      <c r="B176" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\L\LINCOLN PLATING\93300 LINCOLN PLATING", "P:/CONREC/CUSTOMERS\L\LINCOLN PLATING\93300 LINCOLN PLATING")</f>
-        <v>0</v>
+      <c r="B176" s="2" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>177</v>
       </c>
-      <c r="B177" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MERAMA\93301 MERAMA INC", "P:/CONREC/CUSTOMERS\M\MERAMA\93301 MERAMA INC")</f>
-        <v>0</v>
+      <c r="B177" s="2" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>178</v>
       </c>
-      <c r="B178" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\K\KASPAR WIRE WORKS\93302 KASPAR WIRE WORKS", "P:/CONREC/CUSTOMERS\K\KASPAR WIRE WORKS\93302 KASPAR WIRE WORKS")</f>
-        <v>0</v>
+      <c r="B178" s="2" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>179</v>
       </c>
-      <c r="B179" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\R\ROCK ISLAND ARSENAL\93303 ROCK ISLAND ARSENAL", "P:/CONREC/CUSTOMERS\R\ROCK ISLAND ARSENAL\93303 ROCK ISLAND ARSENAL")</f>
-        <v>0</v>
+      <c r="B179" s="2" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>180</v>
       </c>
-      <c r="B180" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\W\WYRE WYND\94304 WYRE WYND", "P:/CONREC/CUSTOMERS\W\WYRE WYND\94304 WYRE WYND")</f>
-        <v>0</v>
+      <c r="B180" s="2" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>181</v>
       </c>
-      <c r="B181" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\W\WYRE WYND\94305 WYRE WYND", "P:/CONREC/CUSTOMERS\W\WYRE WYND\94305 WYRE WYND")</f>
-        <v>0</v>
+      <c r="B181" s="2" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>182</v>
       </c>
-      <c r="B182" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\W\WYRE WYND\94306 WYRE WYND", "P:/CONREC/CUSTOMERS\W\WYRE WYND\94306 WYRE WYND")</f>
-        <v>0</v>
+      <c r="B182" s="2" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>183</v>
       </c>
-      <c r="B183" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SENIOR PRODUCTS\94307 SENIOR PRODUCTS", "P:/CONREC/CUSTOMERS\S\SENIOR PRODUCTS\94307 SENIOR PRODUCTS")</f>
-        <v>0</v>
+      <c r="B183" s="2" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>184</v>
       </c>
-      <c r="B184" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ANCHOR COUPLING\94308 ANCHOR COUPLING", "P:/CONREC/CUSTOMERS\A\ANCHOR COUPLING\94308 ANCHOR COUPLING")</f>
-        <v>0</v>
+      <c r="B184" s="2" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>185</v>
       </c>
-      <c r="B185" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PACIFIC CIRCUITS\94309 PACIFIC CIRCUITS", "P:/CONREC/CUSTOMERS\P\PACIFIC CIRCUITS\94309 PACIFIC CIRCUITS")</f>
-        <v>0</v>
+      <c r="B185" s="2" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>186</v>
       </c>
-      <c r="B186" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\V\VALEO WIPER\94310 VALEO WIPER SYSTEMS", "P:/CONREC/CUSTOMERS\V\VALEO WIPER\94310 VALEO WIPER SYSTEMS")</f>
-        <v>0</v>
+      <c r="B186" s="2" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>187</v>
       </c>
-      <c r="B187" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MASTER LOCK\94311 MASTER LOCK", "P:/CONREC/CUSTOMERS\M\MASTER LOCK\94311 MASTER LOCK")</f>
-        <v>0</v>
+      <c r="B187" s="2" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>188</v>
       </c>
-      <c r="B188" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\EGG PRESSURE SYSTEMS\94312 EGG PRESSURE SYSTEMS", "P:/CONREC/CUSTOMERS\E\EGG PRESSURE SYSTEMS\94312 EGG PRESSURE SYSTEMS")</f>
-        <v>0</v>
+      <c r="B188" s="2" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>189</v>
       </c>
-      <c r="B189" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\K\KONTEK ECOLOGY\94313 KONTEK - SPAR GROUP", "P:/CONREC/CUSTOMERS\K\KONTEK ECOLOGY\94313 KONTEK - SPAR GROUP")</f>
-        <v>0</v>
+      <c r="B189" s="2" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>190</v>
       </c>
-      <c r="B190" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ADAPTIVE CIRCUITS\94314 ADAPTIVE CIRCUITS", "P:/CONREC/CUSTOMERS\A\ADAPTIVE CIRCUITS\94314 ADAPTIVE CIRCUITS")</f>
-        <v>0</v>
+      <c r="B190" s="2" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>191</v>
       </c>
-      <c r="B191" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\T\TORPEDO SPECIALTY WIRE\94315 TORPEDO SPECIALTY WIRE", "P:/CONREC/CUSTOMERS\T\TORPEDO SPECIALTY WIRE\94315 TORPEDO SPECIALTY WIRE")</f>
-        <v>0</v>
+      <c r="B191" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>192</v>
       </c>
-      <c r="B192" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\B\BARRY CONTROLS\94316 BARRY CONTROLS", "P:/CONREC/CUSTOMERS\B\BARRY CONTROLS\94316 BARRY CONTROLS")</f>
-        <v>0</v>
+      <c r="B192" s="2" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>193</v>
       </c>
-      <c r="B193" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\HOPEWELL\94318 HOPEWELL", "P:/CONREC/CUSTOMERS\H\HOPEWELL\94318 HOPEWELL")</f>
-        <v>0</v>
+      <c r="B193" s="2" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>194</v>
       </c>
-      <c r="B194" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\HOPEWELL\94319 HOPEWELL", "P:/CONREC/CUSTOMERS\H\HOPEWELL\94319 HOPEWELL")</f>
-        <v>0</v>
+      <c r="B194" s="2" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>195</v>
       </c>
-      <c r="B195" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SUFFIELD\94320 SUFFIELD GROUP", "P:/CONREC/CUSTOMERS\S\SUFFIELD\94320 SUFFIELD GROUP")</f>
-        <v>0</v>
+      <c r="B195" s="2" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>196</v>
       </c>
-      <c r="B196" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\HYDRO-LINE MFG CO\94321 HYDRO-LINE MFG CO", "P:/CONREC/CUSTOMERS\H\HYDRO-LINE MFG CO\94321 HYDRO-LINE MFG CO")</f>
-        <v>0</v>
+      <c r="B196" s="2" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>197</v>
       </c>
-      <c r="B197" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PARKER KALON\94322 PARKER KALON", "P:/CONREC/CUSTOMERS\P\PARKER KALON\94322 PARKER KALON")</f>
-        <v>0</v>
+      <c r="B197" s="2" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>198</v>
       </c>
-      <c r="B198" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\ERIE PLATING\94323 ERIE PLATING", "P:/CONREC/CUSTOMERS\E\ERIE PLATING\94323 ERIE PLATING")</f>
-        <v>0</v>
+      <c r="B198" s="2" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>199</v>
       </c>
-      <c r="B199" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\94325 OSRAM SYLVANIA", "P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\94325 OSRAM SYLVANIA")</f>
-        <v>0</v>
+      <c r="B199" s="2" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>200</v>
       </c>
-      <c r="B200" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PIONEER METAL FINISHING\94326 PIONEER METAL FINISHING", "P:/CONREC/CUSTOMERS\P\PIONEER METAL FINISHING\94326 PIONEER METAL FINISHING")</f>
-        <v>0</v>
+      <c r="B200" s="2" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>201</v>
       </c>
-      <c r="B201" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\N\NATIONAL MFG\94327 NATIONAL MFG OF CANADA", "P:/CONREC/CUSTOMERS\N\NATIONAL MFG\94327 NATIONAL MFG OF CANADA")</f>
-        <v>0</v>
+      <c r="B201" s="2" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>202</v>
       </c>
-      <c r="B202" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\ERIE PLATING\94328 ERIE PLATING", "P:/CONREC/CUSTOMERS\E\ERIE PLATING\94328 ERIE PLATING")</f>
-        <v>0</v>
+      <c r="B202" s="2" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>203</v>
       </c>
-      <c r="B203" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\R\REHRIG\94329 REHRIG INTERNATIONAL", "P:/CONREC/CUSTOMERS\R\REHRIG\94329 REHRIG INTERNATIONAL")</f>
-        <v>0</v>
+      <c r="B203" s="2" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>204</v>
       </c>
-      <c r="B204" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\GREYSTONE\94330 GREYSTONE OF VA", "P:/CONREC/CUSTOMERS\G\GREYSTONE\94330 GREYSTONE OF VA")</f>
-        <v>0</v>
+      <c r="B204" s="2" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>205</v>
       </c>
-      <c r="B205" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\GLADWIN METAL FINISHING\94331 GLADWIN METAL FINISHING", "P:/CONREC/CUSTOMERS\G\GLADWIN METAL FINISHING\94331 GLADWIN METAL FINISHING")</f>
-        <v>0</v>
+      <c r="B205" s="2" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>206</v>
       </c>
-      <c r="B206" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\N\NORTHERN IL METAL\94332 NORTHERN IL METAL", "P:/CONREC/CUSTOMERS\N\NORTHERN IL METAL\94332 NORTHERN IL METAL")</f>
-        <v>0</v>
+      <c r="B206" s="2" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>207</v>
       </c>
-      <c r="B207" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\I\IBM\94333 IBM", "P:/CONREC/CUSTOMERS\I\IBM\94333 IBM")</f>
-        <v>0</v>
+      <c r="B207" s="2" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>208</v>
       </c>
-      <c r="B208" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\I\IBM\94334 IBM", "P:/CONREC/CUSTOMERS\I\IBM\94334 IBM")</f>
-        <v>0</v>
+      <c r="B208" s="2" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>209</v>
       </c>
-      <c r="B209" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\W\WILSIRE MFG\94335 WILSIRE MFG", "P:/CONREC/CUSTOMERS\W\WILSIRE MFG\94335 WILSIRE MFG")</f>
-        <v>0</v>
+      <c r="B209" s="2" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>210</v>
       </c>
-      <c r="B210" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SQUARE D\94336 SQUARE D", "P:/CONREC/CUSTOMERS\S\SQUARE D\94336 SQUARE D")</f>
-        <v>0</v>
+      <c r="B210" s="2" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
         <v>211</v>
       </c>
-      <c r="B211" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CJ SAPORITO\94337 CJ SAPORITO", "P:/CONREC/CUSTOMERS\C\CJ SAPORITO\94337 CJ SAPORITO")</f>
-        <v>0</v>
+      <c r="B211" s="2" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
         <v>212</v>
       </c>
-      <c r="B212" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\I\INVAMEX\94339 INVAMEX", "P:/CONREC/CUSTOMERS\I\INVAMEX\94339 INVAMEX")</f>
-        <v>0</v>
+      <c r="B212" s="2" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
         <v>213</v>
       </c>
-      <c r="B213" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PALNUT\94340 PALNUT", "P:/CONREC/CUSTOMERS\P\PALNUT\94340 PALNUT")</f>
-        <v>0</v>
+      <c r="B213" s="2" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
         <v>214</v>
       </c>
-      <c r="B214" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\W\WESTERN EQUIPMENT\95341 WESTERN EQUIPMENT CO", "P:/CONREC/CUSTOMERS\W\WESTERN EQUIPMENT\95341 WESTERN EQUIPMENT CO")</f>
-        <v>0</v>
+      <c r="B214" s="2" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
         <v>215</v>
       </c>
-      <c r="B215" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\METAL TECH\95342 METAL TECH", "P:/CONREC/CUSTOMERS\M\METAL TECH\95342 METAL TECH")</f>
-        <v>0</v>
+      <c r="B215" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
         <v>216</v>
       </c>
-      <c r="B216" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PHELPS DODGE\95343 PHELPS DODGE", "P:/CONREC/CUSTOMERS\P\PHELPS DODGE\95343 PHELPS DODGE")</f>
-        <v>0</v>
+      <c r="B216" s="2" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
         <v>217</v>
       </c>
-      <c r="B217" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\T\TIERKURO\95344 TEIKURO CORPORATION", "P:/CONREC/CUSTOMERS\T\TIERKURO\95344 TEIKURO CORPORATION")</f>
-        <v>0</v>
+      <c r="B217" s="2" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>218</v>
       </c>
-      <c r="B218" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SUPERIOR METAL\95345 SUPERIOR METAL", "P:/CONREC/CUSTOMERS\S\SUPERIOR METAL\95345 SUPERIOR METAL")</f>
-        <v>0</v>
+      <c r="B218" s="2" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
         <v>219</v>
       </c>
-      <c r="B219" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\L\LONG MFG\95346 LONG MFG CO", "P:/CONREC/CUSTOMERS\L\LONG MFG\95346 LONG MFG CO")</f>
-        <v>0</v>
+      <c r="B219" s="2" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
         <v>220</v>
       </c>
-      <c r="B220" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\L\LONG MFG\95347 LONG MFG CO", "P:/CONREC/CUSTOMERS\L\LONG MFG\95347 LONG MFG CO")</f>
-        <v>0</v>
+      <c r="B220" s="2" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
         <v>221</v>
       </c>
-      <c r="B221" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\T\THOMSON SAGINAW\95348 THOMSON SAGINAW", "P:/CONREC/CUSTOMERS\T\THOMSON SAGINAW\95348 THOMSON SAGINAW")</f>
-        <v>0</v>
+      <c r="B221" s="2" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
         <v>222</v>
       </c>
-      <c r="B222" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\T\TRIAD CIRCUITS\95349 TRIAD CIRCUITS", "P:/CONREC/CUSTOMERS\T\TRIAD CIRCUITS\95349 TRIAD CIRCUITS")</f>
-        <v>0</v>
+      <c r="B222" s="2" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
         <v>223</v>
       </c>
-      <c r="B223" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\95350 OSRAM SYLVANIA", "P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\95350 OSRAM SYLVANIA")</f>
-        <v>0</v>
+      <c r="B223" s="2" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
         <v>224</v>
       </c>
-      <c r="B224" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\95351 OSRAM SYLVANIA", "P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\95351 OSRAM SYLVANIA")</f>
-        <v>0</v>
+      <c r="B224" s="2" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
         <v>225</v>
       </c>
-      <c r="B225" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ALCOA\95352 ALCOA ELECTRONIC PKG", "P:/CONREC/CUSTOMERS\A\ALCOA\95352 ALCOA ELECTRONIC PKG")</f>
-        <v>0</v>
+      <c r="B225" s="2" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>226</v>
       </c>
-      <c r="B226" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\T\TALBOT\95353 TALBOT INDUSTRIES", "P:/CONREC/CUSTOMERS\T\TALBOT\95353 TALBOT INDUSTRIES")</f>
-        <v>0</v>
+      <c r="B226" s="2" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
         <v>227</v>
       </c>
-      <c r="B227" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\R\ROACH PLATING\95354 ROACH PLATING", "P:/CONREC/CUSTOMERS\R\ROACH PLATING\95354 ROACH PLATING")</f>
-        <v>0</v>
+      <c r="B227" s="2" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
         <v>228</v>
       </c>
-      <c r="B228" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CIRCUIT SERVICES\95355 CIRCUIT SERVICES", "P:/CONREC/CUSTOMERS\C\CIRCUIT SERVICES\95355 CIRCUIT SERVICES")</f>
-        <v>0</v>
+      <c r="B228" s="2" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
         <v>229</v>
       </c>
-      <c r="B229" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\HANDY AND HARMAN TUBE\95356 HANDY &amp; HARMAN", "P:/CONREC/CUSTOMERS\H\HANDY AND HARMAN TUBE\95356 HANDY &amp; HARMAN")</f>
-        <v>0</v>
+      <c r="B229" s="2" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
         <v>230</v>
       </c>
-      <c r="B230" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\F\FRAEN MACHINE CORP\95357 FRAEN MACHINE CORP SWISSTRONIC", "P:/CONREC/CUSTOMERS\F\FRAEN MACHINE CORP\95357 FRAEN MACHINE CORP SWISSTRONIC")</f>
-        <v>0</v>
+      <c r="B230" s="2" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
         <v>231</v>
       </c>
-      <c r="B231" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ALCOA\95358 ALCOA ELECTRONIC PKG", "P:/CONREC/CUSTOMERS\A\ALCOA\95358 ALCOA ELECTRONIC PKG")</f>
-        <v>0</v>
+      <c r="B231" s="2" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
         <v>232</v>
       </c>
-      <c r="B232" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ALCOA\95359 ALCOA ELECTRONIC PKG", "P:/CONREC/CUSTOMERS\A\ALCOA\95359 ALCOA ELECTRONIC PKG")</f>
-        <v>0</v>
+      <c r="B232" s="2" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
         <v>233</v>
       </c>
-      <c r="B233" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ALCOA\95360 ALCOA ELECTRONIC PKG", "P:/CONREC/CUSTOMERS\A\ALCOA\95360 ALCOA ELECTRONIC PKG")</f>
-        <v>0</v>
+      <c r="B233" s="2" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
         <v>234</v>
       </c>
-      <c r="B234" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ALCOA\95361 ALCOA ELECTRONIC PKG", "P:/CONREC/CUSTOMERS\A\ALCOA\95361 ALCOA ELECTRONIC PKG")</f>
-        <v>0</v>
+      <c r="B234" s="2" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
         <v>235</v>
       </c>
-      <c r="B235" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ALCOA\95362 ALCOA ELECTRONIC PKG", "P:/CONREC/CUSTOMERS\A\ALCOA\95362 ALCOA ELECTRONIC PKG")</f>
-        <v>0</v>
+      <c r="B235" s="2" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
         <v>236</v>
       </c>
-      <c r="B236" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ALCOA\95363 ALCOA ELECTRONIC PKG", "P:/CONREC/CUSTOMERS\A\ALCOA\95363 ALCOA ELECTRONIC PKG")</f>
-        <v>0</v>
+      <c r="B236" s="2" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
         <v>237</v>
       </c>
-      <c r="B237" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ALCOA\95364 ALCOA ELECTRONIC PKG", "P:/CONREC/CUSTOMERS\A\ALCOA\95364 ALCOA ELECTRONIC PKG")</f>
-        <v>0</v>
+      <c r="B237" s="2" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
         <v>238</v>
       </c>
-      <c r="B238" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ALCOA\95365 ALCOA ELECTRONIC PKG", "P:/CONREC/CUSTOMERS\A\ALCOA\95365 ALCOA ELECTRONIC PKG")</f>
-        <v>0</v>
+      <c r="B238" s="2" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
         <v>239</v>
       </c>
-      <c r="B239" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ALCOA\95366 ALCOA ELECTRONIC PKG", "P:/CONREC/CUSTOMERS\A\ALCOA\95366 ALCOA ELECTRONIC PKG")</f>
-        <v>0</v>
+      <c r="B239" s="2" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
         <v>240</v>
       </c>
-      <c r="B240" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\H M QUACKENBUSH\95367 H M QUACKENBUSH", "P:/CONREC/CUSTOMERS\H\H M QUACKENBUSH\95367 H M QUACKENBUSH")</f>
-        <v>0</v>
+      <c r="B240" s="2" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
         <v>241</v>
       </c>
-      <c r="B241" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MID-STATE PLATING\95368 MID-STATE PLATING", "P:/CONREC/CUSTOMERS\M\MID-STATE PLATING\95368 MID-STATE PLATING")</f>
-        <v>0</v>
+      <c r="B241" s="2" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
         <v>242</v>
       </c>
-      <c r="B242" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MID-STATE PLATING\95369 MID-STATE PLATING", "P:/CONREC/CUSTOMERS\M\MID-STATE PLATING\95369 MID-STATE PLATING")</f>
-        <v>0</v>
+      <c r="B242" s="2" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
         <v>243</v>
       </c>
-      <c r="B243" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\HANDY AND HARMAN TUBE\95370 HANDY &amp; HARMAN", "P:/CONREC/CUSTOMERS\H\HANDY AND HARMAN TUBE\95370 HANDY &amp; HARMAN")</f>
-        <v>0</v>
+      <c r="B243" s="2" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
         <v>244</v>
       </c>
-      <c r="B244" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\D\DHS\95371 DHS", "P:/CONREC/CUSTOMERS\D\DHS\95371 DHS")</f>
-        <v>0</v>
+      <c r="B244" s="2" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
         <v>245</v>
       </c>
-      <c r="B245" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\C &amp; R PLATING\95372 C &amp; R PLATING", "P:/CONREC/CUSTOMERS\C\C &amp; R PLATING\95372 C &amp; R PLATING")</f>
-        <v>0</v>
+      <c r="B245" s="2" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
         <v>246</v>
       </c>
-      <c r="B246" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\N\NESOR ALLOY\95373 NESOR ALLOY DIV OF PHELPS DODGE", "P:/CONREC/CUSTOMERS\N\NESOR ALLOY\95373 NESOR ALLOY DIV OF PHELPS DODGE")</f>
-        <v>0</v>
+      <c r="B246" s="2" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
         <v>247</v>
       </c>
-      <c r="B247" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ALCOA\95374 ALCOA - VOIDED P.O", "P:/CONREC/CUSTOMERS\A\ALCOA\95374 ALCOA - VOIDED P.O")</f>
-        <v>0</v>
+      <c r="B247" s="2" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
         <v>248</v>
       </c>
-      <c r="B248" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\T\THERMO KING\95375 THERMO KING", "P:/CONREC/CUSTOMERS\T\THERMO KING\95375 THERMO KING")</f>
-        <v>0</v>
+      <c r="B248" s="2" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
         <v>249</v>
       </c>
-      <c r="B249" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\H M QUACKENBUSH\95376 H M QUACKENBUSH", "P:/CONREC/CUSTOMERS\H\H M QUACKENBUSH\95376 H M QUACKENBUSH")</f>
-        <v>0</v>
+      <c r="B249" s="2" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
         <v>250</v>
       </c>
-      <c r="B250" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\K\KEMET ELECTRONICS\95377 KEMET ELECTRONICS", "P:/CONREC/CUSTOMERS\K\KEMET ELECTRONICS\95377 KEMET ELECTRONICS")</f>
-        <v>0</v>
+      <c r="B250" s="2" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
         <v>251</v>
       </c>
-      <c r="B251" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\H M QUACKENBUSH\95378 H M QUACKENBUSH", "P:/CONREC/CUSTOMERS\H\H M QUACKENBUSH\95378 H M QUACKENBUSH")</f>
-        <v>0</v>
+      <c r="B251" s="2" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
         <v>252</v>
       </c>
-      <c r="B252" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\L\LONG MFG\95379 LONG MFG CO", "P:/CONREC/CUSTOMERS\L\LONG MFG\95379 LONG MFG CO")</f>
-        <v>0</v>
+      <c r="B252" s="2" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
         <v>253</v>
       </c>
-      <c r="B253" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\T\TIERKURO\95380 TIERKURO CORPORATION", "P:/CONREC/CUSTOMERS\T\TIERKURO\95380 TIERKURO CORPORATION")</f>
-        <v>0</v>
+      <c r="B253" s="2" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
         <v>254</v>
       </c>
-      <c r="B254" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CORNING INT\95381 CORNING INT", "P:/CONREC/CUSTOMERS\C\CORNING INT\95381 CORNING INT")</f>
-        <v>0</v>
+      <c r="B254" s="2" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
         <v>255</v>
       </c>
-      <c r="B255" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CORNING INT\95382 CORNING INT", "P:/CONREC/CUSTOMERS\C\CORNING INT\95382 CORNING INT")</f>
-        <v>0</v>
+      <c r="B255" s="2" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
         <v>256</v>
       </c>
-      <c r="B256" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MONROE AUTOMOTIVE\95383 MONROE AUTOMOTIVE", "P:/CONREC/CUSTOMERS\M\MONROE AUTOMOTIVE\95383 MONROE AUTOMOTIVE")</f>
-        <v>0</v>
+      <c r="B256" s="2" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
         <v>257</v>
       </c>
-      <c r="B257" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MOLEX\95384 MOLEX OF INDIA", "P:/CONREC/CUSTOMERS\M\MOLEX\95384 MOLEX OF INDIA")</f>
-        <v>0</v>
+      <c r="B257" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
         <v>258</v>
       </c>
-      <c r="B258" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\Z\ZIPPO\95385 ZIPPO", "P:/CONREC/CUSTOMERS\Z\ZIPPO\95385 ZIPPO")</f>
-        <v>0</v>
+      <c r="B258" s="2" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
         <v>259</v>
       </c>
-      <c r="B259" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\95386 OSRAM SYLVANIA", "P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\95386 OSRAM SYLVANIA")</f>
-        <v>0</v>
+      <c r="B259" s="2" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
         <v>260</v>
       </c>
-      <c r="B260" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\T\TSR ENGINEERING\95387 TSR ENGINEERING - SIEMENS", "P:/CONREC/CUSTOMERS\T\TSR ENGINEERING\95387 TSR ENGINEERING - SIEMENS")</f>
-        <v>0</v>
+      <c r="B260" s="2" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
         <v>261</v>
       </c>
-      <c r="B261" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\T\THERMO KING\95388 THERMO KING", "P:/CONREC/CUSTOMERS\T\THERMO KING\95388 THERMO KING")</f>
-        <v>0</v>
+      <c r="B261" s="2" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
         <v>262</v>
       </c>
-      <c r="B262" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CASCO\95389 CASCO PRODUCTS", "P:/CONREC/CUSTOMERS\C\CASCO\95389 CASCO PRODUCTS")</f>
-        <v>0</v>
+      <c r="B262" s="2" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
         <v>263</v>
       </c>
-      <c r="B263" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ALCOA\96390 ALCOA ELECTRONIC PACKAGING", "P:/CONREC/CUSTOMERS\A\ALCOA\96390 ALCOA ELECTRONIC PACKAGING")</f>
-        <v>0</v>
+      <c r="B263" s="2" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
         <v>264</v>
       </c>
-      <c r="B264" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PRE FINISH METALS\96391 PRE FINISH METALS", "P:/CONREC/CUSTOMERS\P\PRE FINISH METALS\96391 PRE FINISH METALS")</f>
-        <v>0</v>
+      <c r="B264" s="2" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
         <v>265</v>
       </c>
-      <c r="B265" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\GE\96392 GE", "P:/CONREC/CUSTOMERS\G\GE\96392 GE")</f>
-        <v>0</v>
+      <c r="B265" s="2" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
         <v>266</v>
       </c>
-      <c r="B266" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\D\DELTA METAL FINISHING\96393 DELTA METAL FINISHING", "P:/CONREC/CUSTOMERS\D\DELTA METAL FINISHING\96393 DELTA METAL FINISHING")</f>
-        <v>0</v>
+      <c r="B266" s="2" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
         <v>267</v>
       </c>
-      <c r="B267" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\T\TSR ENGINEERING\96394 TSR ENGINEERING", "P:/CONREC/CUSTOMERS\T\TSR ENGINEERING\96394 TSR ENGINEERING")</f>
-        <v>0</v>
+      <c r="B267" s="2" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
         <v>268</v>
       </c>
-      <c r="B268" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\T\TENNECO PACKAGING\96396 TENNECO PACKAGING", "P:/CONREC/CUSTOMERS\T\TENNECO PACKAGING\96396 TENNECO PACKAGING")</f>
-        <v>0</v>
+      <c r="B268" s="2" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
         <v>269</v>
       </c>
-      <c r="B269" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\METAL PROCESSING\96397 METAL PROCESSING", "P:/CONREC/CUSTOMERS\M\METAL PROCESSING\96397 METAL PROCESSING")</f>
-        <v>0</v>
+      <c r="B269" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
         <v>270</v>
       </c>
-      <c r="B270" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\L\LINCOLN PLATING\96398 LINCOLN PLATING", "P:/CONREC/CUSTOMERS\L\LINCOLN PLATING\96398 LINCOLN PLATING")</f>
-        <v>0</v>
+      <c r="B270" s="2" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
         <v>271</v>
       </c>
-      <c r="B271" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\HR INDUSTRIES\96399 HR INDUSTRIES", "P:/CONREC/CUSTOMERS\H\HR INDUSTRIES\96399 HR INDUSTRIES")</f>
-        <v>0</v>
+      <c r="B271" s="2" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
         <v>272</v>
       </c>
-      <c r="B272" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MOLEX\96400 MOLEX OF KOREA", "P:/CONREC/CUSTOMERS\M\MOLEX\96400 MOLEX OF KOREA")</f>
-        <v>0</v>
+      <c r="B272" s="2" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
         <v>273</v>
       </c>
-      <c r="B273" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\R\REQUEST SURPLUS\96402 REQUEST SURPLUS", "P:/CONREC/CUSTOMERS\R\REQUEST SURPLUS\96402 REQUEST SURPLUS")</f>
-        <v>0</v>
+      <c r="B273" s="2" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
         <v>274</v>
       </c>
-      <c r="B274" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\GOULD\96403 GOULD", "P:/CONREC/CUSTOMERS\G\GOULD\96403 GOULD")</f>
-        <v>0</v>
+      <c r="B274" s="2" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
         <v>275</v>
       </c>
-      <c r="B275" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ANO-TECH\96404 ANO-TECH", "P:/CONREC/CUSTOMERS\A\ANO-TECH\96404 ANO-TECH")</f>
-        <v>0</v>
+      <c r="B275" s="2" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
         <v>276</v>
       </c>
-      <c r="B276" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\K\KONTEK ECOLOGY\96405 KONTEK", "P:/CONREC/CUSTOMERS\K\KONTEK ECOLOGY\96405 KONTEK")</f>
-        <v>0</v>
+      <c r="B276" s="2" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
         <v>277</v>
       </c>
-      <c r="B277" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\D\DIXIE PLATING\96406 DIXIE PLATING", "P:/CONREC/CUSTOMERS\D\DIXIE PLATING\96406 DIXIE PLATING")</f>
-        <v>0</v>
+      <c r="B277" s="2" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
         <v>278</v>
       </c>
-      <c r="B278" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\N\NESOR ALLOY\96407 NESOR ALLOY DIV OF PHELPS DODGE", "P:/CONREC/CUSTOMERS\N\NESOR ALLOY\96407 NESOR ALLOY DIV OF PHELPS DODGE")</f>
-        <v>0</v>
+      <c r="B278" s="2" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
         <v>279</v>
       </c>
-      <c r="B279" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\GREAT NECK SCREW\96408 GREAT NECK SCREW", "P:/CONREC/CUSTOMERS\G\GREAT NECK SCREW\96408 GREAT NECK SCREW")</f>
-        <v>0</v>
+      <c r="B279" s="2" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
         <v>280</v>
       </c>
-      <c r="B280" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\I\INTEGRATED SYSTEMS\96409 INTEGRATED SYSTEMS", "P:/CONREC/CUSTOMERS\I\INTEGRATED SYSTEMS\96409 INTEGRATED SYSTEMS")</f>
-        <v>0</v>
+      <c r="B280" s="2" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
         <v>281</v>
       </c>
-      <c r="B281" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\I\INTEGRATED SYSTEMS\96410 INTEGRATED SYSTEMS", "P:/CONREC/CUSTOMERS\I\INTEGRATED SYSTEMS\96410 INTEGRATED SYSTEMS")</f>
-        <v>0</v>
+      <c r="B281" s="2" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
         <v>282</v>
       </c>
-      <c r="B282" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CONREC\96411 CONREC USED-REBUILT", "P:/CONREC/CUSTOMERS\C\CONREC\96411 CONREC USED-REBUILT")</f>
-        <v>0</v>
+      <c r="B282" s="2" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
         <v>283</v>
       </c>
-      <c r="B283" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\GENERAL SUPER PLATE\96412 GENERAL SUPER PLATE", "P:/CONREC/CUSTOMERS\G\GENERAL SUPER PLATE\96412 GENERAL SUPER PLATE")</f>
-        <v>0</v>
+      <c r="B283" s="2" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
         <v>284</v>
       </c>
-      <c r="B284" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\N\NESOR ALLOY\96413 NESOR ALLOY DIV OF PHELPS DODGE", "P:/CONREC/CUSTOMERS\N\NESOR ALLOY\96413 NESOR ALLOY DIV OF PHELPS DODGE")</f>
-        <v>0</v>
+      <c r="B284" s="2" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
         <v>285</v>
       </c>
-      <c r="B285" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\GENERAL SUPER PLATE\96414 GENERAL SUPER PLATE", "P:/CONREC/CUSTOMERS\G\GENERAL SUPER PLATE\96414 GENERAL SUPER PLATE")</f>
-        <v>0</v>
+      <c r="B285" s="2" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
         <v>286</v>
       </c>
-      <c r="B286" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\N\NESOR ALLOY\96415 NESOR ALLOY DIV OF PHELPS DODGE", "P:/CONREC/CUSTOMERS\N\NESOR ALLOY\96415 NESOR ALLOY DIV OF PHELPS DODGE")</f>
-        <v>0</v>
+      <c r="B286" s="2" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
         <v>287</v>
       </c>
-      <c r="B287" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\GENERAL SUPER PLATE\97416 GENERAL SUPER PLATE", "P:/CONREC/CUSTOMERS\G\GENERAL SUPER PLATE\97416 GENERAL SUPER PLATE")</f>
-        <v>0</v>
+      <c r="B287" s="2" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
         <v>288</v>
       </c>
-      <c r="B288" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\U\US BRASS\97417 US BRASS", "P:/CONREC/CUSTOMERS\U\US BRASS\97417 US BRASS")</f>
-        <v>0</v>
+      <c r="B288" s="2" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
         <v>289</v>
       </c>
-      <c r="B289" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MCCAULEY-MCGARD\97418 MCCAULEY-MCGARD", "P:/CONREC/CUSTOMERS\M\MCCAULEY-MCGARD\97418 MCCAULEY-MCGARD")</f>
-        <v>0</v>
+      <c r="B289" s="2" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
         <v>290</v>
       </c>
-      <c r="B290" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MCCAULEY-MCGARD\97419 MCCAULEY-MCGARD", "P:/CONREC/CUSTOMERS\M\MCCAULEY-MCGARD\97419 MCCAULEY-MCGARD")</f>
-        <v>0</v>
+      <c r="B290" s="2" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
         <v>291</v>
       </c>
-      <c r="B291" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SOUTHWEST HYDROKINETICS\97420 SOUTHWEST HYDROKINETICS", "P:/CONREC/CUSTOMERS\S\SOUTHWEST HYDROKINETICS\97420 SOUTHWEST HYDROKINETICS")</f>
-        <v>0</v>
+      <c r="B291" s="2" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
         <v>292</v>
       </c>
-      <c r="B292" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\D\DEUTSCH\97421 DEUTSCH", "P:/CONREC/CUSTOMERS\D\DEUTSCH\97421 DEUTSCH")</f>
-        <v>0</v>
+      <c r="B292" s="2" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
         <v>293</v>
       </c>
-      <c r="B293" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MOLEX\97422 MOLEX ETC", "P:/CONREC/CUSTOMERS\M\MOLEX\97422 MOLEX ETC")</f>
-        <v>0</v>
+      <c r="B293" s="2" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
         <v>294</v>
       </c>
-      <c r="B294" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\ENVIRO-CHEM\97423 ENVIRO-CHEM", "P:/CONREC/CUSTOMERS\E\ENVIRO-CHEM\97423 ENVIRO-CHEM")</f>
-        <v>0</v>
+      <c r="B294" s="2" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
         <v>295</v>
       </c>
-      <c r="B295" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\97424 OSRAM SYLVANIA", "P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\97424 OSRAM SYLVANIA")</f>
-        <v>0</v>
+      <c r="B295" s="2" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
         <v>296</v>
       </c>
-      <c r="B296" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\97425 OSRAM SYLVANIA", "P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\97425 OSRAM SYLVANIA")</f>
-        <v>0</v>
+      <c r="B296" s="2" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
         <v>297</v>
       </c>
-      <c r="B297" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\W\WOOD GROUP\97426 WOOD GROUP POWER TECH", "P:/CONREC/CUSTOMERS\W\WOOD GROUP\97426 WOOD GROUP POWER TECH")</f>
-        <v>0</v>
+      <c r="B297" s="2" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
         <v>298</v>
       </c>
-      <c r="B298" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\D\DEUTSCH\97427 DEUTSCH", "P:/CONREC/CUSTOMERS\D\DEUTSCH\97427 DEUTSCH")</f>
-        <v>0</v>
+      <c r="B298" s="2" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
         <v>299</v>
       </c>
-      <c r="B299" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SOUTHWEST HYDRAULICS\97428 SOUTHWEST HYDRAULICS", "P:/CONREC/CUSTOMERS\S\SOUTHWEST HYDRAULICS\97428 SOUTHWEST HYDRAULICS")</f>
-        <v>0</v>
+      <c r="B299" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
         <v>300</v>
       </c>
-      <c r="B300" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CHAUTAUQUA HARDWARE CORP\97429 CHAUTAUQUA HARDWARE CORP", "P:/CONREC/CUSTOMERS\C\CHAUTAUQUA HARDWARE CORP\97429 CHAUTAUQUA HARDWARE CORP")</f>
-        <v>0</v>
+      <c r="B300" s="2" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
         <v>301</v>
       </c>
-      <c r="B301" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CONREC\97430 CONREC RENTAL", "P:/CONREC/CUSTOMERS\C\CONREC\97430 CONREC RENTAL")</f>
-        <v>0</v>
+      <c r="B301" s="2" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
         <v>302</v>
       </c>
-      <c r="B302" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\U\UNIMOLD\97431 UNIMOLD", "P:/CONREC/CUSTOMERS\U\UNIMOLD\97431 UNIMOLD")</f>
-        <v>0</v>
+      <c r="B302" s="2" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
         <v>303</v>
       </c>
-      <c r="B303" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\EPZ\97432 EPZ EC METALS", "P:/CONREC/CUSTOMERS\E\EPZ\97432 EPZ EC METALS")</f>
-        <v>0</v>
+      <c r="B303" s="2" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
         <v>304</v>
       </c>
-      <c r="B304" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\N\NESTAWAY\97433 NESTAWAY", "P:/CONREC/CUSTOMERS\N\NESTAWAY\97433 NESTAWAY")</f>
-        <v>0</v>
+      <c r="B304" s="2" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
         <v>305</v>
       </c>
-      <c r="B305" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\I\ILSCO\97434 ILSCO", "P:/CONREC/CUSTOMERS\I\ILSCO\97434 ILSCO")</f>
-        <v>0</v>
+      <c r="B305" s="2" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
         <v>306</v>
       </c>
-      <c r="B306" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CHICAGO RIVET &amp; MACHINE\97435 CHICAGO RIVET &amp; MACH", "P:/CONREC/CUSTOMERS\C\CHICAGO RIVET &amp; MACHINE\97435 CHICAGO RIVET &amp; MACH")</f>
-        <v>0</v>
+      <c r="B306" s="2" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
         <v>307</v>
       </c>
-      <c r="B307" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CHICAGO RIVET &amp; MACHINE\97436 CHICAGO RIVET &amp; MACH", "P:/CONREC/CUSTOMERS\C\CHICAGO RIVET &amp; MACHINE\97436 CHICAGO RIVET &amp; MACH")</f>
-        <v>0</v>
+      <c r="B307" s="2" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
         <v>308</v>
       </c>
-      <c r="B308" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MILLCRAFT\97437 MILLCRAFT MSM", "P:/CONREC/CUSTOMERS\M\MILLCRAFT\97437 MILLCRAFT MSM")</f>
-        <v>0</v>
+      <c r="B308" s="2" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
         <v>309</v>
       </c>
-      <c r="B309" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\V\VALEO WIPER\97438 VALEO WIPER SYSTEMS", "P:/CONREC/CUSTOMERS\V\VALEO WIPER\97438 VALEO WIPER SYSTEMS")</f>
-        <v>0</v>
+      <c r="B309" s="2" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
         <v>310</v>
       </c>
-      <c r="B310" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\AERONEX\97439 AERONEX", "P:/CONREC/CUSTOMERS\A\AERONEX\97439 AERONEX")</f>
-        <v>0</v>
+      <c r="B310" s="2" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
         <v>311</v>
       </c>
-      <c r="B311" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\GATES RUBBER\97440 GATES RUBBER", "P:/CONREC/CUSTOMERS\G\GATES RUBBER\97440 GATES RUBBER")</f>
-        <v>0</v>
+      <c r="B311" s="2" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
         <v>312</v>
       </c>
-      <c r="B312" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MILLCRAFT\97441 MILLCRAFT MSM", "P:/CONREC/CUSTOMERS\M\MILLCRAFT\97441 MILLCRAFT MSM")</f>
-        <v>0</v>
+      <c r="B312" s="2" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
         <v>313</v>
       </c>
-      <c r="B313" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MILLCRAFT\97442 MILLCRAFT MSM", "P:/CONREC/CUSTOMERS\M\MILLCRAFT\97442 MILLCRAFT MSM")</f>
-        <v>0</v>
+      <c r="B313" s="2" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
         <v>314</v>
       </c>
-      <c r="B314" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MILLCRAFT\97443 MILLCRAFT MSM", "P:/CONREC/CUSTOMERS\M\MILLCRAFT\97443 MILLCRAFT MSM")</f>
-        <v>0</v>
+      <c r="B314" s="2" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
         <v>315</v>
       </c>
-      <c r="B315" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MILLCRAFT\97444 MILLCRAFT MSM", "P:/CONREC/CUSTOMERS\M\MILLCRAFT\97444 MILLCRAFT MSM")</f>
-        <v>0</v>
+      <c r="B315" s="2" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
         <v>316</v>
       </c>
-      <c r="B316" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MILLCRAFT\97445 MILLCRAFT MSM", "P:/CONREC/CUSTOMERS\M\MILLCRAFT\97445 MILLCRAFT MSM")</f>
-        <v>0</v>
+      <c r="B316" s="2" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
         <v>317</v>
       </c>
-      <c r="B317" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MILLCRAFT\97446 MILLCRAFT MSM", "P:/CONREC/CUSTOMERS\M\MILLCRAFT\97446 MILLCRAFT MSM")</f>
-        <v>0</v>
+      <c r="B317" s="2" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
         <v>318</v>
       </c>
-      <c r="B318" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MILLCRAFT\97447 MILLCRAFT MSM", "P:/CONREC/CUSTOMERS\M\MILLCRAFT\97447 MILLCRAFT MSM")</f>
-        <v>0</v>
+      <c r="B318" s="2" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
         <v>319</v>
       </c>
-      <c r="B319" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MILLCRAFT\97448 MILLCRAFT MSM", "P:/CONREC/CUSTOMERS\M\MILLCRAFT\97448 MILLCRAFT MSM")</f>
-        <v>0</v>
+      <c r="B319" s="2" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
         <v>320</v>
       </c>
-      <c r="B320" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PHELPS DODGE\97450 PHELPS DODGE - HUDSON INTL", "P:/CONREC/CUSTOMERS\P\PHELPS DODGE\97450 PHELPS DODGE - HUDSON INTL")</f>
-        <v>0</v>
+      <c r="B320" s="2" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
         <v>321</v>
       </c>
-      <c r="B321" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ALLIED SIGNAL\97451 ALLIED SIGNAL - MEXICALI", "P:/CONREC/CUSTOMERS\A\ALLIED SIGNAL\97451 ALLIED SIGNAL - MEXICALI")</f>
-        <v>0</v>
+      <c r="B321" s="2" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
         <v>322</v>
       </c>
-      <c r="B322" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\METALOR REFINING\97452 METALOR REFINING", "P:/CONREC/CUSTOMERS\M\METALOR REFINING\97452 METALOR REFINING")</f>
-        <v>0</v>
+      <c r="B322" s="2" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
         <v>323</v>
       </c>
-      <c r="B323" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\I\IMPERIAL PLATING\97453 IMPERIAL PLATING", "P:/CONREC/CUSTOMERS\I\IMPERIAL PLATING\97453 IMPERIAL PLATING")</f>
-        <v>0</v>
+      <c r="B323" s="2" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
         <v>324</v>
       </c>
-      <c r="B324" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\V\VALEO WIPER\97454 VALEO WIPER SYSTEMS", "P:/CONREC/CUSTOMERS\V\VALEO WIPER\97454 VALEO WIPER SYSTEMS")</f>
-        <v>0</v>
+      <c r="B324" s="2" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
         <v>325</v>
       </c>
-      <c r="B325" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\I\INDIAN HEAD PLATING\97455 INDIAN HEAD PLATING", "P:/CONREC/CUSTOMERS\I\INDIAN HEAD PLATING\97455 INDIAN HEAD PLATING")</f>
-        <v>0</v>
+      <c r="B325" s="2" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
         <v>326</v>
       </c>
-      <c r="B326" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\GE\97456 GE MOTORS", "P:/CONREC/CUSTOMERS\G\GE\97456 GE MOTORS")</f>
-        <v>0</v>
+      <c r="B326" s="2" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
         <v>327</v>
       </c>
-      <c r="B327" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\L\LANCO ENVIRONMENTAL\97457 LANCO ENVIRONMENTAL", "P:/CONREC/CUSTOMERS\L\LANCO ENVIRONMENTAL\97457 LANCO ENVIRONMENTAL")</f>
-        <v>0</v>
+      <c r="B327" s="2" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
         <v>328</v>
       </c>
-      <c r="B328" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\HY-TECH FINISHING\97458 HY-TECH FINISHING - SURF-TECH", "P:/CONREC/CUSTOMERS\H\HY-TECH FINISHING\97458 HY-TECH FINISHING - SURF-TECH")</f>
-        <v>0</v>
+      <c r="B328" s="2" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
         <v>329</v>
       </c>
-      <c r="B329" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ALLIED SIGNAL\97459 ALLIED SIGNAL - MEXICALI", "P:/CONREC/CUSTOMERS\A\ALLIED SIGNAL\97459 ALLIED SIGNAL - MEXICALI")</f>
-        <v>0</v>
+      <c r="B329" s="2" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
         <v>330</v>
       </c>
-      <c r="B330" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\B\BUREAU ELECTRONIC\98460 THE BUREAU ELECTRONIC GROUP", "P:/CONREC/CUSTOMERS\B\BUREAU ELECTRONIC\98460 THE BUREAU ELECTRONIC GROUP")</f>
-        <v>0</v>
+      <c r="B330" s="2" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
         <v>331</v>
       </c>
-      <c r="B331" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\N\NEW DIMENSION PLATING\98461 NEW DIMENSION PLATING", "P:/CONREC/CUSTOMERS\N\NEW DIMENSION PLATING\98461 NEW DIMENSION PLATING")</f>
-        <v>0</v>
+      <c r="B331" s="2" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
         <v>332</v>
       </c>
-      <c r="B332" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\T\TMPI\98462 TMPI", "P:/CONREC/CUSTOMERS\T\TMPI\98462 TMPI")</f>
-        <v>0</v>
+      <c r="B332" s="2" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
         <v>333</v>
       </c>
-      <c r="B333" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CONREC\98464 CONREC RENTAL", "P:/CONREC/CUSTOMERS\C\CONREC\98464 CONREC RENTAL")</f>
-        <v>0</v>
+      <c r="B333" s="2" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
         <v>334</v>
       </c>
-      <c r="B334" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\METALOR REFINING\98465 METALOR REFINING", "P:/CONREC/CUSTOMERS\M\METALOR REFINING\98465 METALOR REFINING")</f>
-        <v>0</v>
+      <c r="B334" s="2" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
         <v>335</v>
       </c>
-      <c r="B335" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\METALOR REFINING\98466 METALOR REFINING", "P:/CONREC/CUSTOMERS\M\METALOR REFINING\98466 METALOR REFINING")</f>
-        <v>0</v>
+      <c r="B335" s="2" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
         <v>336</v>
       </c>
-      <c r="B336" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\V\VERMONT AMERICA\98467 VERMONT AMERICA", "P:/CONREC/CUSTOMERS\V\VERMONT AMERICA\98467 VERMONT AMERICA")</f>
-        <v>0</v>
+      <c r="B336" s="2" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
         <v>337</v>
       </c>
-      <c r="B337" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\I\IRC\98470 IRC", "P:/CONREC/CUSTOMERS\I\IRC\98470 IRC")</f>
-        <v>0</v>
+      <c r="B337" s="2" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
         <v>338</v>
       </c>
-      <c r="B338" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\U\US FILTER\98471 US FILTER", "P:/CONREC/CUSTOMERS\U\US FILTER\98471 US FILTER")</f>
-        <v>0</v>
+      <c r="B338" s="2" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
         <v>339</v>
       </c>
-      <c r="B339" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\U\US FILTER\98472 US FILTER", "P:/CONREC/CUSTOMERS\U\US FILTER\98472 US FILTER")</f>
-        <v>0</v>
+      <c r="B339" s="2" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
         <v>340</v>
       </c>
-      <c r="B340" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\I\INDUSTRIAL PLATING\98473 INDUSTRIAL PLATING", "P:/CONREC/CUSTOMERS\I\INDUSTRIAL PLATING\98473 INDUSTRIAL PLATING")</f>
-        <v>0</v>
+      <c r="B340" s="2" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
         <v>341</v>
       </c>
-      <c r="B341" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\I\INDIAN HEAD PLATING\98474 INDIAN HEAD PLATING", "P:/CONREC/CUSTOMERS\I\INDIAN HEAD PLATING\98474 INDIAN HEAD PLATING")</f>
-        <v>0</v>
+      <c r="B341" s="2" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
         <v>342</v>
       </c>
-      <c r="B342" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MAGNESITA\98475 MAGNESITA", "P:/CONREC/CUSTOMERS\M\MAGNESITA\98475 MAGNESITA")</f>
-        <v>0</v>
+      <c r="B342" s="2" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
         <v>343</v>
       </c>
-      <c r="B343" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MAGNESITA\98476 MAGNESITA", "P:/CONREC/CUSTOMERS\M\MAGNESITA\98476 MAGNESITA")</f>
-        <v>0</v>
+      <c r="B343" s="2" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
         <v>344</v>
       </c>
-      <c r="B344" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\H &amp; M PLATING\98477 H &amp; M PLATING", "P:/CONREC/CUSTOMERS\H\H &amp; M PLATING\98477 H &amp; M PLATING")</f>
-        <v>0</v>
+      <c r="B344" s="2" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
         <v>345</v>
       </c>
-      <c r="B345" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\T\THOMAS MFG\98478 THOMAS MFG", "P:/CONREC/CUSTOMERS\T\THOMAS MFG\98478 THOMAS MFG")</f>
-        <v>0</v>
+      <c r="B345" s="2" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
         <v>346</v>
       </c>
-      <c r="B346" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\V\VERMONT AMERICA\98479 VERMONT AMERICA", "P:/CONREC/CUSTOMERS\V\VERMONT AMERICA\98479 VERMONT AMERICA")</f>
-        <v>0</v>
+      <c r="B346" s="2" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
         <v>347</v>
       </c>
-      <c r="B347" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\T\TYCO\98480 TYCO ELECTRONICS - AMP", "P:/CONREC/CUSTOMERS\T\TYCO\98480 TYCO ELECTRONICS - AMP")</f>
-        <v>0</v>
+      <c r="B347" s="2" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
         <v>348</v>
       </c>
-      <c r="B348" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CONREC\98481 CONREC RENTAL", "P:/CONREC/CUSTOMERS\C\CONREC\98481 CONREC RENTAL")</f>
-        <v>0</v>
+      <c r="B348" s="2" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
         <v>349</v>
       </c>
-      <c r="B349" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MESSIER-DOWTY\98482 MESSIER-DOWTY", "P:/CONREC/CUSTOMERS\M\MESSIER-DOWTY\98482 MESSIER-DOWTY")</f>
-        <v>0</v>
+      <c r="B349" s="2" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" t="s">
         <v>350</v>
       </c>
-      <c r="B350" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\I\INTERNATIONAL RECTIFIER\98483 INTERNATIONAL RECTIFIER", "P:/CONREC/CUSTOMERS\I\INTERNATIONAL RECTIFIER\98483 INTERNATIONAL RECTIFIER")</f>
-        <v>0</v>
+      <c r="B350" s="2" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
         <v>351</v>
       </c>
-      <c r="B351" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\AMERICAN TINNING &amp; GALV\98484 AMERICAN TINNING &amp; GALV", "P:/CONREC/CUSTOMERS\A\AMERICAN TINNING &amp; GALV\98484 AMERICAN TINNING &amp; GALV")</f>
-        <v>0</v>
+      <c r="B351" s="2" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
         <v>352</v>
       </c>
-      <c r="B352" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\AMERICAN TINNING &amp; GALV\98485 AMERICAN TINNING &amp; GALV", "P:/CONREC/CUSTOMERS\A\AMERICAN TINNING &amp; GALV\98485 AMERICAN TINNING &amp; GALV")</f>
-        <v>0</v>
+      <c r="B352" s="2" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
         <v>353</v>
       </c>
-      <c r="B353" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\N\NESOR ALLOY\98486 NESOR ALLOY DIV OF PHELPS DODGE", "P:/CONREC/CUSTOMERS\N\NESOR ALLOY\98486 NESOR ALLOY DIV OF PHELPS DODGE")</f>
-        <v>0</v>
+      <c r="B353" s="2" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
         <v>354</v>
       </c>
-      <c r="B354" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\N\NESOR ALLOY\98487 NESOR ALLOY DIV OF PHELPS DODGE", "P:/CONREC/CUSTOMERS\N\NESOR ALLOY\98487 NESOR ALLOY DIV OF PHELPS DODGE")</f>
-        <v>0</v>
+      <c r="B354" s="2" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
         <v>355</v>
       </c>
-      <c r="B355" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\N\NESOR ALLOY\98488 NESOR ALLOY DIV OF PHELPS DODGS", "P:/CONREC/CUSTOMERS\N\NESOR ALLOY\98488 NESOR ALLOY DIV OF PHELPS DODGS")</f>
-        <v>0</v>
+      <c r="B355" s="2" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
         <v>356</v>
       </c>
-      <c r="B356" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\N\NESOR ALLOY\98489 NESOR ALLOY DIV OF PHELPS DODGS", "P:/CONREC/CUSTOMERS\N\NESOR ALLOY\98489 NESOR ALLOY DIV OF PHELPS DODGS")</f>
-        <v>0</v>
+      <c r="B356" s="2" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
         <v>357</v>
       </c>
-      <c r="B357" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\N\NESOR ALLOY\98490 NESOR ALLOY DIV OF PHELPS DODGE", "P:/CONREC/CUSTOMERS\N\NESOR ALLOY\98490 NESOR ALLOY DIV OF PHELPS DODGE")</f>
-        <v>0</v>
+      <c r="B357" s="2" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
         <v>358</v>
       </c>
-      <c r="B358" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SIEMENS\98491 SIEMENS ITE", "P:/CONREC/CUSTOMERS\S\SIEMENS\98491 SIEMENS ITE")</f>
-        <v>0</v>
+      <c r="B358" s="2" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
         <v>359</v>
       </c>
-      <c r="B359" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\EPNER\98492 EPNER", "P:/CONREC/CUSTOMERS\E\EPNER\98492 EPNER")</f>
-        <v>0</v>
+      <c r="B359" s="2" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
         <v>360</v>
       </c>
-      <c r="B360" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MCCAULEY-MCGARD\98493 MCCAULEY-MCGARD", "P:/CONREC/CUSTOMERS\M\MCCAULEY-MCGARD\98493 MCCAULEY-MCGARD")</f>
-        <v>0</v>
+      <c r="B360" s="2" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
         <v>361</v>
       </c>
-      <c r="B361" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MCCAULEY-MCGARD\98494 MCCAULEY-MCGARD", "P:/CONREC/CUSTOMERS\M\MCCAULEY-MCGARD\98494 MCCAULEY-MCGARD")</f>
-        <v>0</v>
+      <c r="B361" s="2" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
         <v>362</v>
       </c>
-      <c r="B362" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MCCAULEY-MCGARD\98495 MCCAULEY-MCGARD", "P:/CONREC/CUSTOMERS\M\MCCAULEY-MCGARD\98495 MCCAULEY-MCGARD")</f>
-        <v>0</v>
+      <c r="B362" s="2" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
         <v>363</v>
       </c>
-      <c r="B363" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MCCAULEY-MCGARD\98496 MCCAULEY-MCGARD", "P:/CONREC/CUSTOMERS\M\MCCAULEY-MCGARD\98496 MCCAULEY-MCGARD")</f>
-        <v>0</v>
+      <c r="B363" s="2" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
         <v>364</v>
       </c>
-      <c r="B364" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\I\INVENSYS\98498 INVENSYS SYSTEMS INC FOXBORO", "P:/CONREC/CUSTOMERS\I\INVENSYS\98498 INVENSYS SYSTEMS INC FOXBORO")</f>
-        <v>0</v>
+      <c r="B364" s="2" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
         <v>365</v>
       </c>
-      <c r="B365" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\F\FOUNTAIN PLATING\98499 FOUNTAIN PLATING", "P:/CONREC/CUSTOMERS\F\FOUNTAIN PLATING\98499 FOUNTAIN PLATING")</f>
-        <v>0</v>
+      <c r="B365" s="2" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
         <v>366</v>
       </c>
-      <c r="B366" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\AMP\98500 AMP INC", "P:/CONREC/CUSTOMERS\A\AMP\98500 AMP INC")</f>
-        <v>0</v>
+      <c r="B366" s="2" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
         <v>367</v>
       </c>
-      <c r="B367" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\D\DYNATEC\98501 DYNATEC - NOT SOLD", "P:/CONREC/CUSTOMERS\D\DYNATEC\98501 DYNATEC - NOT SOLD")</f>
-        <v>0</v>
+      <c r="B367" s="2" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
         <v>368</v>
       </c>
-      <c r="B368" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\R\R SHARPE\99502 R SHARPE INDUSTRIES", "P:/CONREC/CUSTOMERS\R\R SHARPE\99502 R SHARPE INDUSTRIES")</f>
-        <v>0</v>
+      <c r="B368" s="2" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
         <v>369</v>
       </c>
-      <c r="B369" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\T\TEXTRON AEROSPACE\99503 TEXTRON AEROSPACE FASTENER", "P:/CONREC/CUSTOMERS\T\TEXTRON AEROSPACE\99503 TEXTRON AEROSPACE FASTENER")</f>
-        <v>0</v>
+      <c r="B369" s="2" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
         <v>370</v>
       </c>
-      <c r="B370" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SPEC PLATING\99504 SPEC PLATING", "P:/CONREC/CUSTOMERS\S\SPEC PLATING\99504 SPEC PLATING")</f>
-        <v>0</v>
+      <c r="B370" s="2" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
         <v>371</v>
       </c>
-      <c r="B371" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SQUARE D\99505 SQUARE D - GROUPE SCHNEIDER", "P:/CONREC/CUSTOMERS\S\SQUARE D\99505 SQUARE D - GROUPE SCHNEIDER")</f>
-        <v>0</v>
+      <c r="B371" s="2" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
         <v>372</v>
       </c>
-      <c r="B372" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MA-COMM\99506 MA-COMM, DIV TYCO", "P:/CONREC/CUSTOMERS\M\MA-COMM\99506 MA-COMM, DIV TYCO")</f>
-        <v>0</v>
+      <c r="B372" s="2" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
         <v>373</v>
       </c>
-      <c r="B373" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SEAGRAM DO LTD\99507 SEAGRAM DO LTD - UNIV POLYGRAM", "P:/CONREC/CUSTOMERS\S\SEAGRAM DO LTD\99507 SEAGRAM DO LTD - UNIV POLYGRAM")</f>
-        <v>0</v>
+      <c r="B373" s="2" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
         <v>374</v>
       </c>
-      <c r="B374" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\EAST SIDE PLATING\99508 EAST SIDE PLATING", "P:/CONREC/CUSTOMERS\E\EAST SIDE PLATING\99508 EAST SIDE PLATING")</f>
-        <v>0</v>
+      <c r="B374" s="2" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
         <v>375</v>
       </c>
-      <c r="B375" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\EAST SIDE PLATING\99509 EAST SIDE PLATING", "P:/CONREC/CUSTOMERS\E\EAST SIDE PLATING\99509 EAST SIDE PLATING")</f>
-        <v>0</v>
+      <c r="B375" s="2" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
         <v>376</v>
       </c>
-      <c r="B376" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\T\THORCO\99510 THORCO INDUSTRIES", "P:/CONREC/CUSTOMERS\T\THORCO\99510 THORCO INDUSTRIES")</f>
-        <v>0</v>
+      <c r="B376" s="2" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
         <v>377</v>
       </c>
-      <c r="B377" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CONREC\99511 DISMANTLED", "P:/CONREC/CUSTOMERS\C\CONREC\99511 DISMANTLED")</f>
-        <v>0</v>
+      <c r="B377" s="2" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
         <v>378</v>
       </c>
-      <c r="B378" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\V\VOEST-ALPINE\99512 VOEST-ALPINE SERVICE", "P:/CONREC/CUSTOMERS\V\VOEST-ALPINE\99512 VOEST-ALPINE SERVICE")</f>
-        <v>0</v>
+      <c r="B378" s="2" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
         <v>379</v>
       </c>
-      <c r="B379" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\T\TYCO\99513 TYCO ELECTRONICS", "P:/CONREC/CUSTOMERS\T\TYCO\99513 TYCO ELECTRONICS")</f>
-        <v>0</v>
+      <c r="B379" s="2" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
         <v>380</v>
       </c>
-      <c r="B380" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\99514 OSRAM SILVANIA", "P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\99514 OSRAM SILVANIA")</f>
-        <v>0</v>
+      <c r="B380" s="2" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
         <v>381</v>
       </c>
-      <c r="B381" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CONREC\99515 CONREC RENTAL", "P:/CONREC/CUSTOMERS\C\CONREC\99515 CONREC RENTAL")</f>
-        <v>0</v>
+      <c r="B381" s="2" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
         <v>382</v>
       </c>
-      <c r="B382" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\W\WILLIAMS PLATING\99516 WILLIAMS PLATING", "P:/CONREC/CUSTOMERS\W\WILLIAMS PLATING\99516 WILLIAMS PLATING")</f>
-        <v>0</v>
+      <c r="B382" s="2" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
         <v>383</v>
       </c>
-      <c r="B383" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SEPCO\99517 SILICON VALLEY - SEPCO", "P:/CONREC/CUSTOMERS\S\SEPCO\99517 SILICON VALLEY - SEPCO")</f>
-        <v>0</v>
+      <c r="B383" s="2" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
         <v>384</v>
       </c>
-      <c r="B384" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SEPCO\99518 SILICON VALLEY - SEPCO", "P:/CONREC/CUSTOMERS\S\SEPCO\99518 SILICON VALLEY - SEPCO")</f>
-        <v>0</v>
+      <c r="B384" s="2" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
         <v>385</v>
       </c>
-      <c r="B385" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\D\D S MFG\99519 D S MFG", "P:/CONREC/CUSTOMERS\D\D S MFG\99519 D S MFG")</f>
-        <v>0</v>
+      <c r="B385" s="2" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
         <v>386</v>
       </c>
-      <c r="B386" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\D\DANFOSSE\99520 DANFOSSE MANEUROP SA", "P:/CONREC/CUSTOMERS\D\DANFOSSE\99520 DANFOSSE MANEUROP SA")</f>
-        <v>0</v>
+      <c r="B386" s="2" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
         <v>387</v>
       </c>
-      <c r="B387" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\U\UNITED REFINING &amp; SMELTING\99521 UNITED REFINING &amp; SMELTING", "P:/CONREC/CUSTOMERS\U\UNITED REFINING &amp; SMELTING\99521 UNITED REFINING &amp; SMELTING")</f>
-        <v>0</v>
+      <c r="B387" s="2" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
         <v>388</v>
       </c>
-      <c r="B388" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CONREC\99522 NO SALE", "P:/CONREC/CUSTOMERS\C\CONREC\99522 NO SALE")</f>
-        <v>0</v>
+      <c r="B388" s="2" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
         <v>389</v>
       </c>
-      <c r="B389" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CONREC\99523 NO SALE", "P:/CONREC/CUSTOMERS\C\CONREC\99523 NO SALE")</f>
-        <v>0</v>
+      <c r="B389" s="2" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
         <v>390</v>
       </c>
-      <c r="B390" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\I\INDUSTRIAL ELECTROPLATING\99524 INDUSTRIAL ELECTROPLATING", "P:/CONREC/CUSTOMERS\I\INDUSTRIAL ELECTROPLATING\99524 INDUSTRIAL ELECTROPLATING")</f>
-        <v>0</v>
+      <c r="B390" s="2" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
         <v>391</v>
       </c>
-      <c r="B391" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\GE\99525 GE AIRCRAFT ENGINES", "P:/CONREC/CUSTOMERS\G\GE\99525 GE AIRCRAFT ENGINES")</f>
-        <v>0</v>
+      <c r="B391" s="2" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
         <v>392</v>
       </c>
-      <c r="B392" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\AMERICAN TINNING &amp; GALV\2000497 AMERICAN TINNING &amp; GALV", "P:/CONREC/CUSTOMERS\A\AMERICAN TINNING &amp; GALV\2000497 AMERICAN TINNING &amp; GALV")</f>
-        <v>0</v>
+      <c r="B392" s="2" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
         <v>393</v>
       </c>
-      <c r="B393" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\T\TCS\2000527 TCS - PERKIN ELMIR", "P:/CONREC/CUSTOMERS\T\TCS\2000527 TCS - PERKIN ELMIR")</f>
-        <v>0</v>
+      <c r="B393" s="2" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
         <v>394</v>
       </c>
-      <c r="B394" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CONREC\2000528 CONREC RENTAL", "P:/CONREC/CUSTOMERS\C\CONREC\2000528 CONREC RENTAL")</f>
-        <v>0</v>
+      <c r="B394" s="2" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
         <v>395</v>
       </c>
-      <c r="B395" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\EVANS PLATING\2000529 EVANS PLATING", "P:/CONREC/CUSTOMERS\E\EVANS PLATING\2000529 EVANS PLATING")</f>
-        <v>0</v>
+      <c r="B395" s="2" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
         <v>396</v>
       </c>
-      <c r="B396" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CADON PIT\2000530 NO SOLD - CADON PIT - DISASSEMBLED", "P:/CONREC/CUSTOMERS\C\CADON PIT\2000530 NO SOLD - CADON PIT - DISASSEMBLED")</f>
-        <v>0</v>
+      <c r="B396" s="2" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
         <v>397</v>
       </c>
-      <c r="B397" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\COGEMA RESOURCES\2000531 COGEMA RESOURCES", "P:/CONREC/CUSTOMERS\C\COGEMA RESOURCES\2000531 COGEMA RESOURCES")</f>
-        <v>0</v>
+      <c r="B397" s="2" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
         <v>398</v>
       </c>
-      <c r="B398" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\I\ILSCO\2000532 ILSCO CORP", "P:/CONREC/CUSTOMERS\I\ILSCO\2000532 ILSCO CORP")</f>
-        <v>0</v>
+      <c r="B398" s="2" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
         <v>399</v>
       </c>
-      <c r="B399" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\O\OBERG\2000533 OBERG INDUSTRIES INC", "P:/CONREC/CUSTOMERS\O\OBERG\2000533 OBERG INDUSTRIES INC")</f>
-        <v>0</v>
+      <c r="B399" s="2" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
         <v>400</v>
       </c>
-      <c r="B400" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\O\OBERG\2000534 OBERG INDUSTRIES INC", "P:/CONREC/CUSTOMERS\O\OBERG\2000534 OBERG INDUSTRIES INC")</f>
-        <v>0</v>
+      <c r="B400" s="2" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
         <v>401</v>
       </c>
-      <c r="B401" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\A &amp; E ANODIZING\2000535 A &amp; E ANODIZING", "P:/CONREC/CUSTOMERS\A\A &amp; E ANODIZING\2000535 A &amp; E ANODIZING")</f>
-        <v>0</v>
+      <c r="B401" s="2" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
         <v>402</v>
       </c>
-      <c r="B402" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\U\UNITED METAL FINISHING\2000536 UNITED METAL FINISHING", "P:/CONREC/CUSTOMERS\U\UNITED METAL FINISHING\2000536 UNITED METAL FINISHING")</f>
-        <v>0</v>
+      <c r="B402" s="2" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
         <v>403</v>
       </c>
-      <c r="B403" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\EVANS PLATING\2000537 EVANS PLATING", "P:/CONREC/CUSTOMERS\E\EVANS PLATING\2000537 EVANS PLATING")</f>
-        <v>0</v>
+      <c r="B403" s="2" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
         <v>404</v>
       </c>
-      <c r="B404" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CONREC\2000538 CONREC RENTAL OLD STYLE RF MIC", "P:/CONREC/CUSTOMERS\C\CONREC\2000538 CONREC RENTAL OLD STYLE RF MIC")</f>
-        <v>0</v>
+      <c r="B404" s="2" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
         <v>405</v>
       </c>
-      <c r="B405" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\R\RF MICRO\2000539 RF MICRO DEVICES", "P:/CONREC/CUSTOMERS\R\RF MICRO\2000539 RF MICRO DEVICES")</f>
-        <v>0</v>
+      <c r="B405" s="2" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
         <v>406</v>
       </c>
-      <c r="B406" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\ELECTRO CHEMICAL FINISHING\2000540 ELECTRO CHEMICAL FINISHING", "P:/CONREC/CUSTOMERS\E\ELECTRO CHEMICAL FINISHING\2000540 ELECTRO CHEMICAL FINISHING")</f>
-        <v>0</v>
+      <c r="B406" s="2" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
         <v>407</v>
       </c>
-      <c r="B407" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\ENVIRO-CHEM\2000541 ENVIRO-CHEM", "P:/CONREC/CUSTOMERS\E\ENVIRO-CHEM\2000541 ENVIRO-CHEM")</f>
-        <v>0</v>
+      <c r="B407" s="2" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
         <v>408</v>
       </c>
-      <c r="B408" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CONREC\2000542 CONREC RENTAL", "P:/CONREC/CUSTOMERS\C\CONREC\2000542 CONREC RENTAL")</f>
-        <v>0</v>
+      <c r="B408" s="2" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
         <v>409</v>
       </c>
-      <c r="B409" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\U\US ENGINE VALVES\2000543 US ENGINE VALVES", "P:/CONREC/CUSTOMERS\U\US ENGINE VALVES\2000543 US ENGINE VALVES")</f>
-        <v>0</v>
+      <c r="B409" s="2" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
         <v>410</v>
       </c>
-      <c r="B410" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\V\VOEST-ALPINE\2000544 VOEST-ALPINE SERVICE", "P:/CONREC/CUSTOMERS\V\VOEST-ALPINE\2000544 VOEST-ALPINE SERVICE")</f>
-        <v>0</v>
+      <c r="B410" s="2" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
         <v>411</v>
       </c>
-      <c r="B411" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\V\VOEST-ALPINE\2000545 VOEST-ALPINE SERVICE", "P:/CONREC/CUSTOMERS\V\VOEST-ALPINE\2000545 VOEST-ALPINE SERVICE")</f>
-        <v>0</v>
+      <c r="B411" s="2" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
         <v>412</v>
       </c>
-      <c r="B412" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\AMERICAN TECHNICAL CERAMICS\2000546 AMERICAN TECHNICAL CERAMICS", "P:/CONREC/CUSTOMERS\A\AMERICAN TECHNICAL CERAMICS\2000546 AMERICAN TECHNICAL CERAMICS")</f>
-        <v>0</v>
+      <c r="B412" s="2" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
         <v>413</v>
       </c>
-      <c r="B413" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\V\VOEST-ALPINE\2000547 VOEST-ALPINE SERVICE", "P:/CONREC/CUSTOMERS\V\VOEST-ALPINE\2000547 VOEST-ALPINE SERVICE")</f>
-        <v>0</v>
+      <c r="B413" s="2" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
         <v>414</v>
       </c>
-      <c r="B414" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CONREC\2000548 NOT SOLD", "P:/CONREC/CUSTOMERS\C\CONREC\2000548 NOT SOLD")</f>
-        <v>0</v>
+      <c r="B414" s="2" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
         <v>415</v>
       </c>
-      <c r="B415" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\Q\QUALITY ROLLING\2000549 QUALITY ROLLING &amp; DEBURRING", "P:/CONREC/CUSTOMERS\Q\QUALITY ROLLING\2000549 QUALITY ROLLING &amp; DEBURRING")</f>
-        <v>0</v>
+      <c r="B415" s="2" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
         <v>416</v>
       </c>
-      <c r="B416" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\EMPIRE HARD CHROME\2000550 EMPIRE HARD CHROME", "P:/CONREC/CUSTOMERS\E\EMPIRE HARD CHROME\2000550 EMPIRE HARD CHROME")</f>
-        <v>0</v>
+      <c r="B416" s="2" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
         <v>417</v>
       </c>
-      <c r="B417" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\EMPIRE HARD CHROME\2000551 EMPIRE HARD CHROME", "P:/CONREC/CUSTOMERS\E\EMPIRE HARD CHROME\2000551 EMPIRE HARD CHROME")</f>
-        <v>0</v>
+      <c r="B417" s="2" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
         <v>418</v>
       </c>
-      <c r="B418" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\R\RF MICRO\2000552 RF MICRO DEVICES", "P:/CONREC/CUSTOMERS\R\RF MICRO\2000552 RF MICRO DEVICES")</f>
-        <v>0</v>
+      <c r="B418" s="2" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
         <v>419</v>
       </c>
-      <c r="B419" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PRECISION ALLOY\2001553 PRECISION ALLOY", "P:/CONREC/CUSTOMERS\P\PRECISION ALLOY\2001553 PRECISION ALLOY")</f>
-        <v>0</v>
+      <c r="B419" s="2" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
         <v>420</v>
       </c>
-      <c r="B420" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CONREC\2001554 CONREC RENTAL", "P:/CONREC/CUSTOMERS\C\CONREC\2001554 CONREC RENTAL")</f>
-        <v>0</v>
+      <c r="B420" s="2" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
         <v>421</v>
       </c>
-      <c r="B421" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\D\DIXLINE\2001555 DIXLINE CORP", "P:/CONREC/CUSTOMERS\D\DIXLINE\2001555 DIXLINE CORP")</f>
-        <v>0</v>
+      <c r="B421" s="2" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
         <v>422</v>
       </c>
-      <c r="B422" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PRECISION ALLOY\2001556 PRECISION ALLOY", "P:/CONREC/CUSTOMERS\P\PRECISION ALLOY\2001556 PRECISION ALLOY")</f>
-        <v>0</v>
+      <c r="B422" s="2" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
         <v>423</v>
       </c>
-      <c r="B423" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CONREC\2001558 CONREC TESTING UNIT", "P:/CONREC/CUSTOMERS\C\CONREC\2001558 CONREC TESTING UNIT")</f>
-        <v>0</v>
+      <c r="B423" s="2" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
         <v>424</v>
       </c>
-      <c r="B424" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\K\KWIKSET LOCK\2001559 KWIKSET LOCK DIV OF B &amp; D", "P:/CONREC/CUSTOMERS\K\KWIKSET LOCK\2001559 KWIKSET LOCK DIV OF B &amp; D")</f>
-        <v>0</v>
+      <c r="B424" s="2" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
         <v>425</v>
       </c>
-      <c r="B425" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MOEN\2001560 MOEN INC", "P:/CONREC/CUSTOMERS\M\MOEN\2001560 MOEN INC")</f>
-        <v>0</v>
+      <c r="B425" s="2" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
         <v>426</v>
       </c>
-      <c r="B426" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MOEN\2001561 MOEN INC", "P:/CONREC/CUSTOMERS\M\MOEN\2001561 MOEN INC")</f>
-        <v>0</v>
+      <c r="B426" s="2" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
         <v>427</v>
       </c>
-      <c r="B427" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\EPZ\2001562 EPZ METALS", "P:/CONREC/CUSTOMERS\E\EPZ\2001562 EPZ METALS")</f>
-        <v>0</v>
+      <c r="B427" s="2" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
         <v>428</v>
       </c>
-      <c r="B428" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\B\BERETTA USA\2001563 BERETTA USA CORP", "P:/CONREC/CUSTOMERS\B\BERETTA USA\2001563 BERETTA USA CORP")</f>
-        <v>0</v>
+      <c r="B428" s="2" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
         <v>429</v>
       </c>
-      <c r="B429" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CONTINENTAL BRASS CO\2001564 CONTINENTAL BRASS CO", "P:/CONREC/CUSTOMERS\C\CONTINENTAL BRASS CO\2001564 CONTINENTAL BRASS CO")</f>
-        <v>0</v>
+      <c r="B429" s="2" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
         <v>430</v>
       </c>
-      <c r="B430" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\2001565 OSRAM SYLVANIA", "P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\2001565 OSRAM SYLVANIA")</f>
-        <v>0</v>
+      <c r="B430" s="2" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
         <v>431</v>
       </c>
-      <c r="B431" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\2001566 OSRAM SYLVANIA", "P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\2001566 OSRAM SYLVANIA")</f>
-        <v>0</v>
+      <c r="B431" s="2" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
         <v>432</v>
       </c>
-      <c r="B432" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\2001567 OSRAM SYLVANIA", "P:/CONREC/CUSTOMERS\O\OSRAM SYLVANIA\2001567 OSRAM SYLVANIA")</f>
-        <v>0</v>
+      <c r="B432" s="2" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
         <v>433</v>
       </c>
-      <c r="B433" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CONREC\2001568 CONREC RENTAL", "P:/CONREC/CUSTOMERS\C\CONREC\2001568 CONREC RENTAL")</f>
-        <v>0</v>
+      <c r="B433" s="2" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
         <v>434</v>
       </c>
-      <c r="B434" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\R\RAYCO\2001569 RAYCO OF SCHENECTADY", "P:/CONREC/CUSTOMERS\R\RAYCO\2001569 RAYCO OF SCHENECTADY")</f>
-        <v>0</v>
+      <c r="B434" s="2" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
         <v>435</v>
       </c>
-      <c r="B435" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SOUTHERN MAINE INDUSTRIES\2001570 SOUTHERN MAINE INDUSTRIES CORP", "P:/CONREC/CUSTOMERS\S\SOUTHERN MAINE INDUSTRIES\2001570 SOUTHERN MAINE INDUSTRIES CORP")</f>
-        <v>0</v>
+      <c r="B435" s="2" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
         <v>436</v>
       </c>
-      <c r="B436" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\AMERICAN FLANGE\2001571 AMERICAN FLANGE &amp; MFG", "P:/CONREC/CUSTOMERS\A\AMERICAN FLANGE\2001571 AMERICAN FLANGE &amp; MFG")</f>
-        <v>0</v>
+      <c r="B436" s="2" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
         <v>437</v>
       </c>
-      <c r="B437" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CUSTOM COATING\2001572 CUSTOM COATING", "P:/CONREC/CUSTOMERS\C\CUSTOM COATING\2001572 CUSTOM COATING")</f>
-        <v>0</v>
+      <c r="B437" s="2" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
         <v>438</v>
       </c>
-      <c r="B438" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\ERICO\2001573 ERICO INC", "P:/CONREC/CUSTOMERS\E\ERICO\2001573 ERICO INC")</f>
-        <v>0</v>
+      <c r="B438" s="2" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
         <v>439</v>
       </c>
-      <c r="B439" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\F\F &amp; H PLATING\2002395 F &amp; H PLATING", "P:/CONREC/CUSTOMERS\F\F &amp; H PLATING\2002395 F &amp; H PLATING")</f>
-        <v>0</v>
+      <c r="B439" s="2" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
         <v>440</v>
       </c>
-      <c r="B440" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CONREC\2002526 CONREC RENTAL - JW HARRIS", "P:/CONREC/CUSTOMERS\C\CONREC\2002526 CONREC RENTAL - JW HARRIS")</f>
-        <v>0</v>
+      <c r="B440" s="2" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
         <v>441</v>
       </c>
-      <c r="B441" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\EDCO\2002557 EDCO PRODUCTS", "P:/CONREC/CUSTOMERS\E\EDCO\2002557 EDCO PRODUCTS")</f>
-        <v>0</v>
+      <c r="B441" s="2" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
         <v>442</v>
       </c>
-      <c r="B442" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\GE\2002574 GE SWITCHGEAR", "P:/CONREC/CUSTOMERS\G\GE\2002574 GE SWITCHGEAR")</f>
-        <v>0</v>
+      <c r="B442" s="2" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
         <v>443</v>
       </c>
-      <c r="B443" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SECOR\2002575 SECOR - US NAVY", "P:/CONREC/CUSTOMERS\S\SECOR\2002575 SECOR - US NAVY")</f>
-        <v>0</v>
+      <c r="B443" s="2" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
         <v>444</v>
       </c>
-      <c r="B444" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MITSUBISHI\2002576 MITSUBISHI", "P:/CONREC/CUSTOMERS\M\MITSUBISHI\2002576 MITSUBISHI")</f>
-        <v>0</v>
+      <c r="B444" s="2" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" t="s">
         <v>445</v>
       </c>
-      <c r="B445" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\GE\2002577 GE", "P:/CONREC/CUSTOMERS\G\GE\2002577 GE")</f>
-        <v>0</v>
+      <c r="B445" s="2" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
         <v>446</v>
       </c>
-      <c r="B446" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\W\WATTS REGTROL\2002578 WATTS REGTROL", "P:/CONREC/CUSTOMERS\W\WATTS REGTROL\2002578 WATTS REGTROL")</f>
-        <v>0</v>
+      <c r="B446" s="2" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
         <v>447</v>
       </c>
-      <c r="B447" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\V\V H BLACKINTON\2002579 V H BLACKINTON", "P:/CONREC/CUSTOMERS\V\V H BLACKINTON\2002579 V H BLACKINTON")</f>
-        <v>0</v>
+      <c r="B447" s="2" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
         <v>448</v>
       </c>
-      <c r="B448" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\I\INTERMETRO\2002580 INTERMETRO", "P:/CONREC/CUSTOMERS\I\INTERMETRO\2002580 INTERMETRO")</f>
-        <v>0</v>
+      <c r="B448" s="2" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
         <v>449</v>
       </c>
-      <c r="B449" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\EDCO\2002581 EDCO PRODUCTS", "P:/CONREC/CUSTOMERS\E\EDCO\2002581 EDCO PRODUCTS")</f>
-        <v>0</v>
+      <c r="B449" s="2" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
         <v>450</v>
       </c>
-      <c r="B450" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ABRAMS AIRBOURNE\2002582 ABRAMS AIRBORNE MFG", "P:/CONREC/CUSTOMERS\A\ABRAMS AIRBOURNE\2002582 ABRAMS AIRBORNE MFG")</f>
-        <v>0</v>
+      <c r="B450" s="2" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" t="s">
         <v>451</v>
       </c>
-      <c r="B451" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\HALLMARK SWEET\2002583 HALLMARK SWEET", "P:/CONREC/CUSTOMERS\H\HALLMARK SWEET\2002583 HALLMARK SWEET")</f>
-        <v>0</v>
+      <c r="B451" s="2" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
         <v>452</v>
       </c>
-      <c r="B452" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CONREC\2002584 CONREC RENTAL", "P:/CONREC/CUSTOMERS\C\CONREC\2002584 CONREC RENTAL")</f>
-        <v>0</v>
+      <c r="B452" s="2" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
         <v>453</v>
       </c>
-      <c r="B453" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CONREC\2002585 CONREC RENTAL", "P:/CONREC/CUSTOMERS\C\CONREC\2002585 CONREC RENTAL")</f>
-        <v>0</v>
+      <c r="B453" s="2" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
         <v>454</v>
       </c>
-      <c r="B454" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\Q\QUEEN CITY PLATING\2002586 QUEEN CITY PLATING", "P:/CONREC/CUSTOMERS\Q\QUEEN CITY PLATING\2002586 QUEEN CITY PLATING")</f>
-        <v>0</v>
+      <c r="B454" s="2" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
         <v>455</v>
       </c>
-      <c r="B455" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PLASTIC PLATERS INC\2003587 PLASTIC PLATERS INC", "P:/CONREC/CUSTOMERS\P\PLASTIC PLATERS INC\2003587 PLASTIC PLATERS INC")</f>
-        <v>0</v>
+      <c r="B455" s="2" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
         <v>456</v>
       </c>
-      <c r="B456" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\B\BAR-S FOODS\2003588 BAR-S FOODS COMPANY", "P:/CONREC/CUSTOMERS\B\BAR-S FOODS\2003588 BAR-S FOODS COMPANY")</f>
-        <v>0</v>
+      <c r="B456" s="2" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
         <v>457</v>
       </c>
-      <c r="B457" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\K\K &amp; L MICROWAVE\2003589 K &amp; L MICROWAVE", "P:/CONREC/CUSTOMERS\K\K &amp; L MICROWAVE\2003589 K &amp; L MICROWAVE")</f>
-        <v>0</v>
+      <c r="B457" s="2" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
         <v>458</v>
       </c>
-      <c r="B458" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\V\VARIAN MEDICAL\2003590 VARIAN MEDICAL SYSTEMS", "P:/CONREC/CUSTOMERS\V\VARIAN MEDICAL\2003590 VARIAN MEDICAL SYSTEMS")</f>
-        <v>0</v>
+      <c r="B458" s="2" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
         <v>459</v>
       </c>
-      <c r="B459" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\EATON\2003591 EATON CORPORATION", "P:/CONREC/CUSTOMERS\E\EATON\2003591 EATON CORPORATION")</f>
-        <v>0</v>
+      <c r="B459" s="2" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
         <v>460</v>
       </c>
-      <c r="B460" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\W\WASTE MANAGEMENT\2003592 WASTE MANAGEMENT-METRO RDF", "P:/CONREC/CUSTOMERS\W\WASTE MANAGEMENT\2003592 WASTE MANAGEMENT-METRO RDF")</f>
-        <v>0</v>
+      <c r="B460" s="2" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
         <v>461</v>
       </c>
-      <c r="B461" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\K\K &amp; L MICROWAVE\2003593 K &amp; L MICROWAVE", "P:/CONREC/CUSTOMERS\K\K &amp; L MICROWAVE\2003593 K &amp; L MICROWAVE")</f>
-        <v>0</v>
+      <c r="B461" s="2" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
         <v>462</v>
       </c>
-      <c r="B462" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PARKEN-HANNIFIN\2003594 PARKER-HANNIFIN", "P:/CONREC/CUSTOMERS\P\PARKEN-HANNIFIN\2003594 PARKER-HANNIFIN")</f>
-        <v>0</v>
+      <c r="B462" s="2" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
         <v>463</v>
       </c>
-      <c r="B463" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\HILL-ROM\2003595 HILL-ROM INC", "P:/CONREC/CUSTOMERS\H\HILL-ROM\2003595 HILL-ROM INC")</f>
-        <v>0</v>
+      <c r="B463" s="2" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
         <v>464</v>
       </c>
-      <c r="B464" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ABINGTON\2004596 ABINGTON METALS", "P:/CONREC/CUSTOMERS\A\ABINGTON\2004596 ABINGTON METALS")</f>
-        <v>0</v>
+      <c r="B464" s="2" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
         <v>465</v>
       </c>
-      <c r="B465" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MEXINOX\2004597 MEXINOX", "P:/CONREC/CUSTOMERS\M\MEXINOX\2004597 MEXINOX")</f>
-        <v>0</v>
+      <c r="B465" s="2" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
         <v>466</v>
       </c>
-      <c r="B466" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MEXINOX\2004598 MEXINOX", "P:/CONREC/CUSTOMERS\M\MEXINOX\2004598 MEXINOX")</f>
-        <v>0</v>
+      <c r="B466" s="2" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
         <v>467</v>
       </c>
-      <c r="B467" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MEXINOX\2004599 MEXINOX", "P:/CONREC/CUSTOMERS\M\MEXINOX\2004599 MEXINOX")</f>
-        <v>0</v>
+      <c r="B467" s="2" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
         <v>468</v>
       </c>
-      <c r="B468" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\L\LENOX - AMERICAN SAW\2004600 LENOX-AMERICAN SAW", "P:/CONREC/CUSTOMERS\L\LENOX - AMERICAN SAW\2004600 LENOX-AMERICAN SAW")</f>
-        <v>0</v>
+      <c r="B468" s="2" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
         <v>469</v>
       </c>
-      <c r="B469" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\L\LOCKHEED MARTIN\2004601 LOCKHEED MARTIN", "P:/CONREC/CUSTOMERS\L\LOCKHEED MARTIN\2004601 LOCKHEED MARTIN")</f>
-        <v>0</v>
+      <c r="B469" s="2" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
         <v>470</v>
       </c>
-      <c r="B470" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\HAR-CONN CHROME\2004602 HAR-CONN CHROME", "P:/CONREC/CUSTOMERS\H\HAR-CONN CHROME\2004602 HAR-CONN CHROME")</f>
-        <v>0</v>
+      <c r="B470" s="2" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
         <v>471</v>
       </c>
-      <c r="B471" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CJI PROCESS SYSTEMS\2005603 CJI PROCESS SYSTEMS", "P:/CONREC/CUSTOMERS\C\CJI PROCESS SYSTEMS\2005603 CJI PROCESS SYSTEMS")</f>
-        <v>0</v>
+      <c r="B471" s="2" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
         <v>472</v>
       </c>
-      <c r="B472" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CJI PROCESS SYSTEMS\2005604 CJI PROCESS SYSTEMS", "P:/CONREC/CUSTOMERS\C\CJI PROCESS SYSTEMS\2005604 CJI PROCESS SYSTEMS")</f>
-        <v>0</v>
+      <c r="B472" s="2" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
         <v>473</v>
       </c>
-      <c r="B473" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\ENCYCLE\2005605 ENCYCLE SDN BHDM MTPD", "P:/CONREC/CUSTOMERS\E\ENCYCLE\2005605 ENCYCLE SDN BHDM MTPD")</f>
-        <v>0</v>
+      <c r="B473" s="2" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
         <v>474</v>
       </c>
-      <c r="B474" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\L\L.D. MCCAULEY\2005606 L D MCCAULEY", "P:/CONREC/CUSTOMERS\L\L.D. MCCAULEY\2005606 L D MCCAULEY")</f>
-        <v>0</v>
+      <c r="B474" s="2" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
         <v>475</v>
       </c>
-      <c r="B475" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PROFILE EXTRUSIONS\2006607 PROFILE EXTRUSIONS", "P:/CONREC/CUSTOMERS\P\PROFILE EXTRUSIONS\2006607 PROFILE EXTRUSIONS")</f>
-        <v>0</v>
+      <c r="B475" s="2" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
         <v>476</v>
       </c>
-      <c r="B476" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SPEC PLATING\2006608 SPEC PLATING CORP", "P:/CONREC/CUSTOMERS\S\SPEC PLATING\2006608 SPEC PLATING CORP")</f>
-        <v>0</v>
+      <c r="B476" s="2" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
         <v>477</v>
       </c>
-      <c r="B477" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SPEC PLATING\2006609 SPEC PLATING CORP", "P:/CONREC/CUSTOMERS\S\SPEC PLATING\2006609 SPEC PLATING CORP")</f>
-        <v>0</v>
+      <c r="B477" s="2" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
         <v>478</v>
       </c>
-      <c r="B478" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\AVANT GARDE\2007610 AVANT GARDE TECHNOLOGIES LTD", "P:/CONREC/CUSTOMERS\A\AVANT GARDE\2007610 AVANT GARDE TECHNOLOGIES LTD")</f>
-        <v>0</v>
+      <c r="B478" s="2" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
         <v>479</v>
       </c>
-      <c r="B479" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\N\NICO PRODUCTS\2007611 NICO PRODUCTS INC", "P:/CONREC/CUSTOMERS\N\NICO PRODUCTS\2007611 NICO PRODUCTS INC")</f>
-        <v>0</v>
+      <c r="B479" s="2" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
         <v>480</v>
       </c>
-      <c r="B480" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SENIOR OPERATIONS\2007612 SENIOR OPERATIONS", "P:/CONREC/CUSTOMERS\S\SENIOR OPERATIONS\2007612 SENIOR OPERATIONS")</f>
-        <v>0</v>
+      <c r="B480" s="2" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
         <v>481</v>
       </c>
-      <c r="B481" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\K\KONTEK ECOLOGY\2008613 KONTEK ECOLOGY", "P:/CONREC/CUSTOMERS\K\KONTEK ECOLOGY\2008613 KONTEK ECOLOGY")</f>
-        <v>0</v>
+      <c r="B481" s="2" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
         <v>482</v>
       </c>
-      <c r="B482" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SQUARE D\2008614 SQUARE D - GROUPE SCHNEIDER", "P:/CONREC/CUSTOMERS\S\SQUARE D\2008614 SQUARE D - GROUPE SCHNEIDER")</f>
-        <v>0</v>
+      <c r="B482" s="2" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
         <v>483</v>
       </c>
-      <c r="B483" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\K\KONTEK ECOLOGY\2008615 KONTEK ECOLOGY", "P:/CONREC/CUSTOMERS\K\KONTEK ECOLOGY\2008615 KONTEK ECOLOGY")</f>
-        <v>0</v>
+      <c r="B483" s="2" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
         <v>484</v>
       </c>
-      <c r="B484" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\W\WOOD GROUP\2008616 WOOD GROUP", "P:/CONREC/CUSTOMERS\W\WOOD GROUP\2008616 WOOD GROUP")</f>
-        <v>0</v>
+      <c r="B484" s="2" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
         <v>485</v>
       </c>
-      <c r="B485" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MILLCRAFT\2008617 MILLCRAFT SMS SERVICES", "P:/CONREC/CUSTOMERS\M\MILLCRAFT\2008617 MILLCRAFT SMS SERVICES")</f>
-        <v>0</v>
+      <c r="B485" s="2" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
         <v>486</v>
       </c>
-      <c r="B486" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MILLCRAFT\2008618 MILLCRAFT SMS SERVICES", "P:/CONREC/CUSTOMERS\M\MILLCRAFT\2008618 MILLCRAFT SMS SERVICES")</f>
-        <v>0</v>
+      <c r="B486" s="2" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
         <v>487</v>
       </c>
-      <c r="B487" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MILLCRAFT\2008619 MILLCRAFT SMS SERVICES", "P:/CONREC/CUSTOMERS\M\MILLCRAFT\2008619 MILLCRAFT SMS SERVICES")</f>
-        <v>0</v>
+      <c r="B487" s="2" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
         <v>488</v>
       </c>
-      <c r="B488" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MILLCRAFT\2008620 MILLCRAFT SMS SERVICES", "P:/CONREC/CUSTOMERS\M\MILLCRAFT\2008620 MILLCRAFT SMS SERVICES")</f>
-        <v>0</v>
+      <c r="B488" s="2" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
         <v>489</v>
       </c>
-      <c r="B489" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SMITH EQUIPMENT\2008621 SMITH EQUIPMENT", "P:/CONREC/CUSTOMERS\S\SMITH EQUIPMENT\2008621 SMITH EQUIPMENT")</f>
-        <v>0</v>
+      <c r="B489" s="2" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
         <v>490</v>
       </c>
-      <c r="B490" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\Q\QUEEN CITY PLATING\2008622 QUEEN CITY PLATING", "P:/CONREC/CUSTOMERS\Q\QUEEN CITY PLATING\2008622 QUEEN CITY PLATING")</f>
-        <v>0</v>
+      <c r="B490" s="2" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
         <v>491</v>
       </c>
-      <c r="B491" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SCHLAGE\2008623 SCHLAGE LOCK", "P:/CONREC/CUSTOMERS\S\SCHLAGE\2008623 SCHLAGE LOCK")</f>
-        <v>0</v>
+      <c r="B491" s="2" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" t="s">
         <v>492</v>
       </c>
-      <c r="B492" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MICRONICS\2008624 MICRONICS", "P:/CONREC/CUSTOMERS\M\MICRONICS\2008624 MICRONICS")</f>
-        <v>0</v>
+      <c r="B492" s="2" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" t="s">
         <v>493</v>
       </c>
-      <c r="B493" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\R\R R DONNELLEY\2008625 R R DONNELLEY", "P:/CONREC/CUSTOMERS\R\R R DONNELLEY\2008625 R R DONNELLEY")</f>
-        <v>0</v>
+      <c r="B493" s="2" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
         <v>494</v>
       </c>
-      <c r="B494" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MILLCRAFT\2008626 MILLCRAFT SMS SERVICES", "P:/CONREC/CUSTOMERS\M\MILLCRAFT\2008626 MILLCRAFT SMS SERVICES")</f>
-        <v>0</v>
+      <c r="B494" s="2" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
         <v>495</v>
       </c>
-      <c r="B495" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\K\KONTEK ECOLOGY\2008627 KONTEK ECOLOGY", "P:/CONREC/CUSTOMERS\K\KONTEK ECOLOGY\2008627 KONTEK ECOLOGY")</f>
-        <v>0</v>
+      <c r="B495" s="2" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" t="s">
         <v>496</v>
       </c>
-      <c r="B496" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\M W WATERMARK\2008628 M W WATERMARK - FOX GROUP", "P:/CONREC/CUSTOMERS\M\M W WATERMARK\2008628 M W WATERMARK - FOX GROUP")</f>
-        <v>0</v>
+      <c r="B496" s="2" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
         <v>497</v>
       </c>
-      <c r="B497" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ABINGTON\2009629 ABINGTON", "P:/CONREC/CUSTOMERS\A\ABINGTON\2009629 ABINGTON")</f>
-        <v>0</v>
+      <c r="B497" s="2" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
         <v>498</v>
       </c>
-      <c r="B498" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ABINGTON\2010634 ABINGTON RELDAN METALS", "P:/CONREC/CUSTOMERS\A\ABINGTON\2010634 ABINGTON RELDAN METALS")</f>
-        <v>0</v>
+      <c r="B498" s="2" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
         <v>499</v>
       </c>
-      <c r="B499" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\N\NOVA FINISHING\2010635 NOVA FINISHING", "P:/CONREC/CUSTOMERS\N\NOVA FINISHING\2010635 NOVA FINISHING")</f>
-        <v>0</v>
+      <c r="B499" s="2" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
         <v>500</v>
       </c>
-      <c r="B500" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\HAWKINS\2010636 Hawkins", "P:/CONREC/CUSTOMERS\H\HAWKINS\2010636 Hawkins")</f>
-        <v>0</v>
+      <c r="B500" s="2" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" t="s">
         <v>501</v>
       </c>
-      <c r="B501" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\K\KESTREL\2012649 KESTREL HORIZONS", "P:/CONREC/CUSTOMERS\K\KESTREL\2012649 KESTREL HORIZONS")</f>
-        <v>0</v>
+      <c r="B501" s="2" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
         <v>502</v>
       </c>
-      <c r="B502" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\K\KESTREL\2012650 KESTREL OPT. STUDY", "P:/CONREC/CUSTOMERS\K\KESTREL\2012650 KESTREL OPT. STUDY")</f>
-        <v>0</v>
+      <c r="B502" s="2" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" t="s">
         <v>503</v>
       </c>
-      <c r="B503" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\L\L.D. MCCAULEY\2013661 LD McCauley", "P:/CONREC/CUSTOMERS\L\L.D. MCCAULEY\2013661 LD McCauley")</f>
-        <v>0</v>
+      <c r="B503" s="2" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" t="s">
         <v>504</v>
       </c>
-      <c r="B504" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\G\GALDERMA\2013668 Warco_Galderma", "P:/CONREC/CUSTOMERS\G\GALDERMA\2013668 Warco_Galderma")</f>
-        <v>0</v>
+      <c r="B504" s="2" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
         <v>505</v>
       </c>
-      <c r="B505" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\F\FLEX-N-GATE\2013669 Flex-N-Gate", "P:/CONREC/CUSTOMERS\F\FLEX-N-GATE\2013669 Flex-N-Gate")</f>
-        <v>0</v>
+      <c r="B505" s="2" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
         <v>506</v>
       </c>
-      <c r="B506" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\A\ABINGTON\2014672 - Abington 56206S Sludge Dryer - 50 CF Steam", "P:/CONREC/CUSTOMERS\A\ABINGTON\2014672 - Abington 56206S Sludge Dryer - 50 CF Steam")</f>
-        <v>0</v>
+      <c r="B506" s="2" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
         <v>507</v>
       </c>
-      <c r="B507" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MARITIME HOUSE\2015678 - Maritime House Slurry Mizer 150S", "P:/CONREC/CUSTOMERS\M\MARITIME HOUSE\2015678 - Maritime House Slurry Mizer 150S")</f>
-        <v>0</v>
+      <c r="B507" s="2" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" t="s">
         <v>508</v>
       </c>
-      <c r="B508" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CIRCUIT CONTROLS CORP (CCC)\2015679 - Circuit Control Corp Slurry Mizer 75E", "P:/CONREC/CUSTOMERS\C\CIRCUIT CONTROLS CORP (CCC)\2015679 - Circuit Control Corp Slurry Mizer 75E")</f>
-        <v>0</v>
+      <c r="B508" s="2" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
         <v>509</v>
       </c>
-      <c r="B509" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MOEN\2016682 - Moen", "P:/CONREC/CUSTOMERS\M\MOEN\2016682 - Moen")</f>
-        <v>0</v>
+      <c r="B509" s="2" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
         <v>510</v>
       </c>
-      <c r="B510" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\COORSTEK\2017683 CoorsTek 44093E Dryer", "P:/CONREC/CUSTOMERS\C\COORSTEK\2017683 CoorsTek 44093E Dryer")</f>
-        <v>0</v>
+      <c r="B510" s="2" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" t="s">
         <v>511</v>
       </c>
-      <c r="B511" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MOEN\2017684 - Moen 44093E Dryer", "P:/CONREC/CUSTOMERS\M\MOEN\2017684 - Moen 44093E Dryer")</f>
-        <v>0</v>
+      <c r="B511" s="2" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
         <v>512</v>
       </c>
-      <c r="B512" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\P\PRINTED CIRCUITS\2018685 - Printed Circuits - 29076E", "P:/CONREC/CUSTOMERS\P\PRINTED CIRCUITS\2018685 - Printed Circuits - 29076E")</f>
-        <v>0</v>
+      <c r="B512" s="2" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
         <v>513</v>
       </c>
-      <c r="B513" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MICRONICS\2018686 - Micronics Inc - 26056E", "P:/CONREC/CUSTOMERS\M\MICRONICS\2018686 - Micronics Inc - 26056E")</f>
-        <v>0</v>
+      <c r="B513" s="2" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
         <v>514</v>
       </c>
-      <c r="B514" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CONTROL ELECTROPOLISHING\2019687 Control Electropolishing - Shortcut.lnk", "P:/CONREC/CUSTOMERS\C\CONTROL ELECTROPOLISHING\2019687 Control Electropolishing - Shortcut.lnk")</f>
-        <v>0</v>
+      <c r="B514" s="2" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" t="s">
         <v>515</v>
       </c>
-      <c r="B515" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\U\UNIFIRST\2020689 UNIFIRST BARNWELL, SC NUCLEAR LAUNDRY", "P:/CONREC/CUSTOMERS\U\UNIFIRST\2020689 UNIFIRST BARNWELL, SC NUCLEAR LAUNDRY")</f>
-        <v>0</v>
+      <c r="B515" s="2" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" t="s">
         <v>516</v>
       </c>
-      <c r="B516" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\H\HILL-ROM\2020690 HILLROM BATESVILLE, IN", "P:/CONREC/CUSTOMERS\H\HILL-ROM\2020690 HILLROM BATESVILLE, IN")</f>
-        <v>0</v>
+      <c r="B516" s="2" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
         <v>517</v>
       </c>
-      <c r="B517" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\L\LINCOLN ELECTRIC\2020691 LINCOLN ELECTRIC", "P:/CONREC/CUSTOMERS\L\LINCOLN ELECTRIC\2020691 LINCOLN ELECTRIC")</f>
-        <v>0</v>
+      <c r="B517" s="2" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
         <v>518</v>
       </c>
-      <c r="B518" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CONTROL ELECTROPOLISHING\2020692 Control Electropolishing 6 cuft sludge dryer 29076E", "P:/CONREC/CUSTOMERS\C\CONTROL ELECTROPOLISHING\2020692 Control Electropolishing 6 cuft sludge dryer 29076E")</f>
-        <v>0</v>
+      <c r="B518" s="2" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
         <v>519</v>
       </c>
-      <c r="B519" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\W\WILLIAMS PLATING\2020693 Conrec Sludge Dryer 26056E", "P:/CONREC/CUSTOMERS\W\WILLIAMS PLATING\2020693 Conrec Sludge Dryer 26056E")</f>
-        <v>0</v>
+      <c r="B519" s="2" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
         <v>520</v>
       </c>
-      <c r="B520" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\E\ELECTRO KLEEN\2020694 3 cuft Filter Press with Head Plate Only", "P:/CONREC/CUSTOMERS\E\ELECTRO KLEEN\2020694 3 cuft Filter Press with Head Plate Only")</f>
-        <v>0</v>
+      <c r="B520" s="2" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
         <v>521</v>
       </c>
-      <c r="B521" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\R\ROYAL CANADIAN MINT\2020695 RCM SLUDGE DRYER WITH STANCHIONS", "P:/CONREC/CUSTOMERS\R\ROYAL CANADIAN MINT\2020695 RCM SLUDGE DRYER WITH STANCHIONS")</f>
-        <v>0</v>
+      <c r="B521" s="2" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
         <v>522</v>
       </c>
-      <c r="B522" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\M\MICRONICS\2022696 MICRONICS UK", "P:/CONREC/CUSTOMERS\M\MICRONICS\2022696 MICRONICS UK")</f>
-        <v>0</v>
+      <c r="B522" s="2" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" t="s">
         <v>523</v>
       </c>
-      <c r="B523" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\C\CARBON IP - INNOTECH\2023698 CarbonIP-Innotech 24036E 2cu Used", "P:/CONREC/CUSTOMERS\C\CARBON IP - INNOTECH\2023698 CarbonIP-Innotech 24036E 2cu Used")</f>
-        <v>0</v>
+      <c r="B523" s="2" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
         <v>524</v>
       </c>
-      <c r="B524" s="1">
-        <f>HYPERLINK("P:/CONREC/CUSTOMERS\S\SIEMENS\2023699 SIEMENS ROEBUCK", "P:/CONREC/CUSTOMERS\S\SIEMENS\2023699 SIEMENS ROEBUCK")</f>
-        <v>0</v>
+      <c r="B524" s="2" t="s">
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
+    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B43" r:id="rId42"/>
+    <hyperlink ref="B44" r:id="rId43"/>
+    <hyperlink ref="B45" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B51" r:id="rId50"/>
+    <hyperlink ref="B52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
+    <hyperlink ref="B54" r:id="rId53"/>
+    <hyperlink ref="B55" r:id="rId54"/>
+    <hyperlink ref="B56" r:id="rId55"/>
+    <hyperlink ref="B57" r:id="rId56"/>
+    <hyperlink ref="B58" r:id="rId57"/>
+    <hyperlink ref="B59" r:id="rId58"/>
+    <hyperlink ref="B60" r:id="rId59"/>
+    <hyperlink ref="B61" r:id="rId60"/>
+    <hyperlink ref="B62" r:id="rId61"/>
+    <hyperlink ref="B63" r:id="rId62"/>
+    <hyperlink ref="B64" r:id="rId63"/>
+    <hyperlink ref="B65" r:id="rId64"/>
+    <hyperlink ref="B66" r:id="rId65"/>
+    <hyperlink ref="B67" r:id="rId66"/>
+    <hyperlink ref="B68" r:id="rId67"/>
+    <hyperlink ref="B69" r:id="rId68"/>
+    <hyperlink ref="B70" r:id="rId69"/>
+    <hyperlink ref="B71" r:id="rId70"/>
+    <hyperlink ref="B72" r:id="rId71"/>
+    <hyperlink ref="B73" r:id="rId72"/>
+    <hyperlink ref="B74" r:id="rId73"/>
+    <hyperlink ref="B75" r:id="rId74"/>
+    <hyperlink ref="B76" r:id="rId75"/>
+    <hyperlink ref="B77" r:id="rId76"/>
+    <hyperlink ref="B78" r:id="rId77"/>
+    <hyperlink ref="B79" r:id="rId78"/>
+    <hyperlink ref="B80" r:id="rId79"/>
+    <hyperlink ref="B81" r:id="rId80"/>
+    <hyperlink ref="B82" r:id="rId81"/>
+    <hyperlink ref="B83" r:id="rId82"/>
+    <hyperlink ref="B84" r:id="rId83"/>
+    <hyperlink ref="B85" r:id="rId84"/>
+    <hyperlink ref="B86" r:id="rId85"/>
+    <hyperlink ref="B87" r:id="rId86"/>
+    <hyperlink ref="B88" r:id="rId87"/>
+    <hyperlink ref="B89" r:id="rId88"/>
+    <hyperlink ref="B90" r:id="rId89"/>
+    <hyperlink ref="B91" r:id="rId90"/>
+    <hyperlink ref="B92" r:id="rId91"/>
+    <hyperlink ref="B93" r:id="rId92"/>
+    <hyperlink ref="B94" r:id="rId93"/>
+    <hyperlink ref="B95" r:id="rId94"/>
+    <hyperlink ref="B96" r:id="rId95"/>
+    <hyperlink ref="B97" r:id="rId96"/>
+    <hyperlink ref="B98" r:id="rId97"/>
+    <hyperlink ref="B99" r:id="rId98"/>
+    <hyperlink ref="B100" r:id="rId99"/>
+    <hyperlink ref="B101" r:id="rId100"/>
+    <hyperlink ref="B102" r:id="rId101"/>
+    <hyperlink ref="B103" r:id="rId102"/>
+    <hyperlink ref="B104" r:id="rId103"/>
+    <hyperlink ref="B105" r:id="rId104"/>
+    <hyperlink ref="B106" r:id="rId105"/>
+    <hyperlink ref="B107" r:id="rId106"/>
+    <hyperlink ref="B108" r:id="rId107"/>
+    <hyperlink ref="B109" r:id="rId108"/>
+    <hyperlink ref="B110" r:id="rId109"/>
+    <hyperlink ref="B111" r:id="rId110"/>
+    <hyperlink ref="B112" r:id="rId111"/>
+    <hyperlink ref="B113" r:id="rId112"/>
+    <hyperlink ref="B114" r:id="rId113"/>
+    <hyperlink ref="B115" r:id="rId114"/>
+    <hyperlink ref="B116" r:id="rId115"/>
+    <hyperlink ref="B117" r:id="rId116"/>
+    <hyperlink ref="B118" r:id="rId117"/>
+    <hyperlink ref="B119" r:id="rId118"/>
+    <hyperlink ref="B120" r:id="rId119"/>
+    <hyperlink ref="B121" r:id="rId120"/>
+    <hyperlink ref="B122" r:id="rId121"/>
+    <hyperlink ref="B123" r:id="rId122"/>
+    <hyperlink ref="B124" r:id="rId123"/>
+    <hyperlink ref="B125" r:id="rId124"/>
+    <hyperlink ref="B126" r:id="rId125"/>
+    <hyperlink ref="B127" r:id="rId126"/>
+    <hyperlink ref="B128" r:id="rId127"/>
+    <hyperlink ref="B129" r:id="rId128"/>
+    <hyperlink ref="B130" r:id="rId129"/>
+    <hyperlink ref="B131" r:id="rId130"/>
+    <hyperlink ref="B132" r:id="rId131"/>
+    <hyperlink ref="B133" r:id="rId132"/>
+    <hyperlink ref="B134" r:id="rId133"/>
+    <hyperlink ref="B135" r:id="rId134"/>
+    <hyperlink ref="B136" r:id="rId135"/>
+    <hyperlink ref="B137" r:id="rId136"/>
+    <hyperlink ref="B138" r:id="rId137"/>
+    <hyperlink ref="B139" r:id="rId138"/>
+    <hyperlink ref="B140" r:id="rId139"/>
+    <hyperlink ref="B141" r:id="rId140"/>
+    <hyperlink ref="B142" r:id="rId141"/>
+    <hyperlink ref="B143" r:id="rId142"/>
+    <hyperlink ref="B144" r:id="rId143"/>
+    <hyperlink ref="B145" r:id="rId144"/>
+    <hyperlink ref="B146" r:id="rId145"/>
+    <hyperlink ref="B147" r:id="rId146"/>
+    <hyperlink ref="B148" r:id="rId147"/>
+    <hyperlink ref="B149" r:id="rId148"/>
+    <hyperlink ref="B150" r:id="rId149"/>
+    <hyperlink ref="B151" r:id="rId150"/>
+    <hyperlink ref="B152" r:id="rId151"/>
+    <hyperlink ref="B153" r:id="rId152"/>
+    <hyperlink ref="B154" r:id="rId153"/>
+    <hyperlink ref="B155" r:id="rId154"/>
+    <hyperlink ref="B156" r:id="rId155"/>
+    <hyperlink ref="B157" r:id="rId156"/>
+    <hyperlink ref="B158" r:id="rId157"/>
+    <hyperlink ref="B159" r:id="rId158"/>
+    <hyperlink ref="B160" r:id="rId159"/>
+    <hyperlink ref="B161" r:id="rId160"/>
+    <hyperlink ref="B162" r:id="rId161"/>
+    <hyperlink ref="B163" r:id="rId162"/>
+    <hyperlink ref="B164" r:id="rId163"/>
+    <hyperlink ref="B165" r:id="rId164"/>
+    <hyperlink ref="B166" r:id="rId165"/>
+    <hyperlink ref="B167" r:id="rId166"/>
+    <hyperlink ref="B168" r:id="rId167"/>
+    <hyperlink ref="B169" r:id="rId168"/>
+    <hyperlink ref="B170" r:id="rId169"/>
+    <hyperlink ref="B171" r:id="rId170"/>
+    <hyperlink ref="B172" r:id="rId171"/>
+    <hyperlink ref="B173" r:id="rId172"/>
+    <hyperlink ref="B174" r:id="rId173"/>
+    <hyperlink ref="B175" r:id="rId174"/>
+    <hyperlink ref="B176" r:id="rId175"/>
+    <hyperlink ref="B177" r:id="rId176"/>
+    <hyperlink ref="B178" r:id="rId177"/>
+    <hyperlink ref="B179" r:id="rId178"/>
+    <hyperlink ref="B180" r:id="rId179"/>
+    <hyperlink ref="B181" r:id="rId180"/>
+    <hyperlink ref="B182" r:id="rId181"/>
+    <hyperlink ref="B183" r:id="rId182"/>
+    <hyperlink ref="B184" r:id="rId183"/>
+    <hyperlink ref="B185" r:id="rId184"/>
+    <hyperlink ref="B186" r:id="rId185"/>
+    <hyperlink ref="B187" r:id="rId186"/>
+    <hyperlink ref="B188" r:id="rId187"/>
+    <hyperlink ref="B189" r:id="rId188"/>
+    <hyperlink ref="B190" r:id="rId189"/>
+    <hyperlink ref="B191" r:id="rId190"/>
+    <hyperlink ref="B192" r:id="rId191"/>
+    <hyperlink ref="B193" r:id="rId192"/>
+    <hyperlink ref="B194" r:id="rId193"/>
+    <hyperlink ref="B195" r:id="rId194"/>
+    <hyperlink ref="B196" r:id="rId195"/>
+    <hyperlink ref="B197" r:id="rId196"/>
+    <hyperlink ref="B198" r:id="rId197"/>
+    <hyperlink ref="B199" r:id="rId198"/>
+    <hyperlink ref="B200" r:id="rId199"/>
+    <hyperlink ref="B201" r:id="rId200"/>
+    <hyperlink ref="B202" r:id="rId201"/>
+    <hyperlink ref="B203" r:id="rId202"/>
+    <hyperlink ref="B204" r:id="rId203"/>
+    <hyperlink ref="B205" r:id="rId204"/>
+    <hyperlink ref="B206" r:id="rId205"/>
+    <hyperlink ref="B207" r:id="rId206"/>
+    <hyperlink ref="B208" r:id="rId207"/>
+    <hyperlink ref="B209" r:id="rId208"/>
+    <hyperlink ref="B210" r:id="rId209"/>
+    <hyperlink ref="B211" r:id="rId210"/>
+    <hyperlink ref="B212" r:id="rId211"/>
+    <hyperlink ref="B213" r:id="rId212"/>
+    <hyperlink ref="B214" r:id="rId213"/>
+    <hyperlink ref="B215" r:id="rId214"/>
+    <hyperlink ref="B216" r:id="rId215"/>
+    <hyperlink ref="B217" r:id="rId216"/>
+    <hyperlink ref="B218" r:id="rId217"/>
+    <hyperlink ref="B219" r:id="rId218"/>
+    <hyperlink ref="B220" r:id="rId219"/>
+    <hyperlink ref="B221" r:id="rId220"/>
+    <hyperlink ref="B222" r:id="rId221"/>
+    <hyperlink ref="B223" r:id="rId222"/>
+    <hyperlink ref="B224" r:id="rId223"/>
+    <hyperlink ref="B225" r:id="rId224"/>
+    <hyperlink ref="B226" r:id="rId225"/>
+    <hyperlink ref="B227" r:id="rId226"/>
+    <hyperlink ref="B228" r:id="rId227"/>
+    <hyperlink ref="B229" r:id="rId228"/>
+    <hyperlink ref="B230" r:id="rId229"/>
+    <hyperlink ref="B231" r:id="rId230"/>
+    <hyperlink ref="B232" r:id="rId231"/>
+    <hyperlink ref="B233" r:id="rId232"/>
+    <hyperlink ref="B234" r:id="rId233"/>
+    <hyperlink ref="B235" r:id="rId234"/>
+    <hyperlink ref="B236" r:id="rId235"/>
+    <hyperlink ref="B237" r:id="rId236"/>
+    <hyperlink ref="B238" r:id="rId237"/>
+    <hyperlink ref="B239" r:id="rId238"/>
+    <hyperlink ref="B240" r:id="rId239"/>
+    <hyperlink ref="B241" r:id="rId240"/>
+    <hyperlink ref="B242" r:id="rId241"/>
+    <hyperlink ref="B243" r:id="rId242"/>
+    <hyperlink ref="B244" r:id="rId243"/>
+    <hyperlink ref="B245" r:id="rId244"/>
+    <hyperlink ref="B246" r:id="rId245"/>
+    <hyperlink ref="B247" r:id="rId246"/>
+    <hyperlink ref="B248" r:id="rId247"/>
+    <hyperlink ref="B249" r:id="rId248"/>
+    <hyperlink ref="B250" r:id="rId249"/>
+    <hyperlink ref="B251" r:id="rId250"/>
+    <hyperlink ref="B252" r:id="rId251"/>
+    <hyperlink ref="B253" r:id="rId252"/>
+    <hyperlink ref="B254" r:id="rId253"/>
+    <hyperlink ref="B255" r:id="rId254"/>
+    <hyperlink ref="B256" r:id="rId255"/>
+    <hyperlink ref="B257" r:id="rId256"/>
+    <hyperlink ref="B258" r:id="rId257"/>
+    <hyperlink ref="B259" r:id="rId258"/>
+    <hyperlink ref="B260" r:id="rId259"/>
+    <hyperlink ref="B261" r:id="rId260"/>
+    <hyperlink ref="B262" r:id="rId261"/>
+    <hyperlink ref="B263" r:id="rId262"/>
+    <hyperlink ref="B264" r:id="rId263"/>
+    <hyperlink ref="B265" r:id="rId264"/>
+    <hyperlink ref="B266" r:id="rId265"/>
+    <hyperlink ref="B267" r:id="rId266"/>
+    <hyperlink ref="B268" r:id="rId267"/>
+    <hyperlink ref="B269" r:id="rId268"/>
+    <hyperlink ref="B270" r:id="rId269"/>
+    <hyperlink ref="B271" r:id="rId270"/>
+    <hyperlink ref="B272" r:id="rId271"/>
+    <hyperlink ref="B273" r:id="rId272"/>
+    <hyperlink ref="B274" r:id="rId273"/>
+    <hyperlink ref="B275" r:id="rId274"/>
+    <hyperlink ref="B276" r:id="rId275"/>
+    <hyperlink ref="B277" r:id="rId276"/>
+    <hyperlink ref="B278" r:id="rId277"/>
+    <hyperlink ref="B279" r:id="rId278"/>
+    <hyperlink ref="B280" r:id="rId279"/>
+    <hyperlink ref="B281" r:id="rId280"/>
+    <hyperlink ref="B282" r:id="rId281"/>
+    <hyperlink ref="B283" r:id="rId282"/>
+    <hyperlink ref="B284" r:id="rId283"/>
+    <hyperlink ref="B285" r:id="rId284"/>
+    <hyperlink ref="B286" r:id="rId285"/>
+    <hyperlink ref="B287" r:id="rId286"/>
+    <hyperlink ref="B288" r:id="rId287"/>
+    <hyperlink ref="B289" r:id="rId288"/>
+    <hyperlink ref="B290" r:id="rId289"/>
+    <hyperlink ref="B291" r:id="rId290"/>
+    <hyperlink ref="B292" r:id="rId291"/>
+    <hyperlink ref="B293" r:id="rId292"/>
+    <hyperlink ref="B294" r:id="rId293"/>
+    <hyperlink ref="B295" r:id="rId294"/>
+    <hyperlink ref="B296" r:id="rId295"/>
+    <hyperlink ref="B297" r:id="rId296"/>
+    <hyperlink ref="B298" r:id="rId297"/>
+    <hyperlink ref="B299" r:id="rId298"/>
+    <hyperlink ref="B300" r:id="rId299"/>
+    <hyperlink ref="B301" r:id="rId300"/>
+    <hyperlink ref="B302" r:id="rId301"/>
+    <hyperlink ref="B303" r:id="rId302"/>
+    <hyperlink ref="B304" r:id="rId303"/>
+    <hyperlink ref="B305" r:id="rId304"/>
+    <hyperlink ref="B306" r:id="rId305"/>
+    <hyperlink ref="B307" r:id="rId306"/>
+    <hyperlink ref="B308" r:id="rId307"/>
+    <hyperlink ref="B309" r:id="rId308"/>
+    <hyperlink ref="B310" r:id="rId309"/>
+    <hyperlink ref="B311" r:id="rId310"/>
+    <hyperlink ref="B312" r:id="rId311"/>
+    <hyperlink ref="B313" r:id="rId312"/>
+    <hyperlink ref="B314" r:id="rId313"/>
+    <hyperlink ref="B315" r:id="rId314"/>
+    <hyperlink ref="B316" r:id="rId315"/>
+    <hyperlink ref="B317" r:id="rId316"/>
+    <hyperlink ref="B318" r:id="rId317"/>
+    <hyperlink ref="B319" r:id="rId318"/>
+    <hyperlink ref="B320" r:id="rId319"/>
+    <hyperlink ref="B321" r:id="rId320"/>
+    <hyperlink ref="B322" r:id="rId321"/>
+    <hyperlink ref="B323" r:id="rId322"/>
+    <hyperlink ref="B324" r:id="rId323"/>
+    <hyperlink ref="B325" r:id="rId324"/>
+    <hyperlink ref="B326" r:id="rId325"/>
+    <hyperlink ref="B327" r:id="rId326"/>
+    <hyperlink ref="B328" r:id="rId327"/>
+    <hyperlink ref="B329" r:id="rId328"/>
+    <hyperlink ref="B330" r:id="rId329"/>
+    <hyperlink ref="B331" r:id="rId330"/>
+    <hyperlink ref="B332" r:id="rId331"/>
+    <hyperlink ref="B333" r:id="rId332"/>
+    <hyperlink ref="B334" r:id="rId333"/>
+    <hyperlink ref="B335" r:id="rId334"/>
+    <hyperlink ref="B336" r:id="rId335"/>
+    <hyperlink ref="B337" r:id="rId336"/>
+    <hyperlink ref="B338" r:id="rId337"/>
+    <hyperlink ref="B339" r:id="rId338"/>
+    <hyperlink ref="B340" r:id="rId339"/>
+    <hyperlink ref="B341" r:id="rId340"/>
+    <hyperlink ref="B342" r:id="rId341"/>
+    <hyperlink ref="B343" r:id="rId342"/>
+    <hyperlink ref="B344" r:id="rId343"/>
+    <hyperlink ref="B345" r:id="rId344"/>
+    <hyperlink ref="B346" r:id="rId345"/>
+    <hyperlink ref="B347" r:id="rId346"/>
+    <hyperlink ref="B348" r:id="rId347"/>
+    <hyperlink ref="B349" r:id="rId348"/>
+    <hyperlink ref="B350" r:id="rId349"/>
+    <hyperlink ref="B351" r:id="rId350"/>
+    <hyperlink ref="B352" r:id="rId351"/>
+    <hyperlink ref="B353" r:id="rId352"/>
+    <hyperlink ref="B354" r:id="rId353"/>
+    <hyperlink ref="B355" r:id="rId354"/>
+    <hyperlink ref="B356" r:id="rId355"/>
+    <hyperlink ref="B357" r:id="rId356"/>
+    <hyperlink ref="B358" r:id="rId357"/>
+    <hyperlink ref="B359" r:id="rId358"/>
+    <hyperlink ref="B360" r:id="rId359"/>
+    <hyperlink ref="B361" r:id="rId360"/>
+    <hyperlink ref="B362" r:id="rId361"/>
+    <hyperlink ref="B363" r:id="rId362"/>
+    <hyperlink ref="B364" r:id="rId363"/>
+    <hyperlink ref="B365" r:id="rId364"/>
+    <hyperlink ref="B366" r:id="rId365"/>
+    <hyperlink ref="B367" r:id="rId366"/>
+    <hyperlink ref="B368" r:id="rId367"/>
+    <hyperlink ref="B369" r:id="rId368"/>
+    <hyperlink ref="B370" r:id="rId369"/>
+    <hyperlink ref="B371" r:id="rId370"/>
+    <hyperlink ref="B372" r:id="rId371"/>
+    <hyperlink ref="B373" r:id="rId372"/>
+    <hyperlink ref="B374" r:id="rId373"/>
+    <hyperlink ref="B375" r:id="rId374"/>
+    <hyperlink ref="B376" r:id="rId375"/>
+    <hyperlink ref="B377" r:id="rId376"/>
+    <hyperlink ref="B378" r:id="rId377"/>
+    <hyperlink ref="B379" r:id="rId378"/>
+    <hyperlink ref="B380" r:id="rId379"/>
+    <hyperlink ref="B381" r:id="rId380"/>
+    <hyperlink ref="B382" r:id="rId381"/>
+    <hyperlink ref="B383" r:id="rId382"/>
+    <hyperlink ref="B384" r:id="rId383"/>
+    <hyperlink ref="B385" r:id="rId384"/>
+    <hyperlink ref="B386" r:id="rId385"/>
+    <hyperlink ref="B387" r:id="rId386"/>
+    <hyperlink ref="B388" r:id="rId387"/>
+    <hyperlink ref="B389" r:id="rId388"/>
+    <hyperlink ref="B390" r:id="rId389"/>
+    <hyperlink ref="B391" r:id="rId390"/>
+    <hyperlink ref="B392" r:id="rId391"/>
+    <hyperlink ref="B393" r:id="rId392"/>
+    <hyperlink ref="B394" r:id="rId393"/>
+    <hyperlink ref="B395" r:id="rId394"/>
+    <hyperlink ref="B396" r:id="rId395"/>
+    <hyperlink ref="B397" r:id="rId396"/>
+    <hyperlink ref="B398" r:id="rId397"/>
+    <hyperlink ref="B399" r:id="rId398"/>
+    <hyperlink ref="B400" r:id="rId399"/>
+    <hyperlink ref="B401" r:id="rId400"/>
+    <hyperlink ref="B402" r:id="rId401"/>
+    <hyperlink ref="B403" r:id="rId402"/>
+    <hyperlink ref="B404" r:id="rId403"/>
+    <hyperlink ref="B405" r:id="rId404"/>
+    <hyperlink ref="B406" r:id="rId405"/>
+    <hyperlink ref="B407" r:id="rId406"/>
+    <hyperlink ref="B408" r:id="rId407"/>
+    <hyperlink ref="B409" r:id="rId408"/>
+    <hyperlink ref="B410" r:id="rId409"/>
+    <hyperlink ref="B411" r:id="rId410"/>
+    <hyperlink ref="B412" r:id="rId411"/>
+    <hyperlink ref="B413" r:id="rId412"/>
+    <hyperlink ref="B414" r:id="rId413"/>
+    <hyperlink ref="B415" r:id="rId414"/>
+    <hyperlink ref="B416" r:id="rId415"/>
+    <hyperlink ref="B417" r:id="rId416"/>
+    <hyperlink ref="B418" r:id="rId417"/>
+    <hyperlink ref="B419" r:id="rId418"/>
+    <hyperlink ref="B420" r:id="rId419"/>
+    <hyperlink ref="B421" r:id="rId420"/>
+    <hyperlink ref="B422" r:id="rId421"/>
+    <hyperlink ref="B423" r:id="rId422"/>
+    <hyperlink ref="B424" r:id="rId423"/>
+    <hyperlink ref="B425" r:id="rId424"/>
+    <hyperlink ref="B426" r:id="rId425"/>
+    <hyperlink ref="B427" r:id="rId426"/>
+    <hyperlink ref="B428" r:id="rId427"/>
+    <hyperlink ref="B429" r:id="rId428"/>
+    <hyperlink ref="B430" r:id="rId429"/>
+    <hyperlink ref="B431" r:id="rId430"/>
+    <hyperlink ref="B432" r:id="rId431"/>
+    <hyperlink ref="B433" r:id="rId432"/>
+    <hyperlink ref="B434" r:id="rId433"/>
+    <hyperlink ref="B435" r:id="rId434"/>
+    <hyperlink ref="B436" r:id="rId435"/>
+    <hyperlink ref="B437" r:id="rId436"/>
+    <hyperlink ref="B438" r:id="rId437"/>
+    <hyperlink ref="B439" r:id="rId438"/>
+    <hyperlink ref="B440" r:id="rId439"/>
+    <hyperlink ref="B441" r:id="rId440"/>
+    <hyperlink ref="B442" r:id="rId441"/>
+    <hyperlink ref="B443" r:id="rId442"/>
+    <hyperlink ref="B444" r:id="rId443"/>
+    <hyperlink ref="B445" r:id="rId444"/>
+    <hyperlink ref="B446" r:id="rId445"/>
+    <hyperlink ref="B447" r:id="rId446"/>
+    <hyperlink ref="B448" r:id="rId447"/>
+    <hyperlink ref="B449" r:id="rId448"/>
+    <hyperlink ref="B450" r:id="rId449"/>
+    <hyperlink ref="B451" r:id="rId450"/>
+    <hyperlink ref="B452" r:id="rId451"/>
+    <hyperlink ref="B453" r:id="rId452"/>
+    <hyperlink ref="B454" r:id="rId453"/>
+    <hyperlink ref="B455" r:id="rId454"/>
+    <hyperlink ref="B456" r:id="rId455"/>
+    <hyperlink ref="B457" r:id="rId456"/>
+    <hyperlink ref="B458" r:id="rId457"/>
+    <hyperlink ref="B459" r:id="rId458"/>
+    <hyperlink ref="B460" r:id="rId459"/>
+    <hyperlink ref="B461" r:id="rId460"/>
+    <hyperlink ref="B462" r:id="rId461"/>
+    <hyperlink ref="B463" r:id="rId462"/>
+    <hyperlink ref="B464" r:id="rId463"/>
+    <hyperlink ref="B465" r:id="rId464"/>
+    <hyperlink ref="B466" r:id="rId465"/>
+    <hyperlink ref="B467" r:id="rId466"/>
+    <hyperlink ref="B468" r:id="rId467"/>
+    <hyperlink ref="B469" r:id="rId468"/>
+    <hyperlink ref="B470" r:id="rId469"/>
+    <hyperlink ref="B471" r:id="rId470"/>
+    <hyperlink ref="B472" r:id="rId471"/>
+    <hyperlink ref="B473" r:id="rId472"/>
+    <hyperlink ref="B474" r:id="rId473"/>
+    <hyperlink ref="B475" r:id="rId474"/>
+    <hyperlink ref="B476" r:id="rId475"/>
+    <hyperlink ref="B477" r:id="rId476"/>
+    <hyperlink ref="B478" r:id="rId477"/>
+    <hyperlink ref="B479" r:id="rId478"/>
+    <hyperlink ref="B480" r:id="rId479"/>
+    <hyperlink ref="B481" r:id="rId480"/>
+    <hyperlink ref="B482" r:id="rId481"/>
+    <hyperlink ref="B483" r:id="rId482"/>
+    <hyperlink ref="B484" r:id="rId483"/>
+    <hyperlink ref="B485" r:id="rId484"/>
+    <hyperlink ref="B486" r:id="rId485"/>
+    <hyperlink ref="B487" r:id="rId486"/>
+    <hyperlink ref="B488" r:id="rId487"/>
+    <hyperlink ref="B489" r:id="rId488"/>
+    <hyperlink ref="B490" r:id="rId489"/>
+    <hyperlink ref="B491" r:id="rId490"/>
+    <hyperlink ref="B492" r:id="rId491"/>
+    <hyperlink ref="B493" r:id="rId492"/>
+    <hyperlink ref="B494" r:id="rId493"/>
+    <hyperlink ref="B495" r:id="rId494"/>
+    <hyperlink ref="B496" r:id="rId495"/>
+    <hyperlink ref="B497" r:id="rId496"/>
+    <hyperlink ref="B498" r:id="rId497"/>
+    <hyperlink ref="B499" r:id="rId498"/>
+    <hyperlink ref="B500" r:id="rId499"/>
+    <hyperlink ref="B501" r:id="rId500"/>
+    <hyperlink ref="B502" r:id="rId501"/>
+    <hyperlink ref="B503" r:id="rId502"/>
+    <hyperlink ref="B504" r:id="rId503"/>
+    <hyperlink ref="B505" r:id="rId504"/>
+    <hyperlink ref="B506" r:id="rId505"/>
+    <hyperlink ref="B507" r:id="rId506"/>
+    <hyperlink ref="B508" r:id="rId507"/>
+    <hyperlink ref="B509" r:id="rId508"/>
+    <hyperlink ref="B510" r:id="rId509"/>
+    <hyperlink ref="B511" r:id="rId510"/>
+    <hyperlink ref="B512" r:id="rId511"/>
+    <hyperlink ref="B513" r:id="rId512"/>
+    <hyperlink ref="B514" r:id="rId513"/>
+    <hyperlink ref="B515" r:id="rId514"/>
+    <hyperlink ref="B516" r:id="rId515"/>
+    <hyperlink ref="B517" r:id="rId516"/>
+    <hyperlink ref="B518" r:id="rId517"/>
+    <hyperlink ref="B519" r:id="rId518"/>
+    <hyperlink ref="B520" r:id="rId519"/>
+    <hyperlink ref="B521" r:id="rId520"/>
+    <hyperlink ref="B522" r:id="rId521"/>
+    <hyperlink ref="B523" r:id="rId522"/>
+    <hyperlink ref="B524" r:id="rId523"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>